--- a/PxM_PPC_RL/CAIE/Rev1/visuals/Analysis.xlsx
+++ b/PxM_PPC_RL/CAIE/Rev1/visuals/Analysis.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w_kevi02\sciebo\PhD\01 Prescriptive Maintenance\30 RQ3 - Digital Twin\PxM &amp; PPC (R)\RL-PxM\PxM_PPC_RL\CAIE\Rev1\visuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2D7654-DCCA-4C1A-9879-C438F9240FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73309A01-0302-4100-B0A2-0F37678D8956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="PPO" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -49,18 +49,9 @@
     <t>PM</t>
   </si>
   <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>Spare Parts Inventory</t>
-  </si>
-  <si>
     <t>Files</t>
   </si>
   <si>
-    <t>Reward</t>
-  </si>
-  <si>
     <t>PPO</t>
   </si>
   <si>
@@ -73,200 +64,230 @@
     <t>Timesteps</t>
   </si>
   <si>
+    <t>Rewards</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 2</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>Learning Rate</t>
+  </si>
+  <si>
+    <t>Neurons</t>
+  </si>
+  <si>
+    <t>ReLU</t>
+  </si>
+  <si>
+    <t>Tanh</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 3</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 4</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 5</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 6</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 7</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 8</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 9</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 10</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 11</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 12</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 13</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 14</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 15</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 16</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 17</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 18</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 19</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 20</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 21</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 22</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 23</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 24</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 25</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 26</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 27</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 28</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 29</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 30</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 31</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 32</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 33</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 34</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 35</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 36</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 37</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 38</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 39</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 40</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 41</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 42</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 43</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 44</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 45</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 46</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 47</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 48</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 49</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 50</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 51</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 52</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 53</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 54</t>
+  </si>
+  <si>
+    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 55</t>
+  </si>
+  <si>
+    <t>ActFun</t>
+  </si>
+  <si>
+    <t>Train t (m)</t>
+  </si>
+  <si>
+    <t>Inv</t>
+  </si>
+  <si>
+    <t>SP Inv</t>
+  </si>
+  <si>
+    <t>Rew</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Preventive</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Reactive</t>
+  </si>
+  <si>
+    <t>Reactive with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 55</t>
+  </si>
+  <si>
+    <t>Preventive (interval = 11) with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 55</t>
+  </si>
+  <si>
+    <t>A2C</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Rewards</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 2</t>
-  </si>
-  <si>
-    <t>Gamma</t>
-  </si>
-  <si>
-    <t>Learning Rate</t>
-  </si>
-  <si>
-    <t>Neurons</t>
-  </si>
-  <si>
-    <t>ReLU</t>
-  </si>
-  <si>
-    <t>Tanh</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 3</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 4</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 5</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 6</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 7</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 8</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 9</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 10</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 11</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 12</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 13</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 14</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 15</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 16</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 17</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 18</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 19</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 20</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 21</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 22</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 23</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 24</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 25</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 26</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 27</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 28</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 29</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 30</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 31</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 32</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 33</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 34</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 35</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 36</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 37</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 38</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 39</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 40</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 41</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 42</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 43</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 44</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 45</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 46</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 47</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 48</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 49</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 50</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 51</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 52</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 53</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 54</t>
-  </si>
-  <si>
-    <t>Diagnostics with process noise 1, production levels l = 5, forecast = 0, demand = np.random.poisson(3), maintenance_c = 100, repair_c = 200, backorder_c = 5, self.order_r = 10, holding_c = 2, spare_part_order_c = 10, spare_part_holding_c = 10, sp_emergency_order_c = 75, holding_c = 55</t>
-  </si>
-  <si>
-    <t>ActFun</t>
-  </si>
-  <si>
-    <t>Train t (m)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +305,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -312,10 +340,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -324,8 +353,11 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -604,34 +636,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="15" width="10.7109375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="73.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -640,49 +672,52 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -690,7 +725,7 @@
         <v>44944</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="5">
         <v>500000</v>
@@ -705,19 +740,38 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I2">
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>0.64</v>
+      </c>
+      <c r="L2">
+        <v>7.13</v>
+      </c>
+      <c r="M2">
+        <v>242.79</v>
+      </c>
+      <c r="N2" s="7">
+        <v>10.24</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1655.56</v>
+      </c>
+      <c r="P2">
+        <v>3006.8</v>
+      </c>
+      <c r="Q2" s="9">
+        <f>O2/P2</f>
+        <v>0.55060529466542496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -725,7 +779,7 @@
         <v>44944</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5">
         <v>500000</v>
@@ -740,19 +794,38 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I3">
         <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="L3">
+        <v>6.43</v>
+      </c>
+      <c r="M3">
+        <v>210.05</v>
+      </c>
+      <c r="N3" s="7">
+        <v>7.99</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1594.9</v>
+      </c>
+      <c r="P3">
+        <v>3025.3</v>
+      </c>
+      <c r="Q3" s="9">
+        <f>O3/P3</f>
+        <v>0.52718738637490492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -760,7 +833,7 @@
         <v>44944</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5">
         <v>500000</v>
@@ -775,19 +848,38 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I4">
         <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>1.18</v>
+      </c>
+      <c r="L4">
+        <v>5.93</v>
+      </c>
+      <c r="M4">
+        <v>161.84</v>
+      </c>
+      <c r="N4" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1598.4</v>
+      </c>
+      <c r="P4">
+        <v>3003.5</v>
+      </c>
+      <c r="Q4" s="9">
+        <f>O4/P4</f>
+        <v>0.53217912435491932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -795,7 +887,7 @@
         <v>44944</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" s="5">
         <v>500000</v>
@@ -810,19 +902,38 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I5">
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>1.3</v>
+      </c>
+      <c r="L5">
+        <v>5.96</v>
+      </c>
+      <c r="M5">
+        <v>214.43</v>
+      </c>
+      <c r="N5" s="7">
+        <v>8.32</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1563.79</v>
+      </c>
+      <c r="P5">
+        <v>3018</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>O5/P5</f>
+        <v>0.51815440689198144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -830,7 +941,7 @@
         <v>44944</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5">
         <v>500000</v>
@@ -845,19 +956,38 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <v>1.03</v>
+      </c>
+      <c r="L6">
+        <v>6.19</v>
+      </c>
+      <c r="M6">
+        <v>183.56</v>
+      </c>
+      <c r="N6" s="7">
+        <v>7.76</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1647.28</v>
+      </c>
+      <c r="P6">
+        <v>2993.4</v>
+      </c>
+      <c r="Q6" s="9">
+        <f>O6/P6</f>
+        <v>0.55030400213803699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -865,7 +995,7 @@
         <v>44944</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5">
         <v>500000</v>
@@ -880,19 +1010,38 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I7">
         <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="L7">
+        <v>6.12</v>
+      </c>
+      <c r="M7">
+        <v>200.39</v>
+      </c>
+      <c r="N7" s="7">
+        <v>8.85</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1606.08</v>
+      </c>
+      <c r="P7">
+        <v>2987.3</v>
+      </c>
+      <c r="Q7" s="9">
+        <f>O7/P7</f>
+        <v>0.53763599236768989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -900,7 +1049,7 @@
         <v>44944</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D8" s="5">
         <v>500000</v>
@@ -915,19 +1064,38 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I8">
         <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>0.66</v>
+      </c>
+      <c r="L8">
+        <v>6.36</v>
+      </c>
+      <c r="M8">
+        <v>214.65</v>
+      </c>
+      <c r="N8" s="7">
+        <v>6.96</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1445.32</v>
+      </c>
+      <c r="P8">
+        <v>3003.1</v>
+      </c>
+      <c r="Q8" s="9">
+        <f>O8/P8</f>
+        <v>0.48127601478472243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -935,7 +1103,7 @@
         <v>44944</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" s="5">
         <v>500000</v>
@@ -950,19 +1118,38 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I9">
         <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>1.26</v>
+      </c>
+      <c r="L9">
+        <v>5.98</v>
+      </c>
+      <c r="M9">
+        <v>203.47</v>
+      </c>
+      <c r="N9" s="7">
+        <v>7.26</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1600.15</v>
+      </c>
+      <c r="P9">
+        <v>3005.8</v>
+      </c>
+      <c r="Q9" s="9">
+        <f>O9/P9</f>
+        <v>0.53235411537693789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -970,7 +1157,7 @@
         <v>44944</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10" s="5">
         <v>500000</v>
@@ -985,19 +1172,38 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I10">
         <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>1.18</v>
+      </c>
+      <c r="L10">
+        <v>6.32</v>
+      </c>
+      <c r="M10">
+        <v>228.1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>8.33</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1601.8</v>
+      </c>
+      <c r="P10">
+        <v>3011.8</v>
+      </c>
+      <c r="Q10" s="9">
+        <f>O10/P10</f>
+        <v>0.53184142373331555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1005,7 +1211,7 @@
         <v>44944</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11" s="5">
         <v>500000</v>
@@ -1020,19 +1226,38 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I11">
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <v>1.3</v>
+      </c>
+      <c r="L11">
+        <v>5.99</v>
+      </c>
+      <c r="M11">
+        <v>202.03</v>
+      </c>
+      <c r="N11" s="7">
+        <v>6.58</v>
+      </c>
+      <c r="O11" s="7">
+        <v>1523.82</v>
+      </c>
+      <c r="P11">
+        <v>2983.9</v>
+      </c>
+      <c r="Q11" s="9">
+        <f>O11/P11</f>
+        <v>0.51068065283689124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1040,7 +1265,7 @@
         <v>44944</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D12" s="5">
         <v>500000</v>
@@ -1055,19 +1280,38 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I12">
         <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>0.92</v>
+      </c>
+      <c r="L12">
+        <v>6.41</v>
+      </c>
+      <c r="M12">
+        <v>211.73</v>
+      </c>
+      <c r="N12" s="7">
+        <v>7.77</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1608.04</v>
+      </c>
+      <c r="P12">
+        <v>3005.3</v>
+      </c>
+      <c r="Q12" s="9">
+        <f>O12/P12</f>
+        <v>0.53506804645126937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1075,7 +1319,7 @@
         <v>44944</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5">
         <v>500000</v>
@@ -1090,19 +1334,38 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I13">
         <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>0.98</v>
+      </c>
+      <c r="L13">
+        <v>6.55</v>
+      </c>
+      <c r="M13">
+        <v>211.49</v>
+      </c>
+      <c r="N13" s="7">
+        <v>8.19</v>
+      </c>
+      <c r="O13" s="7">
+        <v>1559.54</v>
+      </c>
+      <c r="P13">
+        <v>2982.8</v>
+      </c>
+      <c r="Q13" s="9">
+        <f>O13/P13</f>
+        <v>0.52284430736220999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1110,7 +1373,7 @@
         <v>44944</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D14" s="5">
         <v>500000</v>
@@ -1125,19 +1388,38 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I14">
         <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="K14">
+        <v>3.19</v>
+      </c>
+      <c r="L14">
+        <v>3.99</v>
+      </c>
+      <c r="M14">
+        <v>322.2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>640.6</v>
+      </c>
+      <c r="P14">
+        <v>2985.4</v>
+      </c>
+      <c r="Q14" s="9">
+        <f>O14/P14</f>
+        <v>0.2145776110403966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1145,7 +1427,7 @@
         <v>44944</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D15" s="5">
         <v>500000</v>
@@ -1160,19 +1442,38 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I15">
         <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="K15">
+        <v>6.2</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>148.08000000000001</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>367.46</v>
+      </c>
+      <c r="P15" s="7">
+        <v>3000</v>
+      </c>
+      <c r="Q15" s="9">
+        <f>O15/P15</f>
+        <v>0.12248666666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1180,7 +1481,7 @@
         <v>44944</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D16" s="5">
         <v>500000</v>
@@ -1195,19 +1496,38 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I16">
         <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="K16">
+        <v>1.23</v>
+      </c>
+      <c r="L16">
+        <v>11.08</v>
+      </c>
+      <c r="M16">
+        <v>145.44999999999999</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>-78.67</v>
+      </c>
+      <c r="P16">
+        <v>3027</v>
+      </c>
+      <c r="Q16" s="9">
+        <f>O16/P16</f>
+        <v>-2.5989428477039975E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1215,7 +1535,7 @@
         <v>44944</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D17" s="5">
         <v>500000</v>
@@ -1230,19 +1550,38 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I17">
         <v>8</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>6.19</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>141.71</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>344.8</v>
+      </c>
+      <c r="P17">
+        <v>3014</v>
+      </c>
+      <c r="Q17" s="9">
+        <f>O17/P17</f>
+        <v>0.11439946914399469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1250,7 +1589,7 @@
         <v>44944</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D18" s="5">
         <v>500000</v>
@@ -1265,19 +1604,38 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I18">
         <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>129.55000000000001</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>321.22000000000003</v>
+      </c>
+      <c r="P18">
+        <v>3035.4</v>
+      </c>
+      <c r="Q18" s="9">
+        <f>O18/P18</f>
+        <v>0.1058246030177242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1285,7 +1643,7 @@
         <v>44944</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D19" s="5">
         <v>500000</v>
@@ -1300,19 +1658,38 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I19">
         <v>64</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="K19">
+        <v>5.8</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>122.06</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>362.52</v>
+      </c>
+      <c r="P19">
+        <v>2987.4</v>
+      </c>
+      <c r="Q19" s="9">
+        <f>O19/P19</f>
+        <v>0.12134966860815424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1320,7 +1697,7 @@
         <v>44944</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D20" s="5">
         <v>500000</v>
@@ -1335,19 +1712,38 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I20">
         <v>8</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="K20">
+        <v>0.81</v>
+      </c>
+      <c r="L20">
+        <v>7.04</v>
+      </c>
+      <c r="M20">
+        <v>190.83</v>
+      </c>
+      <c r="N20" s="7">
+        <v>8.11</v>
+      </c>
+      <c r="O20" s="7">
+        <v>1689.72</v>
+      </c>
+      <c r="P20">
+        <v>3045.6</v>
+      </c>
+      <c r="Q20" s="9">
+        <f>O20/P20</f>
+        <v>0.55480693459416863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1355,7 +1751,7 @@
         <v>44944</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D21" s="5">
         <v>500000</v>
@@ -1370,19 +1766,38 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I21">
         <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="K21">
+        <v>1.02</v>
+      </c>
+      <c r="L21">
+        <v>6.61</v>
+      </c>
+      <c r="M21">
+        <v>227.68</v>
+      </c>
+      <c r="N21" s="7">
+        <v>9.75</v>
+      </c>
+      <c r="O21" s="7">
+        <v>1667.36</v>
+      </c>
+      <c r="P21">
+        <v>3007.7</v>
+      </c>
+      <c r="Q21" s="9">
+        <f>O21/P21</f>
+        <v>0.55436379958107529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1390,7 +1805,7 @@
         <v>44944</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D22" s="5">
         <v>500000</v>
@@ -1405,19 +1820,38 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I22">
         <v>64</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="K22">
+        <v>0.97</v>
+      </c>
+      <c r="L22">
+        <v>6.35</v>
+      </c>
+      <c r="M22">
+        <v>191.95</v>
+      </c>
+      <c r="N22" s="7">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="O22" s="7">
+        <v>1658.66</v>
+      </c>
+      <c r="P22">
+        <v>2986.4</v>
+      </c>
+      <c r="Q22" s="9">
+        <f>O22/P22</f>
+        <v>0.55540450040182165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1425,7 +1859,7 @@
         <v>44944</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D23" s="5">
         <v>500000</v>
@@ -1440,19 +1874,38 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I23">
         <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="K23">
+        <v>0.81</v>
+      </c>
+      <c r="L23">
+        <v>6.45</v>
+      </c>
+      <c r="M23">
+        <v>201.41</v>
+      </c>
+      <c r="N23" s="7">
+        <v>7.48</v>
+      </c>
+      <c r="O23" s="7">
+        <v>1686.2</v>
+      </c>
+      <c r="P23">
+        <v>2979</v>
+      </c>
+      <c r="Q23" s="9">
+        <f>O23/P23</f>
+        <v>0.56602886874790204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1460,7 +1913,7 @@
         <v>44944</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D24" s="5">
         <v>500000</v>
@@ -1475,19 +1928,38 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I24">
         <v>32</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="K24">
+        <v>0.83</v>
+      </c>
+      <c r="L24">
+        <v>6.57</v>
+      </c>
+      <c r="M24">
+        <v>180.36</v>
+      </c>
+      <c r="N24" s="7">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="O24" s="7">
+        <v>1618.71</v>
+      </c>
+      <c r="P24">
+        <v>2986.2</v>
+      </c>
+      <c r="Q24" s="9">
+        <f>O24/P24</f>
+        <v>0.54206349206349214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1495,7 +1967,7 @@
         <v>44944</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D25" s="5">
         <v>500000</v>
@@ -1510,19 +1982,38 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I25">
         <v>64</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
-      </c>
-      <c r="K25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="K25">
+        <v>0.8</v>
+      </c>
+      <c r="L25">
+        <v>7.01</v>
+      </c>
+      <c r="M25">
+        <v>228.67</v>
+      </c>
+      <c r="N25" s="7">
+        <v>9.64</v>
+      </c>
+      <c r="O25" s="7">
+        <v>1659.44</v>
+      </c>
+      <c r="P25">
+        <v>3003.2</v>
+      </c>
+      <c r="Q25" s="9">
+        <f>O25/P25</f>
+        <v>0.55255727224294093</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1530,7 +2021,7 @@
         <v>44944</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D26" s="5">
         <v>500000</v>
@@ -1545,19 +2036,38 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I26">
         <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="K26">
+        <v>0.91</v>
+      </c>
+      <c r="L26">
+        <v>6.16</v>
+      </c>
+      <c r="M26">
+        <v>195.32</v>
+      </c>
+      <c r="N26" s="7">
+        <v>7.47</v>
+      </c>
+      <c r="O26" s="7">
+        <v>1371.4</v>
+      </c>
+      <c r="P26">
+        <v>2973.8</v>
+      </c>
+      <c r="Q26" s="9">
+        <f>O26/P26</f>
+        <v>0.46116080435806039</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1565,7 +2075,7 @@
         <v>44944</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D27" s="5">
         <v>500000</v>
@@ -1580,19 +2090,38 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I27">
         <v>32</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="K27">
+        <v>0.91</v>
+      </c>
+      <c r="L27">
+        <v>6.48</v>
+      </c>
+      <c r="M27">
+        <v>209.39</v>
+      </c>
+      <c r="N27" s="7">
+        <v>7.58</v>
+      </c>
+      <c r="O27" s="7">
+        <v>1633.94</v>
+      </c>
+      <c r="P27">
+        <v>2962.2</v>
+      </c>
+      <c r="Q27" s="9">
+        <f>O27/P27</f>
+        <v>0.55159678617243946</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1600,7 +2129,7 @@
         <v>44944</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D28" s="5">
         <v>500000</v>
@@ -1615,19 +2144,38 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I28">
         <v>64</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="K28">
+        <v>1.01</v>
+      </c>
+      <c r="L28">
+        <v>6.55</v>
+      </c>
+      <c r="M28">
+        <v>205.22</v>
+      </c>
+      <c r="N28" s="7">
+        <v>8.26</v>
+      </c>
+      <c r="O28" s="7">
+        <v>1577.42</v>
+      </c>
+      <c r="P28">
+        <v>3009.5</v>
+      </c>
+      <c r="Q28" s="9">
+        <f>O28/P28</f>
+        <v>0.52414686825054002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1635,7 +2183,7 @@
         <v>44944</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D29" s="5">
         <v>500000</v>
@@ -1650,19 +2198,38 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I29">
         <v>8</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
-      </c>
-      <c r="K29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="K29">
+        <v>0.96</v>
+      </c>
+      <c r="L29">
+        <v>6.18</v>
+      </c>
+      <c r="M29">
+        <v>183.09</v>
+      </c>
+      <c r="N29" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="O29" s="7">
+        <v>1397.28</v>
+      </c>
+      <c r="P29">
+        <v>3012</v>
+      </c>
+      <c r="Q29" s="9">
+        <f>O29/P29</f>
+        <v>0.4639043824701195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1670,7 +2237,7 @@
         <v>44944</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D30" s="5">
         <v>500000</v>
@@ -1685,19 +2252,38 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I30">
         <v>32</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
-      </c>
-      <c r="K30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="K30">
+        <v>0.87</v>
+      </c>
+      <c r="L30">
+        <v>6.6</v>
+      </c>
+      <c r="M30">
+        <v>192.75</v>
+      </c>
+      <c r="N30" s="7">
+        <v>9.07</v>
+      </c>
+      <c r="O30" s="7">
+        <v>1591.92</v>
+      </c>
+      <c r="P30">
+        <v>2992.1</v>
+      </c>
+      <c r="Q30" s="9">
+        <f>O30/P30</f>
+        <v>0.53204104140904385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1705,7 +2291,7 @@
         <v>44944</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D31" s="5">
         <v>500000</v>
@@ -1720,19 +2306,38 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I31">
         <v>64</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
-      </c>
-      <c r="K31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="K31">
+        <v>0.91</v>
+      </c>
+      <c r="L31">
+        <v>6.73</v>
+      </c>
+      <c r="M31">
+        <v>192.35</v>
+      </c>
+      <c r="N31" s="7">
+        <v>8.16</v>
+      </c>
+      <c r="O31" s="7">
+        <v>1619.81</v>
+      </c>
+      <c r="P31">
+        <v>2997.1</v>
+      </c>
+      <c r="Q31" s="9">
+        <f>O31/P31</f>
+        <v>0.54045911047345763</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1740,7 +2345,7 @@
         <v>44944</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D32" s="5">
         <v>500000</v>
@@ -1755,19 +2360,38 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I32">
         <v>8</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
-      </c>
-      <c r="K32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="K32">
+        <v>6.6</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>314.11</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
+        <v>132.37</v>
+      </c>
+      <c r="P32">
+        <v>2986.8</v>
+      </c>
+      <c r="Q32" s="9">
+        <f>O32/P32</f>
+        <v>4.4318334002946297E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1775,7 +2399,7 @@
         <v>44944</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D33" s="5">
         <v>500000</v>
@@ -1790,19 +2414,38 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I33">
         <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="K33">
+        <v>3.62</v>
+      </c>
+      <c r="L33">
+        <v>2.48</v>
+      </c>
+      <c r="M33">
+        <v>140.99</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>775.39</v>
+      </c>
+      <c r="P33">
+        <v>3008.8</v>
+      </c>
+      <c r="Q33" s="9">
+        <f>O33/P33</f>
+        <v>0.25770739165115658</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1810,7 +2453,7 @@
         <v>44944</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D34" s="5">
         <v>500000</v>
@@ -1825,19 +2468,38 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I34">
         <v>64</v>
       </c>
       <c r="J34" t="s">
-        <v>51</v>
-      </c>
-      <c r="K34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="K34">
+        <v>1.46</v>
+      </c>
+      <c r="L34">
+        <v>7.85</v>
+      </c>
+      <c r="M34">
+        <v>142.55000000000001</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7">
+        <v>463.87</v>
+      </c>
+      <c r="P34">
+        <v>2991.7</v>
+      </c>
+      <c r="Q34" s="9">
+        <f>O34/P34</f>
+        <v>0.15505231139485912</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1845,7 +2507,7 @@
         <v>44944</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D35" s="5">
         <v>500000</v>
@@ -1860,19 +2522,38 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="H35" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I35">
         <v>8</v>
       </c>
       <c r="J35" t="s">
-        <v>52</v>
-      </c>
-      <c r="K35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="K35">
+        <v>6.17</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>150.03</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7">
+        <v>345.59</v>
+      </c>
+      <c r="P35">
+        <v>2983.9</v>
+      </c>
+      <c r="Q35" s="9">
+        <f>O35/P35</f>
+        <v>0.11581822447132946</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1880,7 +2561,7 @@
         <v>44944</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D36" s="5">
         <v>500000</v>
@@ -1895,19 +2576,38 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I36">
         <v>32</v>
       </c>
       <c r="J36" t="s">
-        <v>53</v>
-      </c>
-      <c r="K36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="K36">
+        <v>5.97</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>130.29</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7">
+        <v>321.55</v>
+      </c>
+      <c r="P36">
+        <v>2997.9</v>
+      </c>
+      <c r="Q36" s="9">
+        <f>O36/P36</f>
+        <v>0.10725841422328963</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1915,7 +2615,7 @@
         <v>44944</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D37" s="5">
         <v>500000</v>
@@ -1930,19 +2630,38 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I37">
         <v>64</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
-      </c>
-      <c r="K37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="K37">
+        <v>6.33</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>152.51</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7">
+        <v>333.46</v>
+      </c>
+      <c r="P37">
+        <v>2998.9</v>
+      </c>
+      <c r="Q37" s="9">
+        <f>O37/P37</f>
+        <v>0.11119410450498515</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1950,7 +2669,7 @@
         <v>44944</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D38" s="5">
         <v>500000</v>
@@ -1965,16 +2684,38 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
       </c>
       <c r="J38" t="s">
-        <v>55</v>
-      </c>
-      <c r="K38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="K38">
+        <v>0.5</v>
+      </c>
+      <c r="L38">
+        <v>8.08</v>
+      </c>
+      <c r="M38">
+        <v>184.97</v>
+      </c>
+      <c r="N38" s="7">
+        <v>10.75</v>
+      </c>
+      <c r="O38" s="7">
+        <v>1374.79</v>
+      </c>
+      <c r="P38">
+        <v>2980.9</v>
+      </c>
+      <c r="Q38" s="9">
+        <f>O38/P38</f>
+        <v>0.46119963769331407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1982,7 +2723,7 @@
         <v>44944</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D39" s="5">
         <v>500000</v>
@@ -1997,16 +2738,38 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="I39">
+        <v>32</v>
       </c>
       <c r="J39" t="s">
-        <v>56</v>
-      </c>
-      <c r="K39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="K39">
+        <v>1.21</v>
+      </c>
+      <c r="L39">
+        <v>5.99</v>
+      </c>
+      <c r="M39">
+        <v>184.45</v>
+      </c>
+      <c r="N39" s="7">
+        <v>7.89</v>
+      </c>
+      <c r="O39" s="7">
+        <v>1499.81</v>
+      </c>
+      <c r="P39">
+        <v>2988.6</v>
+      </c>
+      <c r="Q39" s="9">
+        <f>O39/P39</f>
+        <v>0.50184367262263263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2014,7 +2777,7 @@
         <v>44944</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D40" s="5">
         <v>500000</v>
@@ -2029,16 +2792,38 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="I40">
+        <v>64</v>
       </c>
       <c r="J40" t="s">
-        <v>57</v>
-      </c>
-      <c r="K40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="K40">
+        <v>0.68</v>
+      </c>
+      <c r="L40">
+        <v>7.13</v>
+      </c>
+      <c r="M40">
+        <v>187.51</v>
+      </c>
+      <c r="N40" s="7">
+        <v>9.43</v>
+      </c>
+      <c r="O40" s="7">
+        <v>1620.17</v>
+      </c>
+      <c r="P40">
+        <v>3000.8</v>
+      </c>
+      <c r="Q40" s="9">
+        <f>O40/P40</f>
+        <v>0.53991268994934682</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2046,7 +2831,7 @@
         <v>44944</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D41" s="5">
         <v>500000</v>
@@ -2061,16 +2846,38 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H41" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="I41">
+        <v>8</v>
       </c>
       <c r="J41" t="s">
-        <v>58</v>
-      </c>
-      <c r="K41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="K41">
+        <v>0.68</v>
+      </c>
+      <c r="L41">
+        <v>6.77</v>
+      </c>
+      <c r="M41">
+        <v>188.59</v>
+      </c>
+      <c r="N41" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="O41" s="7">
+        <v>1649.2</v>
+      </c>
+      <c r="P41">
+        <v>3003.6</v>
+      </c>
+      <c r="Q41" s="9">
+        <f>O41/P41</f>
+        <v>0.54907444400053274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2078,7 +2885,7 @@
         <v>44944</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D42" s="5">
         <v>500000</v>
@@ -2093,16 +2900,38 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="I42">
+        <v>32</v>
       </c>
       <c r="J42" t="s">
-        <v>59</v>
-      </c>
-      <c r="K42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="K42">
+        <v>0.79</v>
+      </c>
+      <c r="L42">
+        <v>6.8</v>
+      </c>
+      <c r="M42">
+        <v>188</v>
+      </c>
+      <c r="N42" s="7">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="O42" s="7">
+        <v>1615.39</v>
+      </c>
+      <c r="P42">
+        <v>2990.9</v>
+      </c>
+      <c r="Q42" s="9">
+        <f>O42/P42</f>
+        <v>0.54010164164632724</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2110,7 +2939,7 @@
         <v>44944</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D43" s="5">
         <v>500000</v>
@@ -2125,16 +2954,38 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H43" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="I43">
+        <v>64</v>
       </c>
       <c r="J43" t="s">
-        <v>60</v>
-      </c>
-      <c r="K43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="K43">
+        <v>1.05</v>
+      </c>
+      <c r="L43">
+        <v>6.4</v>
+      </c>
+      <c r="M43">
+        <v>175.69</v>
+      </c>
+      <c r="N43" s="7">
+        <v>6.18</v>
+      </c>
+      <c r="O43" s="7">
+        <v>1600.27</v>
+      </c>
+      <c r="P43">
+        <v>3018.8</v>
+      </c>
+      <c r="Q43" s="9">
+        <f>O43/P43</f>
+        <v>0.53010136478070757</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2142,7 +2993,7 @@
         <v>44944</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D44" s="5">
         <v>500000</v>
@@ -2157,16 +3008,38 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="I44">
+        <v>8</v>
       </c>
       <c r="J44" t="s">
-        <v>61</v>
-      </c>
-      <c r="K44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="K44">
+        <v>1.2</v>
+      </c>
+      <c r="L44">
+        <v>6.26</v>
+      </c>
+      <c r="M44">
+        <v>242.87</v>
+      </c>
+      <c r="N44" s="7">
+        <v>5.18</v>
+      </c>
+      <c r="O44" s="7">
+        <v>1460.57</v>
+      </c>
+      <c r="P44">
+        <v>3005.9</v>
+      </c>
+      <c r="Q44" s="9">
+        <f>O44/P44</f>
+        <v>0.48590106124621574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2174,7 +3047,7 @@
         <v>44944</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D45" s="5">
         <v>500000</v>
@@ -2189,16 +3062,38 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="I45">
+        <v>32</v>
       </c>
       <c r="J45" t="s">
-        <v>62</v>
-      </c>
-      <c r="K45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="K45">
+        <v>0.81</v>
+      </c>
+      <c r="L45">
+        <v>7.13</v>
+      </c>
+      <c r="M45">
+        <v>191.63</v>
+      </c>
+      <c r="N45" s="7">
+        <v>10.01</v>
+      </c>
+      <c r="O45" s="7">
+        <v>1570.31</v>
+      </c>
+      <c r="P45">
+        <v>2979.7</v>
+      </c>
+      <c r="Q45" s="9">
+        <f>O45/P45</f>
+        <v>0.52700271839446922</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2206,7 +3101,7 @@
         <v>44944</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D46" s="5">
         <v>500000</v>
@@ -2221,16 +3116,38 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="I46">
+        <v>64</v>
       </c>
       <c r="J46" t="s">
-        <v>63</v>
-      </c>
-      <c r="K46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="K46">
+        <v>0.65</v>
+      </c>
+      <c r="L46">
+        <v>8.49</v>
+      </c>
+      <c r="M46">
+        <v>158.27000000000001</v>
+      </c>
+      <c r="N46" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="O46" s="7">
+        <v>1248.6600000000001</v>
+      </c>
+      <c r="P46">
+        <v>2969.1</v>
+      </c>
+      <c r="Q46" s="9">
+        <f>O46/P46</f>
+        <v>0.42055168232797824</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -2238,7 +3155,7 @@
         <v>44944</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D47" s="5">
         <v>500000</v>
@@ -2253,16 +3170,38 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H47" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
       </c>
       <c r="J47" t="s">
-        <v>64</v>
-      </c>
-      <c r="K47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="K47">
+        <v>1.31</v>
+      </c>
+      <c r="L47">
+        <v>5.68</v>
+      </c>
+      <c r="M47">
+        <v>191.23</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1.84</v>
+      </c>
+      <c r="O47" s="7">
+        <v>1230.3900000000001</v>
+      </c>
+      <c r="P47">
+        <v>3020</v>
+      </c>
+      <c r="Q47" s="9">
+        <f>O47/P47</f>
+        <v>0.40741390728476823</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -2270,7 +3209,7 @@
         <v>44944</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D48" s="5">
         <v>500000</v>
@@ -2285,16 +3224,38 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H48" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="I48">
+        <v>32</v>
       </c>
       <c r="J48" t="s">
-        <v>65</v>
-      </c>
-      <c r="K48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="K48">
+        <v>1.5</v>
+      </c>
+      <c r="L48">
+        <v>5.29</v>
+      </c>
+      <c r="M48">
+        <v>196.67</v>
+      </c>
+      <c r="N48" s="7">
+        <v>0</v>
+      </c>
+      <c r="O48" s="7">
+        <v>1069.33</v>
+      </c>
+      <c r="P48">
+        <v>2962.2</v>
+      </c>
+      <c r="Q48" s="9">
+        <f>O48/P48</f>
+        <v>0.36099183039632704</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -2302,7 +3263,7 @@
         <v>44944</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D49" s="5">
         <v>500000</v>
@@ -2317,16 +3278,38 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="I49">
+        <v>64</v>
       </c>
       <c r="J49" t="s">
-        <v>66</v>
-      </c>
-      <c r="K49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="K49">
+        <v>1.45</v>
+      </c>
+      <c r="L49">
+        <v>8.09</v>
+      </c>
+      <c r="M49">
+        <v>170.34</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="O49" s="7">
+        <v>638.82000000000005</v>
+      </c>
+      <c r="P49">
+        <v>3006.6</v>
+      </c>
+      <c r="Q49" s="9">
+        <f>O49/P49</f>
+        <v>0.2124725603671922</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -2334,7 +3317,7 @@
         <v>44944</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D50" s="5">
         <v>500000</v>
@@ -2349,16 +3332,38 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="I50">
+        <v>8</v>
       </c>
       <c r="J50" t="s">
-        <v>67</v>
-      </c>
-      <c r="K50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="K50">
+        <v>2.02</v>
+      </c>
+      <c r="L50">
+        <v>6.63</v>
+      </c>
+      <c r="M50">
+        <v>374.54</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7">
+        <v>834.36</v>
+      </c>
+      <c r="P50">
+        <v>2986.4</v>
+      </c>
+      <c r="Q50" s="9">
+        <f>O50/P50</f>
+        <v>0.27938655237074739</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -2366,7 +3371,7 @@
         <v>44944</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D51" s="5">
         <v>500000</v>
@@ -2381,16 +3386,38 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="I51">
+        <v>32</v>
       </c>
       <c r="J51" t="s">
-        <v>68</v>
-      </c>
-      <c r="K51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="K51">
+        <v>2.36</v>
+      </c>
+      <c r="L51">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="M51">
+        <v>286.8</v>
+      </c>
+      <c r="N51" s="7">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7">
+        <v>1045.47</v>
+      </c>
+      <c r="P51">
+        <v>3017.3</v>
+      </c>
+      <c r="Q51" s="9">
+        <f>O51/P51</f>
+        <v>0.34649189672886355</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -2398,7 +3425,7 @@
         <v>44944</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D52" s="5">
         <v>500000</v>
@@ -2413,16 +3440,38 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="I52">
+        <v>64</v>
       </c>
       <c r="J52" t="s">
-        <v>69</v>
-      </c>
-      <c r="K52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="K52">
+        <v>5.31</v>
+      </c>
+      <c r="L52">
+        <v>1.26</v>
+      </c>
+      <c r="M52">
+        <v>209.76</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="O52" s="7">
+        <v>551.21</v>
+      </c>
+      <c r="P52">
+        <v>2982.9</v>
+      </c>
+      <c r="Q52" s="9">
+        <f>O52/P52</f>
+        <v>0.18478996949277549</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -2430,7 +3479,7 @@
         <v>44944</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D53" s="5">
         <v>500000</v>
@@ -2445,16 +3494,38 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="H53" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="I53">
+        <v>8</v>
       </c>
       <c r="J53" t="s">
-        <v>70</v>
-      </c>
-      <c r="K53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="K53">
+        <v>7.16</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>601.70000000000005</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7">
+        <v>-276.85000000000002</v>
+      </c>
+      <c r="P53">
+        <v>3022.5</v>
+      </c>
+      <c r="Q53" s="9">
+        <f>O53/P53</f>
+        <v>-9.15963606286187E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -2462,7 +3533,7 @@
         <v>44944</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D54" s="5">
         <v>500000</v>
@@ -2477,16 +3548,38 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="I54">
+        <v>32</v>
       </c>
       <c r="J54" t="s">
-        <v>71</v>
-      </c>
-      <c r="K54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="K54">
+        <v>7.1</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>557.63</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7">
+        <v>-237.52</v>
+      </c>
+      <c r="P54">
+        <v>2992</v>
+      </c>
+      <c r="Q54" s="9">
+        <f>O54/P54</f>
+        <v>-7.938502673796792E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -2494,7 +3587,7 @@
         <v>44944</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D55" s="5">
         <v>500000</v>
@@ -2509,17 +3602,2114 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55">
+        <v>64</v>
+      </c>
+      <c r="J55" t="s">
+        <v>68</v>
+      </c>
+      <c r="K55">
+        <v>6.22</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>149.66</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0</v>
+      </c>
+      <c r="O55" s="7">
+        <v>321.36</v>
+      </c>
+      <c r="P55">
+        <v>3001.9</v>
+      </c>
+      <c r="Q55" s="9">
+        <f>O55/P55</f>
+        <v>0.10705220027316033</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E56">
+        <v>117</v>
+      </c>
+      <c r="F56">
+        <v>0.8</v>
+      </c>
+      <c r="G56">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56">
+        <v>8</v>
+      </c>
+      <c r="J56" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E57">
+        <v>117</v>
+      </c>
+      <c r="F57">
+        <v>0.8</v>
+      </c>
+      <c r="G57">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57">
+        <v>32</v>
+      </c>
+      <c r="J57" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C58" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E58">
+        <v>117</v>
+      </c>
+      <c r="F58">
+        <v>0.8</v>
+      </c>
+      <c r="G58">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58">
+        <v>64</v>
+      </c>
+      <c r="J58" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E59">
+        <v>117</v>
+      </c>
+      <c r="F59">
+        <v>0.8</v>
+      </c>
+      <c r="G59">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59">
+        <v>8</v>
+      </c>
+      <c r="J59" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E60">
+        <v>117</v>
+      </c>
+      <c r="F60">
+        <v>0.8</v>
+      </c>
+      <c r="G60">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60">
+        <v>32</v>
+      </c>
+      <c r="J60" t="s">
         <v>19</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E61">
+        <v>117</v>
+      </c>
+      <c r="F61">
+        <v>0.8</v>
+      </c>
+      <c r="G61">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61">
+        <v>64</v>
+      </c>
+      <c r="J61" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E62">
+        <v>117</v>
+      </c>
+      <c r="F62">
+        <v>0.8</v>
+      </c>
+      <c r="G62">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62">
+        <v>8</v>
+      </c>
+      <c r="J62" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C63" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E63">
+        <v>117</v>
+      </c>
+      <c r="F63">
+        <v>0.8</v>
+      </c>
+      <c r="G63">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H63" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63">
+        <v>32</v>
+      </c>
+      <c r="J63" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E64">
+        <v>117</v>
+      </c>
+      <c r="F64">
+        <v>0.8</v>
+      </c>
+      <c r="G64">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H64" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64">
+        <v>64</v>
+      </c>
+      <c r="J64" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C65" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E65">
+        <v>117</v>
+      </c>
+      <c r="F65">
+        <v>0.8</v>
+      </c>
+      <c r="G65">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65">
+        <v>8</v>
+      </c>
+      <c r="J65" t="s">
+        <v>24</v>
+      </c>
+      <c r="K65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E66">
+        <v>117</v>
+      </c>
+      <c r="F66">
+        <v>0.8</v>
+      </c>
+      <c r="G66">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66">
+        <v>32</v>
+      </c>
+      <c r="J66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C67" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E67">
+        <v>117</v>
+      </c>
+      <c r="F67">
+        <v>0.8</v>
+      </c>
+      <c r="G67">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67">
+        <v>64</v>
+      </c>
+      <c r="J67" t="s">
+        <v>26</v>
+      </c>
+      <c r="K67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E68">
+        <v>117</v>
+      </c>
+      <c r="F68">
+        <v>0.8</v>
+      </c>
+      <c r="G68">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68">
+        <v>8</v>
+      </c>
+      <c r="J68" t="s">
+        <v>27</v>
+      </c>
+      <c r="K68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C69" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E69">
+        <v>117</v>
+      </c>
+      <c r="F69">
+        <v>0.8</v>
+      </c>
+      <c r="G69">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69">
+        <v>32</v>
+      </c>
+      <c r="J69" t="s">
+        <v>28</v>
+      </c>
+      <c r="K69" t="s">
+        <v>81</v>
+      </c>
+      <c r="N69"/>
+      <c r="P69" s="7"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C70" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E70">
+        <v>117</v>
+      </c>
+      <c r="F70">
+        <v>0.8</v>
+      </c>
+      <c r="G70">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H70" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70">
+        <v>64</v>
+      </c>
+      <c r="J70" t="s">
+        <v>29</v>
+      </c>
+      <c r="K70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E71">
+        <v>117</v>
+      </c>
+      <c r="F71">
+        <v>0.8</v>
+      </c>
+      <c r="G71">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71">
+        <v>8</v>
+      </c>
+      <c r="J71" t="s">
+        <v>30</v>
+      </c>
+      <c r="K71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C72" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E72">
+        <v>117</v>
+      </c>
+      <c r="F72">
+        <v>0.8</v>
+      </c>
+      <c r="G72">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72">
+        <v>32</v>
+      </c>
+      <c r="J72" t="s">
+        <v>31</v>
+      </c>
+      <c r="K72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="K55" t="s">
-        <v>12</v>
+      <c r="B73" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E73">
+        <v>117</v>
+      </c>
+      <c r="F73">
+        <v>0.8</v>
+      </c>
+      <c r="G73">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73">
+        <v>64</v>
+      </c>
+      <c r="J73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E74">
+        <v>117</v>
+      </c>
+      <c r="F74">
+        <v>0.9</v>
+      </c>
+      <c r="G74">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H74" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74">
+        <v>8</v>
+      </c>
+      <c r="J74" t="s">
+        <v>33</v>
+      </c>
+      <c r="K74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C75" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E75">
+        <v>117</v>
+      </c>
+      <c r="F75">
+        <v>0.9</v>
+      </c>
+      <c r="G75">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75">
+        <v>32</v>
+      </c>
+      <c r="J75" t="s">
+        <v>34</v>
+      </c>
+      <c r="K75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C76" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E76">
+        <v>117</v>
+      </c>
+      <c r="F76">
+        <v>0.9</v>
+      </c>
+      <c r="G76">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H76" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76">
+        <v>64</v>
+      </c>
+      <c r="J76" t="s">
+        <v>35</v>
+      </c>
+      <c r="K76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E77">
+        <v>117</v>
+      </c>
+      <c r="F77">
+        <v>0.9</v>
+      </c>
+      <c r="G77">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77">
+        <v>8</v>
+      </c>
+      <c r="J77" t="s">
+        <v>36</v>
+      </c>
+      <c r="K77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E78">
+        <v>117</v>
+      </c>
+      <c r="F78">
+        <v>0.9</v>
+      </c>
+      <c r="G78">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78">
+        <v>32</v>
+      </c>
+      <c r="J78" t="s">
+        <v>37</v>
+      </c>
+      <c r="K78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C79" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E79">
+        <v>117</v>
+      </c>
+      <c r="F79">
+        <v>0.9</v>
+      </c>
+      <c r="G79">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79">
+        <v>64</v>
+      </c>
+      <c r="J79" t="s">
+        <v>38</v>
+      </c>
+      <c r="K79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C80" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E80">
+        <v>117</v>
+      </c>
+      <c r="F80">
+        <v>0.9</v>
+      </c>
+      <c r="G80">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H80" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80">
+        <v>8</v>
+      </c>
+      <c r="J80" t="s">
+        <v>39</v>
+      </c>
+      <c r="K80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C81" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E81">
+        <v>117</v>
+      </c>
+      <c r="F81">
+        <v>0.9</v>
+      </c>
+      <c r="G81">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H81" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81">
+        <v>32</v>
+      </c>
+      <c r="J81" t="s">
+        <v>40</v>
+      </c>
+      <c r="K81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E82">
+        <v>117</v>
+      </c>
+      <c r="F82">
+        <v>0.9</v>
+      </c>
+      <c r="G82">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H82" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82">
+        <v>64</v>
+      </c>
+      <c r="J82" t="s">
+        <v>41</v>
+      </c>
+      <c r="K82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C83" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E83">
+        <v>117</v>
+      </c>
+      <c r="F83">
+        <v>0.9</v>
+      </c>
+      <c r="G83">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83">
+        <v>8</v>
+      </c>
+      <c r="J83" t="s">
+        <v>42</v>
+      </c>
+      <c r="K83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E84">
+        <v>117</v>
+      </c>
+      <c r="F84">
+        <v>0.9</v>
+      </c>
+      <c r="G84">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84">
+        <v>32</v>
+      </c>
+      <c r="J84" t="s">
+        <v>43</v>
+      </c>
+      <c r="K84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C85" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E85">
+        <v>117</v>
+      </c>
+      <c r="F85">
+        <v>0.9</v>
+      </c>
+      <c r="G85">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85">
+        <v>64</v>
+      </c>
+      <c r="J85" t="s">
+        <v>44</v>
+      </c>
+      <c r="K85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C86" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E86">
+        <v>117</v>
+      </c>
+      <c r="F86">
+        <v>0.9</v>
+      </c>
+      <c r="G86">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H86" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86">
+        <v>8</v>
+      </c>
+      <c r="J86" t="s">
+        <v>45</v>
+      </c>
+      <c r="K86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C87" t="s">
+        <v>80</v>
+      </c>
+      <c r="D87" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E87">
+        <v>117</v>
+      </c>
+      <c r="F87">
+        <v>0.9</v>
+      </c>
+      <c r="G87">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H87" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87">
+        <v>32</v>
+      </c>
+      <c r="J87" t="s">
+        <v>46</v>
+      </c>
+      <c r="K87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C88" t="s">
+        <v>80</v>
+      </c>
+      <c r="D88" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E88">
+        <v>117</v>
+      </c>
+      <c r="F88">
+        <v>0.9</v>
+      </c>
+      <c r="G88">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H88" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88">
+        <v>64</v>
+      </c>
+      <c r="J88" t="s">
+        <v>47</v>
+      </c>
+      <c r="K88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C89" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E89">
+        <v>117</v>
+      </c>
+      <c r="F89">
+        <v>0.9</v>
+      </c>
+      <c r="G89">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89">
+        <v>8</v>
+      </c>
+      <c r="J89" t="s">
+        <v>48</v>
+      </c>
+      <c r="K89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C90" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E90">
+        <v>117</v>
+      </c>
+      <c r="F90">
+        <v>0.9</v>
+      </c>
+      <c r="G90">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90">
+        <v>32</v>
+      </c>
+      <c r="J90" t="s">
+        <v>49</v>
+      </c>
+      <c r="K90" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C91" t="s">
+        <v>80</v>
+      </c>
+      <c r="D91" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E91">
+        <v>117</v>
+      </c>
+      <c r="F91">
+        <v>0.9</v>
+      </c>
+      <c r="G91">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91">
+        <v>64</v>
+      </c>
+      <c r="J91" t="s">
+        <v>50</v>
+      </c>
+      <c r="K91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C92" t="s">
+        <v>80</v>
+      </c>
+      <c r="D92" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E92">
+        <v>117</v>
+      </c>
+      <c r="F92">
+        <v>0.99</v>
+      </c>
+      <c r="G92">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H92" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92">
+        <v>8</v>
+      </c>
+      <c r="J92" t="s">
+        <v>51</v>
+      </c>
+      <c r="K92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C93" t="s">
+        <v>80</v>
+      </c>
+      <c r="D93" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E93">
+        <v>117</v>
+      </c>
+      <c r="F93">
+        <v>0.99</v>
+      </c>
+      <c r="G93">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H93" t="s">
+        <v>15</v>
+      </c>
+      <c r="I93">
+        <v>32</v>
+      </c>
+      <c r="J93" t="s">
+        <v>52</v>
+      </c>
+      <c r="K93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C94" t="s">
+        <v>80</v>
+      </c>
+      <c r="D94" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E94">
+        <v>117</v>
+      </c>
+      <c r="F94">
+        <v>0.99</v>
+      </c>
+      <c r="G94">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H94" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94">
+        <v>64</v>
+      </c>
+      <c r="J94" t="s">
+        <v>53</v>
+      </c>
+      <c r="K94" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C95" t="s">
+        <v>80</v>
+      </c>
+      <c r="D95" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E95">
+        <v>117</v>
+      </c>
+      <c r="F95">
+        <v>0.99</v>
+      </c>
+      <c r="G95">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95">
+        <v>8</v>
+      </c>
+      <c r="J95" t="s">
+        <v>54</v>
+      </c>
+      <c r="K95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C96" t="s">
+        <v>80</v>
+      </c>
+      <c r="D96" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E96">
+        <v>117</v>
+      </c>
+      <c r="F96">
+        <v>0.99</v>
+      </c>
+      <c r="G96">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96">
+        <v>32</v>
+      </c>
+      <c r="J96" t="s">
+        <v>55</v>
+      </c>
+      <c r="K96" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C97" t="s">
+        <v>80</v>
+      </c>
+      <c r="D97" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E97">
+        <v>117</v>
+      </c>
+      <c r="F97">
+        <v>0.99</v>
+      </c>
+      <c r="G97">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97">
+        <v>64</v>
+      </c>
+      <c r="J97" t="s">
+        <v>56</v>
+      </c>
+      <c r="K97" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C98" t="s">
+        <v>80</v>
+      </c>
+      <c r="D98" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E98">
+        <v>117</v>
+      </c>
+      <c r="F98">
+        <v>0.99</v>
+      </c>
+      <c r="G98">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H98" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98">
+        <v>8</v>
+      </c>
+      <c r="J98" t="s">
+        <v>57</v>
+      </c>
+      <c r="K98" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C99" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E99">
+        <v>117</v>
+      </c>
+      <c r="F99">
+        <v>0.99</v>
+      </c>
+      <c r="G99">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H99" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99">
+        <v>32</v>
+      </c>
+      <c r="J99" t="s">
+        <v>58</v>
+      </c>
+      <c r="K99" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C100" t="s">
+        <v>80</v>
+      </c>
+      <c r="D100" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E100">
+        <v>117</v>
+      </c>
+      <c r="F100">
+        <v>0.99</v>
+      </c>
+      <c r="G100">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H100" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100">
+        <v>64</v>
+      </c>
+      <c r="J100" t="s">
+        <v>59</v>
+      </c>
+      <c r="K100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C101" t="s">
+        <v>80</v>
+      </c>
+      <c r="D101" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E101">
+        <v>117</v>
+      </c>
+      <c r="F101">
+        <v>0.99</v>
+      </c>
+      <c r="G101">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101">
+        <v>8</v>
+      </c>
+      <c r="J101" t="s">
+        <v>60</v>
+      </c>
+      <c r="K101" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C102" t="s">
+        <v>80</v>
+      </c>
+      <c r="D102" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E102">
+        <v>117</v>
+      </c>
+      <c r="F102">
+        <v>0.99</v>
+      </c>
+      <c r="G102">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H102" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102">
+        <v>32</v>
+      </c>
+      <c r="J102" t="s">
+        <v>61</v>
+      </c>
+      <c r="K102" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C103" t="s">
+        <v>80</v>
+      </c>
+      <c r="D103" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E103">
+        <v>117</v>
+      </c>
+      <c r="F103">
+        <v>0.99</v>
+      </c>
+      <c r="G103">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103">
+        <v>64</v>
+      </c>
+      <c r="J103" t="s">
+        <v>62</v>
+      </c>
+      <c r="K103" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C104" t="s">
+        <v>80</v>
+      </c>
+      <c r="D104" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E104">
+        <v>117</v>
+      </c>
+      <c r="F104">
+        <v>0.99</v>
+      </c>
+      <c r="G104">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H104" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104">
+        <v>8</v>
+      </c>
+      <c r="J104" t="s">
+        <v>63</v>
+      </c>
+      <c r="K104" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C105" t="s">
+        <v>80</v>
+      </c>
+      <c r="D105" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E105">
+        <v>117</v>
+      </c>
+      <c r="F105">
+        <v>0.99</v>
+      </c>
+      <c r="G105">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H105" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105">
+        <v>32</v>
+      </c>
+      <c r="J105" t="s">
+        <v>64</v>
+      </c>
+      <c r="K105" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C106" t="s">
+        <v>80</v>
+      </c>
+      <c r="D106" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E106">
+        <v>117</v>
+      </c>
+      <c r="F106">
+        <v>0.99</v>
+      </c>
+      <c r="G106">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H106" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106">
+        <v>64</v>
+      </c>
+      <c r="J106" t="s">
+        <v>65</v>
+      </c>
+      <c r="K106" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C107" t="s">
+        <v>80</v>
+      </c>
+      <c r="D107" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E107">
+        <v>117</v>
+      </c>
+      <c r="F107">
+        <v>0.99</v>
+      </c>
+      <c r="G107">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107">
+        <v>8</v>
+      </c>
+      <c r="J107" t="s">
+        <v>66</v>
+      </c>
+      <c r="K107" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C108" t="s">
+        <v>80</v>
+      </c>
+      <c r="D108" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E108">
+        <v>117</v>
+      </c>
+      <c r="F108">
+        <v>0.99</v>
+      </c>
+      <c r="G108">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H108" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108">
+        <v>32</v>
+      </c>
+      <c r="J108" t="s">
+        <v>67</v>
+      </c>
+      <c r="K108" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C109" t="s">
+        <v>80</v>
+      </c>
+      <c r="D109" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E109">
+        <v>117</v>
+      </c>
+      <c r="F109">
+        <v>0.99</v>
+      </c>
+      <c r="G109">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109">
+        <v>64</v>
+      </c>
+      <c r="J109" t="s">
+        <v>68</v>
+      </c>
+      <c r="K109" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1">
+        <v>44944</v>
+      </c>
+      <c r="C110" t="s">
+        <v>77</v>
+      </c>
+      <c r="D110" t="s">
+        <v>76</v>
+      </c>
+      <c r="E110" t="s">
+        <v>76</v>
+      </c>
+      <c r="F110" t="s">
+        <v>76</v>
+      </c>
+      <c r="G110" t="s">
+        <v>76</v>
+      </c>
+      <c r="H110" t="s">
+        <v>76</v>
+      </c>
+      <c r="I110" t="s">
+        <v>76</v>
+      </c>
+      <c r="J110" t="s">
+        <v>78</v>
+      </c>
+      <c r="K110">
+        <v>5.92</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110" s="7">
+        <v>114.34</v>
+      </c>
+      <c r="N110" s="7">
+        <v>0</v>
+      </c>
+      <c r="O110" s="7">
+        <v>317.37</v>
+      </c>
+      <c r="P110">
+        <v>2991.5</v>
+      </c>
+      <c r="Q110" s="9">
+        <f>O110/P110</f>
+        <v>0.10609059000501421</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1">
+        <v>44944</v>
+      </c>
+      <c r="C111" t="s">
+        <v>75</v>
+      </c>
+      <c r="D111" t="s">
+        <v>76</v>
+      </c>
+      <c r="E111" t="s">
+        <v>76</v>
+      </c>
+      <c r="F111" t="s">
+        <v>76</v>
+      </c>
+      <c r="G111" t="s">
+        <v>76</v>
+      </c>
+      <c r="H111" t="s">
+        <v>76</v>
+      </c>
+      <c r="I111" t="s">
+        <v>76</v>
+      </c>
+      <c r="J111" t="s">
+        <v>79</v>
+      </c>
+      <c r="K111">
+        <v>1.65</v>
+      </c>
+      <c r="L111">
+        <v>6.57</v>
+      </c>
+      <c r="M111">
+        <v>156.97</v>
+      </c>
+      <c r="N111" s="7">
+        <v>6.63</v>
+      </c>
+      <c r="O111" s="7">
+        <v>1221.5</v>
+      </c>
+      <c r="P111">
+        <v>3010.1</v>
+      </c>
+      <c r="Q111" s="9">
+        <f>O111/P111</f>
+        <v>0.40580047174512474</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R111">
+    <sortCondition ref="A1:A111"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>

--- a/PxM_PPC_RL/CAIE/Rev1/visuals/Analysis.xlsx
+++ b/PxM_PPC_RL/CAIE/Rev1/visuals/Analysis.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w_kevi02\sciebo\PhD\01 Prescriptive Maintenance\30 RQ3 - Digital Twin\PxM &amp; PPC (R)\RL-PxM\PxM_PPC_RL\CAIE\Rev1\visuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73309A01-0302-4100-B0A2-0F37678D8956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FFBBC6-18CD-42BF-91FF-E41DB9864A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PPO" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PPO!$A$1:$R$165</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -278,6 +281,9 @@
   </si>
   <si>
     <t>A2C</t>
+  </si>
+  <si>
+    <t>DQL</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -636,11 +642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:R165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L70" sqref="L70"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,8 +660,8 @@
     <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="15" width="10.7109375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="15" width="10.7109375" style="7" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="73.140625" bestFit="1" customWidth="1"/>
@@ -751,10 +757,10 @@
       <c r="K2">
         <v>0.64</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="7">
         <v>7.13</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="7">
         <v>242.79</v>
       </c>
       <c r="N2" s="7">
@@ -767,7 +773,7 @@
         <v>3006.8</v>
       </c>
       <c r="Q2" s="9">
-        <f>O2/P2</f>
+        <f t="shared" ref="Q2:Q33" si="0">O2/P2</f>
         <v>0.55060529466542496</v>
       </c>
     </row>
@@ -805,10 +811,10 @@
       <c r="K3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="7">
         <v>6.43</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="7">
         <v>210.05</v>
       </c>
       <c r="N3" s="7">
@@ -821,7 +827,7 @@
         <v>3025.3</v>
       </c>
       <c r="Q3" s="9">
-        <f>O3/P3</f>
+        <f t="shared" si="0"/>
         <v>0.52718738637490492</v>
       </c>
     </row>
@@ -859,10 +865,10 @@
       <c r="K4">
         <v>1.18</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="7">
         <v>5.93</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="7">
         <v>161.84</v>
       </c>
       <c r="N4" s="7">
@@ -875,7 +881,7 @@
         <v>3003.5</v>
       </c>
       <c r="Q4" s="9">
-        <f>O4/P4</f>
+        <f t="shared" si="0"/>
         <v>0.53217912435491932</v>
       </c>
     </row>
@@ -913,10 +919,10 @@
       <c r="K5">
         <v>1.3</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="7">
         <v>5.96</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="7">
         <v>214.43</v>
       </c>
       <c r="N5" s="7">
@@ -929,7 +935,7 @@
         <v>3018</v>
       </c>
       <c r="Q5" s="9">
-        <f>O5/P5</f>
+        <f t="shared" si="0"/>
         <v>0.51815440689198144</v>
       </c>
     </row>
@@ -967,10 +973,10 @@
       <c r="K6">
         <v>1.03</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="7">
         <v>6.19</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="7">
         <v>183.56</v>
       </c>
       <c r="N6" s="7">
@@ -983,7 +989,7 @@
         <v>2993.4</v>
       </c>
       <c r="Q6" s="9">
-        <f>O6/P6</f>
+        <f t="shared" si="0"/>
         <v>0.55030400213803699</v>
       </c>
     </row>
@@ -1021,10 +1027,10 @@
       <c r="K7">
         <v>1.1100000000000001</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="7">
         <v>6.12</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="7">
         <v>200.39</v>
       </c>
       <c r="N7" s="7">
@@ -1037,7 +1043,7 @@
         <v>2987.3</v>
       </c>
       <c r="Q7" s="9">
-        <f>O7/P7</f>
+        <f t="shared" si="0"/>
         <v>0.53763599236768989</v>
       </c>
     </row>
@@ -1075,10 +1081,10 @@
       <c r="K8">
         <v>0.66</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="7">
         <v>6.36</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="7">
         <v>214.65</v>
       </c>
       <c r="N8" s="7">
@@ -1091,7 +1097,7 @@
         <v>3003.1</v>
       </c>
       <c r="Q8" s="9">
-        <f>O8/P8</f>
+        <f t="shared" si="0"/>
         <v>0.48127601478472243</v>
       </c>
     </row>
@@ -1129,10 +1135,10 @@
       <c r="K9">
         <v>1.26</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="7">
         <v>5.98</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="7">
         <v>203.47</v>
       </c>
       <c r="N9" s="7">
@@ -1145,7 +1151,7 @@
         <v>3005.8</v>
       </c>
       <c r="Q9" s="9">
-        <f>O9/P9</f>
+        <f t="shared" si="0"/>
         <v>0.53235411537693789</v>
       </c>
     </row>
@@ -1183,10 +1189,10 @@
       <c r="K10">
         <v>1.18</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="7">
         <v>6.32</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="7">
         <v>228.1</v>
       </c>
       <c r="N10" s="7">
@@ -1199,7 +1205,7 @@
         <v>3011.8</v>
       </c>
       <c r="Q10" s="9">
-        <f>O10/P10</f>
+        <f t="shared" si="0"/>
         <v>0.53184142373331555</v>
       </c>
     </row>
@@ -1237,10 +1243,10 @@
       <c r="K11">
         <v>1.3</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="7">
         <v>5.99</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="7">
         <v>202.03</v>
       </c>
       <c r="N11" s="7">
@@ -1253,7 +1259,7 @@
         <v>2983.9</v>
       </c>
       <c r="Q11" s="9">
-        <f>O11/P11</f>
+        <f t="shared" si="0"/>
         <v>0.51068065283689124</v>
       </c>
     </row>
@@ -1291,10 +1297,10 @@
       <c r="K12">
         <v>0.92</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="7">
         <v>6.41</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="7">
         <v>211.73</v>
       </c>
       <c r="N12" s="7">
@@ -1307,7 +1313,7 @@
         <v>3005.3</v>
       </c>
       <c r="Q12" s="9">
-        <f>O12/P12</f>
+        <f t="shared" si="0"/>
         <v>0.53506804645126937</v>
       </c>
     </row>
@@ -1345,10 +1351,10 @@
       <c r="K13">
         <v>0.98</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="7">
         <v>6.55</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="7">
         <v>211.49</v>
       </c>
       <c r="N13" s="7">
@@ -1361,7 +1367,7 @@
         <v>2982.8</v>
       </c>
       <c r="Q13" s="9">
-        <f>O13/P13</f>
+        <f t="shared" si="0"/>
         <v>0.52284430736220999</v>
       </c>
     </row>
@@ -1399,10 +1405,10 @@
       <c r="K14">
         <v>3.19</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="7">
         <v>3.99</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="7">
         <v>322.2</v>
       </c>
       <c r="N14" s="7">
@@ -1415,7 +1421,7 @@
         <v>2985.4</v>
       </c>
       <c r="Q14" s="9">
-        <f>O14/P14</f>
+        <f t="shared" si="0"/>
         <v>0.2145776110403966</v>
       </c>
     </row>
@@ -1453,13 +1459,13 @@
       <c r="K15">
         <v>6.2</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
         <v>148.08000000000001</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="7">
         <v>0</v>
       </c>
       <c r="O15" s="7">
@@ -1469,7 +1475,7 @@
         <v>3000</v>
       </c>
       <c r="Q15" s="9">
-        <f>O15/P15</f>
+        <f t="shared" si="0"/>
         <v>0.12248666666666666</v>
       </c>
     </row>
@@ -1507,10 +1513,10 @@
       <c r="K16">
         <v>1.23</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="7">
         <v>11.08</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="7">
         <v>145.44999999999999</v>
       </c>
       <c r="N16" s="7">
@@ -1523,7 +1529,7 @@
         <v>3027</v>
       </c>
       <c r="Q16" s="9">
-        <f>O16/P16</f>
+        <f t="shared" si="0"/>
         <v>-2.5989428477039975E-2</v>
       </c>
     </row>
@@ -1561,10 +1567,10 @@
       <c r="K17">
         <v>6.19</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
         <v>141.71</v>
       </c>
       <c r="N17" s="7">
@@ -1577,7 +1583,7 @@
         <v>3014</v>
       </c>
       <c r="Q17" s="9">
-        <f>O17/P17</f>
+        <f t="shared" si="0"/>
         <v>0.11439946914399469</v>
       </c>
     </row>
@@ -1615,10 +1621,10 @@
       <c r="K18">
         <v>6</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
         <v>129.55000000000001</v>
       </c>
       <c r="N18" s="7">
@@ -1631,7 +1637,7 @@
         <v>3035.4</v>
       </c>
       <c r="Q18" s="9">
-        <f>O18/P18</f>
+        <f t="shared" si="0"/>
         <v>0.1058246030177242</v>
       </c>
     </row>
@@ -1669,10 +1675,10 @@
       <c r="K19">
         <v>5.8</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
         <v>122.06</v>
       </c>
       <c r="N19" s="7">
@@ -1685,7 +1691,7 @@
         <v>2987.4</v>
       </c>
       <c r="Q19" s="9">
-        <f>O19/P19</f>
+        <f t="shared" si="0"/>
         <v>0.12134966860815424</v>
       </c>
     </row>
@@ -1723,10 +1729,10 @@
       <c r="K20">
         <v>0.81</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="7">
         <v>7.04</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="7">
         <v>190.83</v>
       </c>
       <c r="N20" s="7">
@@ -1739,7 +1745,7 @@
         <v>3045.6</v>
       </c>
       <c r="Q20" s="9">
-        <f>O20/P20</f>
+        <f t="shared" si="0"/>
         <v>0.55480693459416863</v>
       </c>
     </row>
@@ -1777,10 +1783,10 @@
       <c r="K21">
         <v>1.02</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="7">
         <v>6.61</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="7">
         <v>227.68</v>
       </c>
       <c r="N21" s="7">
@@ -1793,7 +1799,7 @@
         <v>3007.7</v>
       </c>
       <c r="Q21" s="9">
-        <f>O21/P21</f>
+        <f t="shared" si="0"/>
         <v>0.55436379958107529</v>
       </c>
     </row>
@@ -1831,10 +1837,10 @@
       <c r="K22">
         <v>0.97</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="7">
         <v>6.35</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="7">
         <v>191.95</v>
       </c>
       <c r="N22" s="7">
@@ -1847,7 +1853,7 @@
         <v>2986.4</v>
       </c>
       <c r="Q22" s="9">
-        <f>O22/P22</f>
+        <f t="shared" si="0"/>
         <v>0.55540450040182165</v>
       </c>
     </row>
@@ -1885,10 +1891,10 @@
       <c r="K23">
         <v>0.81</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="7">
         <v>6.45</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="7">
         <v>201.41</v>
       </c>
       <c r="N23" s="7">
@@ -1901,7 +1907,7 @@
         <v>2979</v>
       </c>
       <c r="Q23" s="9">
-        <f>O23/P23</f>
+        <f t="shared" si="0"/>
         <v>0.56602886874790204</v>
       </c>
     </row>
@@ -1939,10 +1945,10 @@
       <c r="K24">
         <v>0.83</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="7">
         <v>6.57</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="7">
         <v>180.36</v>
       </c>
       <c r="N24" s="7">
@@ -1955,7 +1961,7 @@
         <v>2986.2</v>
       </c>
       <c r="Q24" s="9">
-        <f>O24/P24</f>
+        <f t="shared" si="0"/>
         <v>0.54206349206349214</v>
       </c>
     </row>
@@ -1993,10 +1999,10 @@
       <c r="K25">
         <v>0.8</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="7">
         <v>7.01</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="7">
         <v>228.67</v>
       </c>
       <c r="N25" s="7">
@@ -2009,7 +2015,7 @@
         <v>3003.2</v>
       </c>
       <c r="Q25" s="9">
-        <f>O25/P25</f>
+        <f t="shared" si="0"/>
         <v>0.55255727224294093</v>
       </c>
     </row>
@@ -2047,10 +2053,10 @@
       <c r="K26">
         <v>0.91</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="7">
         <v>6.16</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="7">
         <v>195.32</v>
       </c>
       <c r="N26" s="7">
@@ -2063,7 +2069,7 @@
         <v>2973.8</v>
       </c>
       <c r="Q26" s="9">
-        <f>O26/P26</f>
+        <f t="shared" si="0"/>
         <v>0.46116080435806039</v>
       </c>
     </row>
@@ -2101,10 +2107,10 @@
       <c r="K27">
         <v>0.91</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="7">
         <v>6.48</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="7">
         <v>209.39</v>
       </c>
       <c r="N27" s="7">
@@ -2117,7 +2123,7 @@
         <v>2962.2</v>
       </c>
       <c r="Q27" s="9">
-        <f>O27/P27</f>
+        <f t="shared" si="0"/>
         <v>0.55159678617243946</v>
       </c>
     </row>
@@ -2155,10 +2161,10 @@
       <c r="K28">
         <v>1.01</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="7">
         <v>6.55</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="7">
         <v>205.22</v>
       </c>
       <c r="N28" s="7">
@@ -2171,7 +2177,7 @@
         <v>3009.5</v>
       </c>
       <c r="Q28" s="9">
-        <f>O28/P28</f>
+        <f t="shared" si="0"/>
         <v>0.52414686825054002</v>
       </c>
     </row>
@@ -2209,10 +2215,10 @@
       <c r="K29">
         <v>0.96</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="7">
         <v>6.18</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="7">
         <v>183.09</v>
       </c>
       <c r="N29" s="7">
@@ -2225,7 +2231,7 @@
         <v>3012</v>
       </c>
       <c r="Q29" s="9">
-        <f>O29/P29</f>
+        <f t="shared" si="0"/>
         <v>0.4639043824701195</v>
       </c>
     </row>
@@ -2263,10 +2269,10 @@
       <c r="K30">
         <v>0.87</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="7">
         <v>6.6</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="7">
         <v>192.75</v>
       </c>
       <c r="N30" s="7">
@@ -2279,7 +2285,7 @@
         <v>2992.1</v>
       </c>
       <c r="Q30" s="9">
-        <f>O30/P30</f>
+        <f t="shared" si="0"/>
         <v>0.53204104140904385</v>
       </c>
     </row>
@@ -2317,10 +2323,10 @@
       <c r="K31">
         <v>0.91</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="7">
         <v>6.73</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="7">
         <v>192.35</v>
       </c>
       <c r="N31" s="7">
@@ -2333,7 +2339,7 @@
         <v>2997.1</v>
       </c>
       <c r="Q31" s="9">
-        <f>O31/P31</f>
+        <f t="shared" si="0"/>
         <v>0.54045911047345763</v>
       </c>
     </row>
@@ -2371,10 +2377,10 @@
       <c r="K32">
         <v>6.6</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
         <v>314.11</v>
       </c>
       <c r="N32" s="7">
@@ -2387,7 +2393,7 @@
         <v>2986.8</v>
       </c>
       <c r="Q32" s="9">
-        <f>O32/P32</f>
+        <f t="shared" si="0"/>
         <v>4.4318334002946297E-2</v>
       </c>
     </row>
@@ -2425,10 +2431,10 @@
       <c r="K33">
         <v>3.62</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="7">
         <v>2.48</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="7">
         <v>140.99</v>
       </c>
       <c r="N33" s="7">
@@ -2441,7 +2447,7 @@
         <v>3008.8</v>
       </c>
       <c r="Q33" s="9">
-        <f>O33/P33</f>
+        <f t="shared" si="0"/>
         <v>0.25770739165115658</v>
       </c>
     </row>
@@ -2479,10 +2485,10 @@
       <c r="K34">
         <v>1.46</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="7">
         <v>7.85</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="7">
         <v>142.55000000000001</v>
       </c>
       <c r="N34" s="7">
@@ -2495,7 +2501,7 @@
         <v>2991.7</v>
       </c>
       <c r="Q34" s="9">
-        <f>O34/P34</f>
+        <f t="shared" ref="Q34:Q65" si="1">O34/P34</f>
         <v>0.15505231139485912</v>
       </c>
     </row>
@@ -2533,10 +2539,10 @@
       <c r="K35">
         <v>6.17</v>
       </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
         <v>150.03</v>
       </c>
       <c r="N35" s="7">
@@ -2549,7 +2555,7 @@
         <v>2983.9</v>
       </c>
       <c r="Q35" s="9">
-        <f>O35/P35</f>
+        <f t="shared" si="1"/>
         <v>0.11581822447132946</v>
       </c>
     </row>
@@ -2587,10 +2593,10 @@
       <c r="K36">
         <v>5.97</v>
       </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
+      <c r="L36" s="7">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7">
         <v>130.29</v>
       </c>
       <c r="N36" s="7">
@@ -2603,7 +2609,7 @@
         <v>2997.9</v>
       </c>
       <c r="Q36" s="9">
-        <f>O36/P36</f>
+        <f t="shared" si="1"/>
         <v>0.10725841422328963</v>
       </c>
     </row>
@@ -2641,10 +2647,10 @@
       <c r="K37">
         <v>6.33</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
+      <c r="L37" s="7">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
         <v>152.51</v>
       </c>
       <c r="N37" s="7">
@@ -2657,7 +2663,7 @@
         <v>2998.9</v>
       </c>
       <c r="Q37" s="9">
-        <f>O37/P37</f>
+        <f t="shared" si="1"/>
         <v>0.11119410450498515</v>
       </c>
     </row>
@@ -2695,10 +2701,10 @@
       <c r="K38">
         <v>0.5</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="7">
         <v>8.08</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="7">
         <v>184.97</v>
       </c>
       <c r="N38" s="7">
@@ -2711,7 +2717,7 @@
         <v>2980.9</v>
       </c>
       <c r="Q38" s="9">
-        <f>O38/P38</f>
+        <f t="shared" si="1"/>
         <v>0.46119963769331407</v>
       </c>
     </row>
@@ -2749,10 +2755,10 @@
       <c r="K39">
         <v>1.21</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="7">
         <v>5.99</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="7">
         <v>184.45</v>
       </c>
       <c r="N39" s="7">
@@ -2765,7 +2771,7 @@
         <v>2988.6</v>
       </c>
       <c r="Q39" s="9">
-        <f>O39/P39</f>
+        <f t="shared" si="1"/>
         <v>0.50184367262263263</v>
       </c>
     </row>
@@ -2803,10 +2809,10 @@
       <c r="K40">
         <v>0.68</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="7">
         <v>7.13</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="7">
         <v>187.51</v>
       </c>
       <c r="N40" s="7">
@@ -2819,7 +2825,7 @@
         <v>3000.8</v>
       </c>
       <c r="Q40" s="9">
-        <f>O40/P40</f>
+        <f t="shared" si="1"/>
         <v>0.53991268994934682</v>
       </c>
     </row>
@@ -2857,10 +2863,10 @@
       <c r="K41">
         <v>0.68</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="7">
         <v>6.77</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="7">
         <v>188.59</v>
       </c>
       <c r="N41" s="7">
@@ -2873,7 +2879,7 @@
         <v>3003.6</v>
       </c>
       <c r="Q41" s="9">
-        <f>O41/P41</f>
+        <f t="shared" si="1"/>
         <v>0.54907444400053274</v>
       </c>
     </row>
@@ -2911,10 +2917,10 @@
       <c r="K42">
         <v>0.79</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="7">
         <v>6.8</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="7">
         <v>188</v>
       </c>
       <c r="N42" s="7">
@@ -2927,7 +2933,7 @@
         <v>2990.9</v>
       </c>
       <c r="Q42" s="9">
-        <f>O42/P42</f>
+        <f t="shared" si="1"/>
         <v>0.54010164164632724</v>
       </c>
     </row>
@@ -2965,10 +2971,10 @@
       <c r="K43">
         <v>1.05</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="7">
         <v>6.4</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="7">
         <v>175.69</v>
       </c>
       <c r="N43" s="7">
@@ -2981,7 +2987,7 @@
         <v>3018.8</v>
       </c>
       <c r="Q43" s="9">
-        <f>O43/P43</f>
+        <f t="shared" si="1"/>
         <v>0.53010136478070757</v>
       </c>
     </row>
@@ -3019,10 +3025,10 @@
       <c r="K44">
         <v>1.2</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="7">
         <v>6.26</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="7">
         <v>242.87</v>
       </c>
       <c r="N44" s="7">
@@ -3035,7 +3041,7 @@
         <v>3005.9</v>
       </c>
       <c r="Q44" s="9">
-        <f>O44/P44</f>
+        <f t="shared" si="1"/>
         <v>0.48590106124621574</v>
       </c>
     </row>
@@ -3073,10 +3079,10 @@
       <c r="K45">
         <v>0.81</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="7">
         <v>7.13</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="7">
         <v>191.63</v>
       </c>
       <c r="N45" s="7">
@@ -3089,7 +3095,7 @@
         <v>2979.7</v>
       </c>
       <c r="Q45" s="9">
-        <f>O45/P45</f>
+        <f t="shared" si="1"/>
         <v>0.52700271839446922</v>
       </c>
     </row>
@@ -3127,10 +3133,10 @@
       <c r="K46">
         <v>0.65</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="7">
         <v>8.49</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="7">
         <v>158.27000000000001</v>
       </c>
       <c r="N46" s="7">
@@ -3143,7 +3149,7 @@
         <v>2969.1</v>
       </c>
       <c r="Q46" s="9">
-        <f>O46/P46</f>
+        <f t="shared" si="1"/>
         <v>0.42055168232797824</v>
       </c>
     </row>
@@ -3181,10 +3187,10 @@
       <c r="K47">
         <v>1.31</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="7">
         <v>5.68</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="7">
         <v>191.23</v>
       </c>
       <c r="N47" s="7">
@@ -3197,7 +3203,7 @@
         <v>3020</v>
       </c>
       <c r="Q47" s="9">
-        <f>O47/P47</f>
+        <f t="shared" si="1"/>
         <v>0.40741390728476823</v>
       </c>
     </row>
@@ -3235,10 +3241,10 @@
       <c r="K48">
         <v>1.5</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="7">
         <v>5.29</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="7">
         <v>196.67</v>
       </c>
       <c r="N48" s="7">
@@ -3251,7 +3257,7 @@
         <v>2962.2</v>
       </c>
       <c r="Q48" s="9">
-        <f>O48/P48</f>
+        <f t="shared" si="1"/>
         <v>0.36099183039632704</v>
       </c>
     </row>
@@ -3289,10 +3295,10 @@
       <c r="K49">
         <v>1.45</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="7">
         <v>8.09</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="7">
         <v>170.34</v>
       </c>
       <c r="N49" s="7">
@@ -3305,7 +3311,7 @@
         <v>3006.6</v>
       </c>
       <c r="Q49" s="9">
-        <f>O49/P49</f>
+        <f t="shared" si="1"/>
         <v>0.2124725603671922</v>
       </c>
     </row>
@@ -3343,10 +3349,10 @@
       <c r="K50">
         <v>2.02</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="7">
         <v>6.63</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="7">
         <v>374.54</v>
       </c>
       <c r="N50" s="7">
@@ -3359,7 +3365,7 @@
         <v>2986.4</v>
       </c>
       <c r="Q50" s="9">
-        <f>O50/P50</f>
+        <f t="shared" si="1"/>
         <v>0.27938655237074739</v>
       </c>
     </row>
@@ -3397,10 +3403,10 @@
       <c r="K51">
         <v>2.36</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="7">
         <v>4.7699999999999996</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="7">
         <v>286.8</v>
       </c>
       <c r="N51" s="7">
@@ -3413,7 +3419,7 @@
         <v>3017.3</v>
       </c>
       <c r="Q51" s="9">
-        <f>O51/P51</f>
+        <f t="shared" si="1"/>
         <v>0.34649189672886355</v>
       </c>
     </row>
@@ -3451,10 +3457,10 @@
       <c r="K52">
         <v>5.31</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="7">
         <v>1.26</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="7">
         <v>209.76</v>
       </c>
       <c r="N52" s="7">
@@ -3467,7 +3473,7 @@
         <v>2982.9</v>
       </c>
       <c r="Q52" s="9">
-        <f>O52/P52</f>
+        <f t="shared" si="1"/>
         <v>0.18478996949277549</v>
       </c>
     </row>
@@ -3505,10 +3511,10 @@
       <c r="K53">
         <v>7.16</v>
       </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
+      <c r="L53" s="7">
+        <v>0</v>
+      </c>
+      <c r="M53" s="7">
         <v>601.70000000000005</v>
       </c>
       <c r="N53" s="7">
@@ -3521,7 +3527,7 @@
         <v>3022.5</v>
       </c>
       <c r="Q53" s="9">
-        <f>O53/P53</f>
+        <f t="shared" si="1"/>
         <v>-9.15963606286187E-2</v>
       </c>
     </row>
@@ -3559,10 +3565,10 @@
       <c r="K54">
         <v>7.1</v>
       </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
+      <c r="L54" s="7">
+        <v>0</v>
+      </c>
+      <c r="M54" s="7">
         <v>557.63</v>
       </c>
       <c r="N54" s="7">
@@ -3575,11 +3581,11 @@
         <v>2992</v>
       </c>
       <c r="Q54" s="9">
-        <f>O54/P54</f>
+        <f t="shared" si="1"/>
         <v>-7.938502673796792E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -3613,10 +3619,10 @@
       <c r="K55">
         <v>6.22</v>
       </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
+      <c r="L55" s="7">
+        <v>0</v>
+      </c>
+      <c r="M55" s="7">
         <v>149.66</v>
       </c>
       <c r="N55" s="7">
@@ -3629,7 +3635,7 @@
         <v>3001.9</v>
       </c>
       <c r="Q55" s="9">
-        <f>O55/P55</f>
+        <f t="shared" si="1"/>
         <v>0.10705220027316033</v>
       </c>
     </row>
@@ -3664,8 +3670,27 @@
       <c r="J56" t="s">
         <v>10</v>
       </c>
-      <c r="K56" t="s">
-        <v>81</v>
+      <c r="K56">
+        <v>1.71</v>
+      </c>
+      <c r="L56" s="7">
+        <v>5.44</v>
+      </c>
+      <c r="M56" s="7">
+        <v>253.56</v>
+      </c>
+      <c r="N56" s="7">
+        <v>6.77</v>
+      </c>
+      <c r="O56" s="7">
+        <v>1239.6400000000001</v>
+      </c>
+      <c r="P56">
+        <v>3016</v>
+      </c>
+      <c r="Q56" s="9">
+        <f t="shared" si="1"/>
+        <v>0.41102122015915121</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -3699,8 +3724,27 @@
       <c r="J57" t="s">
         <v>16</v>
       </c>
-      <c r="K57" t="s">
-        <v>81</v>
+      <c r="K57">
+        <v>1.25</v>
+      </c>
+      <c r="L57" s="7">
+        <v>6.48</v>
+      </c>
+      <c r="M57" s="7">
+        <v>256.57</v>
+      </c>
+      <c r="N57" s="7">
+        <v>7.31</v>
+      </c>
+      <c r="O57" s="7">
+        <v>1284.1199999999999</v>
+      </c>
+      <c r="P57">
+        <v>2994.3</v>
+      </c>
+      <c r="Q57" s="9">
+        <f t="shared" si="1"/>
+        <v>0.42885482416591519</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -3734,8 +3778,27 @@
       <c r="J58" t="s">
         <v>17</v>
       </c>
-      <c r="K58" t="s">
-        <v>81</v>
+      <c r="K58">
+        <v>1.06</v>
+      </c>
+      <c r="L58" s="7">
+        <v>6.12</v>
+      </c>
+      <c r="M58" s="7">
+        <v>232.15</v>
+      </c>
+      <c r="N58" s="7">
+        <v>7.02</v>
+      </c>
+      <c r="O58" s="7">
+        <v>1560.57</v>
+      </c>
+      <c r="P58">
+        <v>2983.5</v>
+      </c>
+      <c r="Q58" s="9">
+        <f t="shared" si="1"/>
+        <v>0.52306686777275013</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -3769,8 +3832,27 @@
       <c r="J59" t="s">
         <v>18</v>
       </c>
-      <c r="K59" t="s">
-        <v>81</v>
+      <c r="K59">
+        <v>2.31</v>
+      </c>
+      <c r="L59" s="7">
+        <v>3.84</v>
+      </c>
+      <c r="M59" s="7">
+        <v>157.54</v>
+      </c>
+      <c r="N59" s="7">
+        <v>5.86</v>
+      </c>
+      <c r="O59" s="7">
+        <v>1176.23</v>
+      </c>
+      <c r="P59">
+        <v>3009.3</v>
+      </c>
+      <c r="Q59" s="9">
+        <f t="shared" si="1"/>
+        <v>0.3908649852125079</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -3804,8 +3886,27 @@
       <c r="J60" t="s">
         <v>19</v>
       </c>
-      <c r="K60" t="s">
-        <v>81</v>
+      <c r="K60">
+        <v>1.26</v>
+      </c>
+      <c r="L60" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="M60" s="7">
+        <v>276.68</v>
+      </c>
+      <c r="N60" s="7">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="O60" s="7">
+        <v>1296.6300000000001</v>
+      </c>
+      <c r="P60">
+        <v>3015.7</v>
+      </c>
+      <c r="Q60" s="9">
+        <f t="shared" si="1"/>
+        <v>0.42995987664555502</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -3839,8 +3940,27 @@
       <c r="J61" t="s">
         <v>20</v>
       </c>
-      <c r="K61" t="s">
-        <v>81</v>
+      <c r="K61">
+        <v>1.73</v>
+      </c>
+      <c r="L61" s="7">
+        <v>5.25</v>
+      </c>
+      <c r="M61" s="7">
+        <v>274.20999999999998</v>
+      </c>
+      <c r="N61" s="7">
+        <v>5.95</v>
+      </c>
+      <c r="O61" s="7">
+        <v>1232.57</v>
+      </c>
+      <c r="P61">
+        <v>3006.1</v>
+      </c>
+      <c r="Q61" s="9">
+        <f t="shared" si="1"/>
+        <v>0.41002295332823258</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -3874,8 +3994,27 @@
       <c r="J62" t="s">
         <v>21</v>
       </c>
-      <c r="K62" t="s">
-        <v>81</v>
+      <c r="K62">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L62" s="7">
+        <v>4.91</v>
+      </c>
+      <c r="M62" s="7">
+        <v>333.71</v>
+      </c>
+      <c r="N62" s="7">
+        <v>5.13</v>
+      </c>
+      <c r="O62" s="7">
+        <v>1095.81</v>
+      </c>
+      <c r="P62">
+        <v>2989</v>
+      </c>
+      <c r="Q62" s="9">
+        <f t="shared" si="1"/>
+        <v>0.36661425225828032</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -3909,8 +4048,27 @@
       <c r="J63" t="s">
         <v>22</v>
       </c>
-      <c r="K63" t="s">
-        <v>81</v>
+      <c r="K63">
+        <v>2.62</v>
+      </c>
+      <c r="L63" s="7">
+        <v>3.92</v>
+      </c>
+      <c r="M63" s="7">
+        <v>218.77</v>
+      </c>
+      <c r="N63" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O63" s="7">
+        <v>1110.92</v>
+      </c>
+      <c r="P63">
+        <v>3006</v>
+      </c>
+      <c r="Q63" s="9">
+        <f t="shared" si="1"/>
+        <v>0.36956753160345979</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -3944,11 +4102,30 @@
       <c r="J64" t="s">
         <v>23</v>
       </c>
-      <c r="K64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>2.06</v>
+      </c>
+      <c r="L64" s="7">
+        <v>4.46</v>
+      </c>
+      <c r="M64" s="7">
+        <v>202.87</v>
+      </c>
+      <c r="N64" s="7">
+        <v>5.13</v>
+      </c>
+      <c r="O64" s="7">
+        <v>1245.44</v>
+      </c>
+      <c r="P64">
+        <v>3006.7</v>
+      </c>
+      <c r="Q64" s="9">
+        <f t="shared" si="1"/>
+        <v>0.41422157182292885</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -3979,11 +4156,30 @@
       <c r="J65" t="s">
         <v>24</v>
       </c>
-      <c r="K65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="L65" s="7">
+        <v>3.89</v>
+      </c>
+      <c r="M65" s="7">
+        <v>153.69999999999999</v>
+      </c>
+      <c r="N65" s="7">
+        <v>0</v>
+      </c>
+      <c r="O65" s="7">
+        <v>183.76</v>
+      </c>
+      <c r="P65">
+        <v>3017.8</v>
+      </c>
+      <c r="Q65" s="9">
+        <f t="shared" si="1"/>
+        <v>6.0892040559347861E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -4014,11 +4210,30 @@
       <c r="J66" t="s">
         <v>25</v>
       </c>
-      <c r="K66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>1.88</v>
+      </c>
+      <c r="L66" s="7">
+        <v>4.74</v>
+      </c>
+      <c r="M66" s="7">
+        <v>285.52999999999997</v>
+      </c>
+      <c r="N66" s="7">
+        <v>5.13</v>
+      </c>
+      <c r="O66" s="7">
+        <v>1253.5899999999999</v>
+      </c>
+      <c r="P66">
+        <v>3003</v>
+      </c>
+      <c r="Q66" s="9">
+        <f t="shared" ref="Q66:Q97" si="2">O66/P66</f>
+        <v>0.4174458874458874</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -4049,11 +4264,30 @@
       <c r="J67" t="s">
         <v>26</v>
       </c>
-      <c r="K67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>2.09</v>
+      </c>
+      <c r="L67" s="7">
+        <v>5.68</v>
+      </c>
+      <c r="M67" s="7">
+        <v>213.29</v>
+      </c>
+      <c r="N67" s="7">
+        <v>0</v>
+      </c>
+      <c r="O67" s="7">
+        <v>626.6</v>
+      </c>
+      <c r="P67">
+        <v>3018.2</v>
+      </c>
+      <c r="Q67" s="9">
+        <f t="shared" si="2"/>
+        <v>0.20760718308925852</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -4084,11 +4318,30 @@
       <c r="J68" t="s">
         <v>27</v>
       </c>
-      <c r="K68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>6.87</v>
+      </c>
+      <c r="L68" s="7">
+        <v>0</v>
+      </c>
+      <c r="M68" s="7">
+        <v>442.11</v>
+      </c>
+      <c r="N68" s="7">
+        <v>0</v>
+      </c>
+      <c r="O68" s="7">
+        <v>-128.88999999999999</v>
+      </c>
+      <c r="P68">
+        <v>2973.8</v>
+      </c>
+      <c r="Q68" s="9">
+        <f t="shared" si="2"/>
+        <v>-4.3341852175667488E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -4119,13 +4372,30 @@
       <c r="J69" t="s">
         <v>28</v>
       </c>
-      <c r="K69" t="s">
-        <v>81</v>
-      </c>
-      <c r="N69"/>
-      <c r="P69" s="7"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>6.81</v>
+      </c>
+      <c r="L69" s="7">
+        <v>0</v>
+      </c>
+      <c r="M69" s="7">
+        <v>477.41</v>
+      </c>
+      <c r="N69" s="7">
+        <v>0</v>
+      </c>
+      <c r="O69" s="7">
+        <v>-179.48</v>
+      </c>
+      <c r="P69" s="7">
+        <v>2981.9</v>
+      </c>
+      <c r="Q69" s="9">
+        <f t="shared" si="2"/>
+        <v>-6.0189811864918334E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -4156,11 +4426,30 @@
       <c r="J70" t="s">
         <v>29</v>
       </c>
-      <c r="K70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>6.1</v>
+      </c>
+      <c r="L70" s="7">
+        <v>0</v>
+      </c>
+      <c r="M70" s="7">
+        <v>166.78</v>
+      </c>
+      <c r="N70" s="7">
+        <v>0</v>
+      </c>
+      <c r="O70" s="7">
+        <v>339.16</v>
+      </c>
+      <c r="P70">
+        <v>3001.8</v>
+      </c>
+      <c r="Q70" s="9">
+        <f t="shared" si="2"/>
+        <v>0.11298554200812846</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -4191,11 +4480,30 @@
       <c r="J71" t="s">
         <v>30</v>
       </c>
-      <c r="K71" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>6.33</v>
+      </c>
+      <c r="L71" s="7">
+        <v>0</v>
+      </c>
+      <c r="M71" s="7">
+        <v>212.05</v>
+      </c>
+      <c r="N71" s="7">
+        <v>0</v>
+      </c>
+      <c r="O71" s="7">
+        <v>276.18</v>
+      </c>
+      <c r="P71">
+        <v>2988</v>
+      </c>
+      <c r="Q71" s="9">
+        <f t="shared" si="2"/>
+        <v>9.2429718875502012E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -4226,11 +4534,30 @@
       <c r="J72" t="s">
         <v>31</v>
       </c>
-      <c r="K72" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <v>6.13</v>
+      </c>
+      <c r="L72" s="7">
+        <v>0</v>
+      </c>
+      <c r="M72" s="7">
+        <v>179.15</v>
+      </c>
+      <c r="N72" s="7">
+        <v>0</v>
+      </c>
+      <c r="O72" s="7">
+        <v>321.69</v>
+      </c>
+      <c r="P72">
+        <v>2986.9</v>
+      </c>
+      <c r="Q72" s="9">
+        <f t="shared" si="2"/>
+        <v>0.10770029127188724</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -4261,11 +4588,30 @@
       <c r="J73" t="s">
         <v>32</v>
       </c>
-      <c r="K73" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>6.17</v>
+      </c>
+      <c r="L73" s="7">
+        <v>0</v>
+      </c>
+      <c r="M73" s="7">
+        <v>183.35</v>
+      </c>
+      <c r="N73" s="7">
+        <v>0</v>
+      </c>
+      <c r="O73" s="7">
+        <v>331.18</v>
+      </c>
+      <c r="P73">
+        <v>3012.1</v>
+      </c>
+      <c r="Q73" s="9">
+        <f t="shared" si="2"/>
+        <v>0.10994986886225558</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -4296,11 +4642,30 @@
       <c r="J74" t="s">
         <v>33</v>
       </c>
-      <c r="K74" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>1.84</v>
+      </c>
+      <c r="L74" s="7">
+        <v>4.91</v>
+      </c>
+      <c r="M74" s="7">
+        <v>206.45</v>
+      </c>
+      <c r="N74" s="7">
+        <v>6.39</v>
+      </c>
+      <c r="O74" s="7">
+        <v>1258.44</v>
+      </c>
+      <c r="P74">
+        <v>2971.1</v>
+      </c>
+      <c r="Q74" s="9">
+        <f t="shared" si="2"/>
+        <v>0.42356029753290031</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -4331,11 +4696,30 @@
       <c r="J75" t="s">
         <v>34</v>
       </c>
-      <c r="K75" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L75" s="7">
+        <v>7.61</v>
+      </c>
+      <c r="M75" s="7">
+        <v>228.18</v>
+      </c>
+      <c r="N75" s="7">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="O75" s="7">
+        <v>1616.78</v>
+      </c>
+      <c r="P75">
+        <v>3011.3</v>
+      </c>
+      <c r="Q75" s="9">
+        <f t="shared" si="2"/>
+        <v>0.53690432703483537</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -4366,11 +4750,30 @@
       <c r="J76" t="s">
         <v>35</v>
       </c>
-      <c r="K76" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <v>0.84</v>
+      </c>
+      <c r="L76" s="7">
+        <v>6.46</v>
+      </c>
+      <c r="M76" s="7">
+        <v>157.22</v>
+      </c>
+      <c r="N76" s="7">
+        <v>7.49</v>
+      </c>
+      <c r="O76" s="7">
+        <v>1401.27</v>
+      </c>
+      <c r="P76">
+        <v>2977.9</v>
+      </c>
+      <c r="Q76" s="9">
+        <f t="shared" si="2"/>
+        <v>0.47055643238523792</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -4401,11 +4804,30 @@
       <c r="J77" t="s">
         <v>36</v>
       </c>
-      <c r="K77" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>1.55</v>
+      </c>
+      <c r="L77" s="7">
+        <v>5.12</v>
+      </c>
+      <c r="M77" s="7">
+        <v>143.37</v>
+      </c>
+      <c r="N77" s="7">
+        <v>5.87</v>
+      </c>
+      <c r="O77" s="7">
+        <v>1455.63</v>
+      </c>
+      <c r="P77">
+        <v>3027.6</v>
+      </c>
+      <c r="Q77" s="9">
+        <f t="shared" si="2"/>
+        <v>0.48078676179151808</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -4436,11 +4858,30 @@
       <c r="J78" t="s">
         <v>37</v>
       </c>
-      <c r="K78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>0.95</v>
+      </c>
+      <c r="L78" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="M78" s="7">
+        <v>218.25</v>
+      </c>
+      <c r="N78" s="7">
+        <v>0</v>
+      </c>
+      <c r="O78" s="7">
+        <v>1104.47</v>
+      </c>
+      <c r="P78">
+        <v>3032.3</v>
+      </c>
+      <c r="Q78" s="9">
+        <f t="shared" si="2"/>
+        <v>0.36423506908947001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -4471,11 +4912,30 @@
       <c r="J79" t="s">
         <v>38</v>
       </c>
-      <c r="K79" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <v>1.39</v>
+      </c>
+      <c r="L79" s="7">
+        <v>5.55</v>
+      </c>
+      <c r="M79" s="7">
+        <v>209.61</v>
+      </c>
+      <c r="N79" s="7">
+        <v>0</v>
+      </c>
+      <c r="O79" s="7">
+        <v>1100.3900000000001</v>
+      </c>
+      <c r="P79">
+        <v>2991.1</v>
+      </c>
+      <c r="Q79" s="9">
+        <f t="shared" si="2"/>
+        <v>0.3678880679348735</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -4506,11 +4966,30 @@
       <c r="J80" t="s">
         <v>39</v>
       </c>
-      <c r="K80" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L80" s="7">
+        <v>4.01</v>
+      </c>
+      <c r="M80" s="7">
+        <v>116.43</v>
+      </c>
+      <c r="N80" s="7">
+        <v>0</v>
+      </c>
+      <c r="O80" s="7">
+        <v>838.22</v>
+      </c>
+      <c r="P80">
+        <v>3009.4</v>
+      </c>
+      <c r="Q80" s="9">
+        <f t="shared" si="2"/>
+        <v>0.2785339270286436</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -4541,11 +5020,30 @@
       <c r="J81" t="s">
         <v>40</v>
       </c>
-      <c r="K81" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>2.1</v>
+      </c>
+      <c r="L81" s="7">
+        <v>4.41</v>
+      </c>
+      <c r="M81" s="7">
+        <v>157.88999999999999</v>
+      </c>
+      <c r="N81" s="7">
+        <v>0</v>
+      </c>
+      <c r="O81" s="7">
+        <v>1042.24</v>
+      </c>
+      <c r="P81">
+        <v>2989.6</v>
+      </c>
+      <c r="Q81" s="9">
+        <f t="shared" si="2"/>
+        <v>0.34862188921594861</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -4576,11 +5074,30 @@
       <c r="J82" t="s">
         <v>41</v>
       </c>
-      <c r="K82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>1.6</v>
+      </c>
+      <c r="L82" s="7">
+        <v>4.88</v>
+      </c>
+      <c r="M82" s="7">
+        <v>164.31</v>
+      </c>
+      <c r="N82" s="7">
+        <v>0</v>
+      </c>
+      <c r="O82" s="7">
+        <v>1095.06</v>
+      </c>
+      <c r="P82">
+        <v>2983</v>
+      </c>
+      <c r="Q82" s="9">
+        <f t="shared" si="2"/>
+        <v>0.36710023466309083</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -4611,11 +5128,30 @@
       <c r="J83" t="s">
         <v>42</v>
       </c>
-      <c r="K83" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>6.15</v>
+      </c>
+      <c r="L83" s="7">
+        <v>6.15</v>
+      </c>
+      <c r="M83" s="7">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="N83" s="7">
+        <v>0</v>
+      </c>
+      <c r="O83" s="7">
+        <v>288.49</v>
+      </c>
+      <c r="P83">
+        <v>3017.2</v>
+      </c>
+      <c r="Q83" s="9">
+        <f t="shared" si="2"/>
+        <v>9.5615139864775295E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -4646,11 +5182,30 @@
       <c r="J84" t="s">
         <v>43</v>
       </c>
-      <c r="K84" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>2.17</v>
+      </c>
+      <c r="L84" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="M84" s="7">
+        <v>145.35</v>
+      </c>
+      <c r="N84" s="7">
+        <v>0</v>
+      </c>
+      <c r="O84" s="7">
+        <v>799.08</v>
+      </c>
+      <c r="P84">
+        <v>2997.4</v>
+      </c>
+      <c r="Q84" s="9">
+        <f t="shared" si="2"/>
+        <v>0.26659104557282981</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -4681,11 +5236,30 @@
       <c r="J85" t="s">
         <v>44</v>
       </c>
-      <c r="K85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <v>5.81</v>
+      </c>
+      <c r="L85" s="7">
+        <v>0</v>
+      </c>
+      <c r="M85" s="7">
+        <v>160.9</v>
+      </c>
+      <c r="N85" s="7">
+        <v>3.39</v>
+      </c>
+      <c r="O85" s="7">
+        <v>507.36</v>
+      </c>
+      <c r="P85">
+        <v>2989.9</v>
+      </c>
+      <c r="Q85" s="9">
+        <f t="shared" si="2"/>
+        <v>0.16969129402321148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -4716,11 +5290,30 @@
       <c r="J86" t="s">
         <v>45</v>
       </c>
-      <c r="K86" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>6.83</v>
+      </c>
+      <c r="L86" s="7">
+        <v>0</v>
+      </c>
+      <c r="M86" s="7">
+        <v>216.29</v>
+      </c>
+      <c r="N86" s="7">
+        <v>0</v>
+      </c>
+      <c r="O86" s="7">
+        <v>285.76</v>
+      </c>
+      <c r="P86">
+        <v>2999.1</v>
+      </c>
+      <c r="Q86" s="9">
+        <f t="shared" si="2"/>
+        <v>9.5281917908705951E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -4751,11 +5344,30 @@
       <c r="J87" t="s">
         <v>46</v>
       </c>
-      <c r="K87" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>6.87</v>
+      </c>
+      <c r="L87" s="7">
+        <v>0</v>
+      </c>
+      <c r="M87" s="7">
+        <v>518.27</v>
+      </c>
+      <c r="N87" s="7">
+        <v>0</v>
+      </c>
+      <c r="O87" s="7">
+        <v>-286.35000000000002</v>
+      </c>
+      <c r="P87">
+        <v>2965.1</v>
+      </c>
+      <c r="Q87" s="9">
+        <f t="shared" si="2"/>
+        <v>-9.6573471383764473E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -4786,11 +5398,30 @@
       <c r="J88" t="s">
         <v>47</v>
       </c>
-      <c r="K88" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>6.01</v>
+      </c>
+      <c r="L88" s="7">
+        <v>0</v>
+      </c>
+      <c r="M88" s="7">
+        <v>140.74</v>
+      </c>
+      <c r="N88" s="7">
+        <v>0</v>
+      </c>
+      <c r="O88" s="7">
+        <v>324.31</v>
+      </c>
+      <c r="P88">
+        <v>2992.9</v>
+      </c>
+      <c r="Q88" s="9">
+        <f t="shared" si="2"/>
+        <v>0.10835978482408366</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -4821,11 +5452,30 @@
       <c r="J89" t="s">
         <v>48</v>
       </c>
-      <c r="K89" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <v>5.96</v>
+      </c>
+      <c r="L89" s="7">
+        <v>0</v>
+      </c>
+      <c r="M89" s="7">
+        <v>126.54</v>
+      </c>
+      <c r="N89" s="7">
+        <v>0</v>
+      </c>
+      <c r="O89" s="7">
+        <v>308.16000000000003</v>
+      </c>
+      <c r="P89">
+        <v>2979.6</v>
+      </c>
+      <c r="Q89" s="9">
+        <f t="shared" si="2"/>
+        <v>0.10342327829238825</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -4856,11 +5506,30 @@
       <c r="J90" t="s">
         <v>49</v>
       </c>
-      <c r="K90" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <v>6.26</v>
+      </c>
+      <c r="L90" s="7">
+        <v>0</v>
+      </c>
+      <c r="M90" s="7">
+        <v>181.79</v>
+      </c>
+      <c r="N90" s="7">
+        <v>0</v>
+      </c>
+      <c r="O90" s="7">
+        <v>313.42</v>
+      </c>
+      <c r="P90">
+        <v>3011.6</v>
+      </c>
+      <c r="Q90" s="9">
+        <f t="shared" si="2"/>
+        <v>0.10407092575375217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -4891,11 +5560,30 @@
       <c r="J91" t="s">
         <v>50</v>
       </c>
-      <c r="K91" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <v>6.13</v>
+      </c>
+      <c r="L91" s="7">
+        <v>0</v>
+      </c>
+      <c r="M91" s="7">
+        <v>163.91</v>
+      </c>
+      <c r="N91" s="7">
+        <v>0</v>
+      </c>
+      <c r="O91" s="7">
+        <v>318.77</v>
+      </c>
+      <c r="P91">
+        <v>2988.9</v>
+      </c>
+      <c r="Q91" s="9">
+        <f t="shared" si="2"/>
+        <v>0.10665127638930709</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -4926,11 +5614,30 @@
       <c r="J92" t="s">
         <v>51</v>
       </c>
-      <c r="K92" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="L92" s="7">
+        <v>0</v>
+      </c>
+      <c r="M92" s="7">
+        <v>45.82</v>
+      </c>
+      <c r="N92" s="7">
+        <v>0</v>
+      </c>
+      <c r="O92" s="7">
+        <v>42.14</v>
+      </c>
+      <c r="P92">
+        <v>3016.1</v>
+      </c>
+      <c r="Q92" s="9">
+        <f t="shared" si="2"/>
+        <v>1.3971685288949307E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -4961,11 +5668,30 @@
       <c r="J93" t="s">
         <v>52</v>
       </c>
-      <c r="K93" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <v>6.22</v>
+      </c>
+      <c r="L93" s="7">
+        <v>0</v>
+      </c>
+      <c r="M93" s="7">
+        <v>156.69999999999999</v>
+      </c>
+      <c r="N93" s="7">
+        <v>13.59</v>
+      </c>
+      <c r="O93" s="7">
+        <v>564.07000000000005</v>
+      </c>
+      <c r="P93">
+        <v>3033</v>
+      </c>
+      <c r="Q93" s="9">
+        <f t="shared" si="2"/>
+        <v>0.18597757995384109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -4996,11 +5722,30 @@
       <c r="J94" t="s">
         <v>53</v>
       </c>
-      <c r="K94" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <v>6.72</v>
+      </c>
+      <c r="L94" s="7">
+        <v>0</v>
+      </c>
+      <c r="M94" s="7">
+        <v>449.15</v>
+      </c>
+      <c r="N94" s="7">
+        <v>0</v>
+      </c>
+      <c r="O94" s="7">
+        <v>-107.44</v>
+      </c>
+      <c r="P94">
+        <v>3003</v>
+      </c>
+      <c r="Q94" s="9">
+        <f t="shared" si="2"/>
+        <v>-3.5777555777555779E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -5031,11 +5776,30 @@
       <c r="J95" t="s">
         <v>54</v>
       </c>
-      <c r="K95" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <v>6.45</v>
+      </c>
+      <c r="L95" s="7">
+        <v>0</v>
+      </c>
+      <c r="M95" s="7">
+        <v>165.83</v>
+      </c>
+      <c r="N95" s="7">
+        <v>0</v>
+      </c>
+      <c r="O95" s="7">
+        <v>281.26</v>
+      </c>
+      <c r="P95">
+        <v>3008.1</v>
+      </c>
+      <c r="Q95" s="9">
+        <f t="shared" si="2"/>
+        <v>9.3500880954755491E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -5066,8 +5830,27 @@
       <c r="J96" t="s">
         <v>55</v>
       </c>
-      <c r="K96" t="s">
-        <v>81</v>
+      <c r="K96">
+        <v>6.31</v>
+      </c>
+      <c r="L96" s="7">
+        <v>0</v>
+      </c>
+      <c r="M96" s="7">
+        <v>187.78</v>
+      </c>
+      <c r="N96" s="7">
+        <v>0</v>
+      </c>
+      <c r="O96" s="7">
+        <v>359.1</v>
+      </c>
+      <c r="P96">
+        <v>2986.9</v>
+      </c>
+      <c r="Q96" s="9">
+        <f t="shared" si="2"/>
+        <v>0.12022498242324819</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
@@ -5101,8 +5884,27 @@
       <c r="J97" t="s">
         <v>56</v>
       </c>
-      <c r="K97" t="s">
-        <v>81</v>
+      <c r="K97">
+        <v>6.91</v>
+      </c>
+      <c r="L97" s="7">
+        <v>0</v>
+      </c>
+      <c r="M97" s="7">
+        <v>464.31</v>
+      </c>
+      <c r="N97" s="7">
+        <v>0</v>
+      </c>
+      <c r="O97" s="7">
+        <v>-184.38</v>
+      </c>
+      <c r="P97">
+        <v>2978.6</v>
+      </c>
+      <c r="Q97" s="9">
+        <f t="shared" si="2"/>
+        <v>-6.1901564493386158E-2</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
@@ -5136,8 +5938,27 @@
       <c r="J98" t="s">
         <v>57</v>
       </c>
-      <c r="K98" t="s">
-        <v>81</v>
+      <c r="K98">
+        <v>3.35</v>
+      </c>
+      <c r="L98" s="7">
+        <v>6.69</v>
+      </c>
+      <c r="M98" s="7">
+        <v>104.93</v>
+      </c>
+      <c r="N98" s="7">
+        <v>0</v>
+      </c>
+      <c r="O98" s="7">
+        <v>-236.03</v>
+      </c>
+      <c r="P98">
+        <v>3008.9</v>
+      </c>
+      <c r="Q98" s="9">
+        <f t="shared" ref="Q98:Q183" si="3">O98/P98</f>
+        <v>-7.8443949616138792E-2</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
@@ -5171,8 +5992,27 @@
       <c r="J99" t="s">
         <v>58</v>
       </c>
-      <c r="K99" t="s">
-        <v>81</v>
+      <c r="K99">
+        <v>1.55</v>
+      </c>
+      <c r="L99" s="7">
+        <v>5.64</v>
+      </c>
+      <c r="M99" s="7">
+        <v>118.48</v>
+      </c>
+      <c r="N99" s="7">
+        <v>0</v>
+      </c>
+      <c r="O99" s="7">
+        <v>919.16</v>
+      </c>
+      <c r="P99">
+        <v>3039.8</v>
+      </c>
+      <c r="Q99" s="9">
+        <f t="shared" si="3"/>
+        <v>0.30237515626028028</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
@@ -5206,8 +6046,27 @@
       <c r="J100" t="s">
         <v>59</v>
       </c>
-      <c r="K100" t="s">
-        <v>81</v>
+      <c r="K100">
+        <v>6.29</v>
+      </c>
+      <c r="L100" s="7">
+        <v>0</v>
+      </c>
+      <c r="M100" s="7">
+        <v>186.63</v>
+      </c>
+      <c r="N100" s="7">
+        <v>0</v>
+      </c>
+      <c r="O100" s="7">
+        <v>294.86</v>
+      </c>
+      <c r="P100">
+        <v>3024.5</v>
+      </c>
+      <c r="Q100" s="9">
+        <f t="shared" si="3"/>
+        <v>9.7490494296577954E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
@@ -5241,8 +6100,27 @@
       <c r="J101" t="s">
         <v>60</v>
       </c>
-      <c r="K101" t="s">
-        <v>81</v>
+      <c r="K101">
+        <v>6.83</v>
+      </c>
+      <c r="L101" s="7">
+        <v>0</v>
+      </c>
+      <c r="M101" s="7">
+        <v>486.44</v>
+      </c>
+      <c r="N101" s="7">
+        <v>0</v>
+      </c>
+      <c r="O101" s="7">
+        <v>-199.57</v>
+      </c>
+      <c r="P101">
+        <v>2992.1</v>
+      </c>
+      <c r="Q101" s="9">
+        <f t="shared" si="3"/>
+        <v>-6.6698973964773908E-2</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
@@ -5276,8 +6154,27 @@
       <c r="J102" t="s">
         <v>61</v>
       </c>
-      <c r="K102" t="s">
-        <v>81</v>
+      <c r="K102">
+        <v>5.95</v>
+      </c>
+      <c r="L102" s="7">
+        <v>0</v>
+      </c>
+      <c r="M102" s="7">
+        <v>118.2</v>
+      </c>
+      <c r="N102" s="7">
+        <v>0</v>
+      </c>
+      <c r="O102" s="7">
+        <v>303.61</v>
+      </c>
+      <c r="P102">
+        <v>3021.7</v>
+      </c>
+      <c r="Q102" s="9">
+        <f t="shared" si="3"/>
+        <v>0.10047655293377901</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
@@ -5311,8 +6208,27 @@
       <c r="J103" t="s">
         <v>62</v>
       </c>
-      <c r="K103" t="s">
-        <v>81</v>
+      <c r="K103">
+        <v>6.42</v>
+      </c>
+      <c r="L103" s="7">
+        <v>0</v>
+      </c>
+      <c r="M103" s="7">
+        <v>216.28</v>
+      </c>
+      <c r="N103" s="7">
+        <v>0</v>
+      </c>
+      <c r="O103" s="7">
+        <v>270.56</v>
+      </c>
+      <c r="P103">
+        <v>3020.2</v>
+      </c>
+      <c r="Q103" s="9">
+        <f t="shared" si="3"/>
+        <v>8.9583471293291847E-2</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
@@ -5346,8 +6262,27 @@
       <c r="J104" t="s">
         <v>63</v>
       </c>
-      <c r="K104" t="s">
-        <v>81</v>
+      <c r="K104">
+        <v>6.82</v>
+      </c>
+      <c r="L104" s="7">
+        <v>0</v>
+      </c>
+      <c r="M104" s="7">
+        <v>429.02</v>
+      </c>
+      <c r="N104" s="7">
+        <v>0</v>
+      </c>
+      <c r="O104" s="7">
+        <v>-88.9</v>
+      </c>
+      <c r="P104">
+        <v>3007.2</v>
+      </c>
+      <c r="Q104" s="9">
+        <f t="shared" si="3"/>
+        <v>-2.9562383612662946E-2</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
@@ -5381,8 +6316,27 @@
       <c r="J105" t="s">
         <v>64</v>
       </c>
-      <c r="K105" t="s">
-        <v>81</v>
+      <c r="K105">
+        <v>6.76</v>
+      </c>
+      <c r="L105" s="7">
+        <v>0</v>
+      </c>
+      <c r="M105" s="7">
+        <v>475.75</v>
+      </c>
+      <c r="N105" s="7">
+        <v>0</v>
+      </c>
+      <c r="O105" s="7">
+        <v>-172.05</v>
+      </c>
+      <c r="P105">
+        <v>2997.1</v>
+      </c>
+      <c r="Q105" s="9">
+        <f t="shared" si="3"/>
+        <v>-5.7405491975576393E-2</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
@@ -5416,8 +6370,27 @@
       <c r="J106" t="s">
         <v>65</v>
       </c>
-      <c r="K106" t="s">
-        <v>81</v>
+      <c r="K106">
+        <v>6.15</v>
+      </c>
+      <c r="L106" s="7">
+        <v>0</v>
+      </c>
+      <c r="M106" s="7">
+        <v>175.57</v>
+      </c>
+      <c r="N106" s="7">
+        <v>0</v>
+      </c>
+      <c r="O106" s="7">
+        <v>324.52999999999997</v>
+      </c>
+      <c r="P106">
+        <v>3013.6</v>
+      </c>
+      <c r="Q106" s="9">
+        <f t="shared" si="3"/>
+        <v>0.10768847889567294</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
@@ -5451,8 +6424,27 @@
       <c r="J107" t="s">
         <v>66</v>
       </c>
-      <c r="K107" t="s">
-        <v>81</v>
+      <c r="K107">
+        <v>6.52</v>
+      </c>
+      <c r="L107" s="7">
+        <v>0</v>
+      </c>
+      <c r="M107" s="7">
+        <v>219.08</v>
+      </c>
+      <c r="N107" s="7">
+        <v>0</v>
+      </c>
+      <c r="O107" s="7">
+        <v>231.78</v>
+      </c>
+      <c r="P107">
+        <v>2997.5</v>
+      </c>
+      <c r="Q107" s="9">
+        <f t="shared" si="3"/>
+        <v>7.7324437030859047E-2</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
@@ -5486,8 +6478,27 @@
       <c r="J108" t="s">
         <v>67</v>
       </c>
-      <c r="K108" t="s">
-        <v>81</v>
+      <c r="K108">
+        <v>6.31</v>
+      </c>
+      <c r="L108" s="7">
+        <v>0</v>
+      </c>
+      <c r="M108" s="7">
+        <v>199.63</v>
+      </c>
+      <c r="N108" s="7">
+        <v>0</v>
+      </c>
+      <c r="O108" s="7">
+        <v>293.83</v>
+      </c>
+      <c r="P108">
+        <v>3019.4</v>
+      </c>
+      <c r="Q108" s="9">
+        <f t="shared" si="3"/>
+        <v>9.7314035901172408E-2</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
@@ -5521,8 +6532,27 @@
       <c r="J109" t="s">
         <v>68</v>
       </c>
-      <c r="K109" t="s">
-        <v>81</v>
+      <c r="K109">
+        <v>6.71</v>
+      </c>
+      <c r="L109" s="7">
+        <v>0</v>
+      </c>
+      <c r="M109" s="7">
+        <v>407.94</v>
+      </c>
+      <c r="N109" s="7">
+        <v>0</v>
+      </c>
+      <c r="O109" s="7">
+        <v>-22.76</v>
+      </c>
+      <c r="P109">
+        <v>3016.1</v>
+      </c>
+      <c r="Q109" s="9">
+        <f t="shared" si="3"/>
+        <v>-7.546168893604324E-3</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
@@ -5530,53 +6560,38 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>44944</v>
+        <v>44956</v>
       </c>
       <c r="C110" t="s">
-        <v>77</v>
-      </c>
-      <c r="D110" t="s">
-        <v>76</v>
-      </c>
-      <c r="E110" t="s">
-        <v>76</v>
-      </c>
-      <c r="F110" t="s">
-        <v>76</v>
-      </c>
-      <c r="G110" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="D110" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E110">
+        <v>112</v>
+      </c>
+      <c r="F110">
+        <v>0.8</v>
+      </c>
+      <c r="G110">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H110" t="s">
-        <v>76</v>
-      </c>
-      <c r="I110" t="s">
-        <v>76</v>
+        <v>15</v>
+      </c>
+      <c r="I110">
+        <v>8</v>
       </c>
       <c r="J110" t="s">
-        <v>78</v>
-      </c>
-      <c r="K110">
-        <v>5.92</v>
-      </c>
-      <c r="L110">
-        <v>0</v>
-      </c>
-      <c r="M110" s="7">
-        <v>114.34</v>
-      </c>
-      <c r="N110" s="7">
-        <v>0</v>
-      </c>
-      <c r="O110" s="7">
-        <v>317.37</v>
-      </c>
-      <c r="P110">
-        <v>2991.5</v>
-      </c>
-      <c r="Q110" s="9">
-        <f>O110/P110</f>
-        <v>0.10609059000501421</v>
+        <v>10</v>
+      </c>
+      <c r="K110" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q110" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
@@ -5584,58 +6599,2185 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
+        <v>44957</v>
+      </c>
+      <c r="C111" t="s">
+        <v>81</v>
+      </c>
+      <c r="D111" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E111">
+        <v>112</v>
+      </c>
+      <c r="F111">
+        <v>0.8</v>
+      </c>
+      <c r="G111">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H111" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111">
+        <v>32</v>
+      </c>
+      <c r="J111" t="s">
+        <v>16</v>
+      </c>
+      <c r="K111" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q111" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1">
+        <v>44958</v>
+      </c>
+      <c r="C112" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E112">
+        <v>112</v>
+      </c>
+      <c r="F112">
+        <v>0.8</v>
+      </c>
+      <c r="G112">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H112" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112">
+        <v>64</v>
+      </c>
+      <c r="J112" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q112" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1">
+        <v>44959</v>
+      </c>
+      <c r="C113" t="s">
+        <v>81</v>
+      </c>
+      <c r="D113" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E113">
+        <v>112</v>
+      </c>
+      <c r="F113">
+        <v>0.8</v>
+      </c>
+      <c r="G113">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113">
+        <v>8</v>
+      </c>
+      <c r="J113" t="s">
+        <v>18</v>
+      </c>
+      <c r="K113" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q113" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1">
+        <v>44960</v>
+      </c>
+      <c r="C114" t="s">
+        <v>81</v>
+      </c>
+      <c r="D114" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E114">
+        <v>112</v>
+      </c>
+      <c r="F114">
+        <v>0.8</v>
+      </c>
+      <c r="G114">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114">
+        <v>32</v>
+      </c>
+      <c r="J114" t="s">
+        <v>19</v>
+      </c>
+      <c r="K114" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q114" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1">
+        <v>44961</v>
+      </c>
+      <c r="C115" t="s">
+        <v>81</v>
+      </c>
+      <c r="D115" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E115">
+        <v>112</v>
+      </c>
+      <c r="F115">
+        <v>0.8</v>
+      </c>
+      <c r="G115">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H115" t="s">
+        <v>14</v>
+      </c>
+      <c r="I115">
+        <v>64</v>
+      </c>
+      <c r="J115" t="s">
+        <v>20</v>
+      </c>
+      <c r="K115" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q115" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1">
+        <v>44962</v>
+      </c>
+      <c r="C116" t="s">
+        <v>81</v>
+      </c>
+      <c r="D116" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E116">
+        <v>112</v>
+      </c>
+      <c r="F116">
+        <v>0.8</v>
+      </c>
+      <c r="G116">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H116" t="s">
+        <v>15</v>
+      </c>
+      <c r="I116">
+        <v>8</v>
+      </c>
+      <c r="J116" t="s">
+        <v>21</v>
+      </c>
+      <c r="K116" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q116" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1">
+        <v>44963</v>
+      </c>
+      <c r="C117" t="s">
+        <v>81</v>
+      </c>
+      <c r="D117" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E117">
+        <v>112</v>
+      </c>
+      <c r="F117">
+        <v>0.8</v>
+      </c>
+      <c r="G117">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H117" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117">
+        <v>32</v>
+      </c>
+      <c r="J117" t="s">
+        <v>22</v>
+      </c>
+      <c r="K117" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q117" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1">
+        <v>44964</v>
+      </c>
+      <c r="C118" t="s">
+        <v>81</v>
+      </c>
+      <c r="D118" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E118">
+        <v>112</v>
+      </c>
+      <c r="F118">
+        <v>0.8</v>
+      </c>
+      <c r="G118">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H118" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118">
+        <v>64</v>
+      </c>
+      <c r="J118" t="s">
+        <v>23</v>
+      </c>
+      <c r="K118" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q118" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1">
+        <v>44965</v>
+      </c>
+      <c r="C119" t="s">
+        <v>81</v>
+      </c>
+      <c r="D119" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E119">
+        <v>112</v>
+      </c>
+      <c r="F119">
+        <v>0.8</v>
+      </c>
+      <c r="G119">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H119" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119">
+        <v>8</v>
+      </c>
+      <c r="J119" t="s">
+        <v>24</v>
+      </c>
+      <c r="K119" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q119" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1">
+        <v>44966</v>
+      </c>
+      <c r="C120" t="s">
+        <v>81</v>
+      </c>
+      <c r="D120" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E120">
+        <v>112</v>
+      </c>
+      <c r="F120">
+        <v>0.8</v>
+      </c>
+      <c r="G120">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120">
+        <v>32</v>
+      </c>
+      <c r="J120" t="s">
+        <v>25</v>
+      </c>
+      <c r="K120" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q120" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1">
+        <v>44967</v>
+      </c>
+      <c r="C121" t="s">
+        <v>81</v>
+      </c>
+      <c r="D121" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E121">
+        <v>112</v>
+      </c>
+      <c r="F121">
+        <v>0.8</v>
+      </c>
+      <c r="G121">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H121" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121">
+        <v>64</v>
+      </c>
+      <c r="J121" t="s">
+        <v>26</v>
+      </c>
+      <c r="K121" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q121" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1">
+        <v>44968</v>
+      </c>
+      <c r="C122" t="s">
+        <v>81</v>
+      </c>
+      <c r="D122" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E122">
+        <v>112</v>
+      </c>
+      <c r="F122">
+        <v>0.8</v>
+      </c>
+      <c r="G122">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H122" t="s">
+        <v>15</v>
+      </c>
+      <c r="I122">
+        <v>8</v>
+      </c>
+      <c r="J122" t="s">
+        <v>27</v>
+      </c>
+      <c r="K122" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q122" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1">
+        <v>44969</v>
+      </c>
+      <c r="C123" t="s">
+        <v>81</v>
+      </c>
+      <c r="D123" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E123">
+        <v>112</v>
+      </c>
+      <c r="F123">
+        <v>0.8</v>
+      </c>
+      <c r="G123">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H123" t="s">
+        <v>15</v>
+      </c>
+      <c r="I123">
+        <v>32</v>
+      </c>
+      <c r="J123" t="s">
+        <v>28</v>
+      </c>
+      <c r="K123" t="s">
+        <v>82</v>
+      </c>
+      <c r="P123" s="7"/>
+      <c r="Q123" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1">
+        <v>44970</v>
+      </c>
+      <c r="C124" t="s">
+        <v>81</v>
+      </c>
+      <c r="D124" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E124">
+        <v>112</v>
+      </c>
+      <c r="F124">
+        <v>0.8</v>
+      </c>
+      <c r="G124">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H124" t="s">
+        <v>15</v>
+      </c>
+      <c r="I124">
+        <v>64</v>
+      </c>
+      <c r="J124" t="s">
+        <v>29</v>
+      </c>
+      <c r="K124" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q124" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1">
+        <v>44971</v>
+      </c>
+      <c r="C125" t="s">
+        <v>81</v>
+      </c>
+      <c r="D125" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E125">
+        <v>112</v>
+      </c>
+      <c r="F125">
+        <v>0.8</v>
+      </c>
+      <c r="G125">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H125" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125">
+        <v>8</v>
+      </c>
+      <c r="J125" t="s">
+        <v>30</v>
+      </c>
+      <c r="K125" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q125" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1">
+        <v>44972</v>
+      </c>
+      <c r="C126" t="s">
+        <v>81</v>
+      </c>
+      <c r="D126" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E126">
+        <v>112</v>
+      </c>
+      <c r="F126">
+        <v>0.8</v>
+      </c>
+      <c r="G126">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H126" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126">
+        <v>32</v>
+      </c>
+      <c r="J126" t="s">
+        <v>31</v>
+      </c>
+      <c r="K126" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q126" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1">
+        <v>44973</v>
+      </c>
+      <c r="C127" t="s">
+        <v>81</v>
+      </c>
+      <c r="D127" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E127">
+        <v>112</v>
+      </c>
+      <c r="F127">
+        <v>0.8</v>
+      </c>
+      <c r="G127">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H127" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127">
+        <v>64</v>
+      </c>
+      <c r="J127" t="s">
+        <v>32</v>
+      </c>
+      <c r="K127" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q127" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1">
+        <v>44974</v>
+      </c>
+      <c r="C128" t="s">
+        <v>81</v>
+      </c>
+      <c r="D128" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E128">
+        <v>112</v>
+      </c>
+      <c r="F128">
+        <v>0.9</v>
+      </c>
+      <c r="G128">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H128" t="s">
+        <v>15</v>
+      </c>
+      <c r="I128">
+        <v>8</v>
+      </c>
+      <c r="J128" t="s">
+        <v>33</v>
+      </c>
+      <c r="K128" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q128" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1">
+        <v>44975</v>
+      </c>
+      <c r="C129" t="s">
+        <v>81</v>
+      </c>
+      <c r="D129" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E129">
+        <v>112</v>
+      </c>
+      <c r="F129">
+        <v>0.9</v>
+      </c>
+      <c r="G129">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H129" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129">
+        <v>32</v>
+      </c>
+      <c r="J129" t="s">
+        <v>34</v>
+      </c>
+      <c r="K129" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q129" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1">
+        <v>44976</v>
+      </c>
+      <c r="C130" t="s">
+        <v>81</v>
+      </c>
+      <c r="D130" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E130">
+        <v>112</v>
+      </c>
+      <c r="F130">
+        <v>0.9</v>
+      </c>
+      <c r="G130">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H130" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130">
+        <v>64</v>
+      </c>
+      <c r="J130" t="s">
+        <v>35</v>
+      </c>
+      <c r="K130" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q130" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1">
+        <v>44977</v>
+      </c>
+      <c r="C131" t="s">
+        <v>81</v>
+      </c>
+      <c r="D131" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E131">
+        <v>112</v>
+      </c>
+      <c r="F131">
+        <v>0.9</v>
+      </c>
+      <c r="G131">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131">
+        <v>8</v>
+      </c>
+      <c r="J131" t="s">
+        <v>36</v>
+      </c>
+      <c r="K131" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q131" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1">
+        <v>44978</v>
+      </c>
+      <c r="C132" t="s">
+        <v>81</v>
+      </c>
+      <c r="D132" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E132">
+        <v>112</v>
+      </c>
+      <c r="F132">
+        <v>0.9</v>
+      </c>
+      <c r="G132">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H132" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132">
+        <v>32</v>
+      </c>
+      <c r="J132" t="s">
+        <v>37</v>
+      </c>
+      <c r="K132" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q132" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1">
+        <v>44979</v>
+      </c>
+      <c r="C133" t="s">
+        <v>81</v>
+      </c>
+      <c r="D133" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E133">
+        <v>112</v>
+      </c>
+      <c r="F133">
+        <v>0.9</v>
+      </c>
+      <c r="G133">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H133" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133">
+        <v>64</v>
+      </c>
+      <c r="J133" t="s">
+        <v>38</v>
+      </c>
+      <c r="K133" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q133" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1">
+        <v>44980</v>
+      </c>
+      <c r="C134" t="s">
+        <v>81</v>
+      </c>
+      <c r="D134" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E134">
+        <v>112</v>
+      </c>
+      <c r="F134">
+        <v>0.9</v>
+      </c>
+      <c r="G134">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H134" t="s">
+        <v>15</v>
+      </c>
+      <c r="I134">
+        <v>8</v>
+      </c>
+      <c r="J134" t="s">
+        <v>39</v>
+      </c>
+      <c r="K134" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q134" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1">
+        <v>44981</v>
+      </c>
+      <c r="C135" t="s">
+        <v>81</v>
+      </c>
+      <c r="D135" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E135">
+        <v>112</v>
+      </c>
+      <c r="F135">
+        <v>0.9</v>
+      </c>
+      <c r="G135">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H135" t="s">
+        <v>15</v>
+      </c>
+      <c r="I135">
+        <v>32</v>
+      </c>
+      <c r="J135" t="s">
+        <v>40</v>
+      </c>
+      <c r="K135" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q135" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1">
+        <v>44982</v>
+      </c>
+      <c r="C136" t="s">
+        <v>81</v>
+      </c>
+      <c r="D136" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E136">
+        <v>112</v>
+      </c>
+      <c r="F136">
+        <v>0.9</v>
+      </c>
+      <c r="G136">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H136" t="s">
+        <v>15</v>
+      </c>
+      <c r="I136">
+        <v>64</v>
+      </c>
+      <c r="J136" t="s">
+        <v>41</v>
+      </c>
+      <c r="K136" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q136" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1">
+        <v>44983</v>
+      </c>
+      <c r="C137" t="s">
+        <v>81</v>
+      </c>
+      <c r="D137" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E137">
+        <v>112</v>
+      </c>
+      <c r="F137">
+        <v>0.9</v>
+      </c>
+      <c r="G137">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H137" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137">
+        <v>8</v>
+      </c>
+      <c r="J137" t="s">
+        <v>42</v>
+      </c>
+      <c r="K137" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q137" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1">
+        <v>44984</v>
+      </c>
+      <c r="C138" t="s">
+        <v>81</v>
+      </c>
+      <c r="D138" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E138">
+        <v>112</v>
+      </c>
+      <c r="F138">
+        <v>0.9</v>
+      </c>
+      <c r="G138">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H138" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138">
+        <v>32</v>
+      </c>
+      <c r="J138" t="s">
+        <v>43</v>
+      </c>
+      <c r="K138" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q138" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1">
+        <v>44985</v>
+      </c>
+      <c r="C139" t="s">
+        <v>81</v>
+      </c>
+      <c r="D139" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E139">
+        <v>112</v>
+      </c>
+      <c r="F139">
+        <v>0.9</v>
+      </c>
+      <c r="G139">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H139" t="s">
+        <v>14</v>
+      </c>
+      <c r="I139">
+        <v>64</v>
+      </c>
+      <c r="J139" t="s">
+        <v>44</v>
+      </c>
+      <c r="K139" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q139" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C140" t="s">
+        <v>81</v>
+      </c>
+      <c r="D140" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E140">
+        <v>112</v>
+      </c>
+      <c r="F140">
+        <v>0.9</v>
+      </c>
+      <c r="G140">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H140" t="s">
+        <v>15</v>
+      </c>
+      <c r="I140">
+        <v>8</v>
+      </c>
+      <c r="J140" t="s">
+        <v>45</v>
+      </c>
+      <c r="K140" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q140" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1">
+        <v>44987</v>
+      </c>
+      <c r="C141" t="s">
+        <v>81</v>
+      </c>
+      <c r="D141" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E141">
+        <v>112</v>
+      </c>
+      <c r="F141">
+        <v>0.9</v>
+      </c>
+      <c r="G141">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H141" t="s">
+        <v>15</v>
+      </c>
+      <c r="I141">
+        <v>32</v>
+      </c>
+      <c r="J141" t="s">
+        <v>46</v>
+      </c>
+      <c r="K141" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q141" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1">
+        <v>44988</v>
+      </c>
+      <c r="C142" t="s">
+        <v>81</v>
+      </c>
+      <c r="D142" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E142">
+        <v>112</v>
+      </c>
+      <c r="F142">
+        <v>0.9</v>
+      </c>
+      <c r="G142">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H142" t="s">
+        <v>15</v>
+      </c>
+      <c r="I142">
+        <v>64</v>
+      </c>
+      <c r="J142" t="s">
+        <v>47</v>
+      </c>
+      <c r="K142" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q142" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1">
+        <v>44989</v>
+      </c>
+      <c r="C143" t="s">
+        <v>81</v>
+      </c>
+      <c r="D143" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E143">
+        <v>112</v>
+      </c>
+      <c r="F143">
+        <v>0.9</v>
+      </c>
+      <c r="G143">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H143" t="s">
+        <v>14</v>
+      </c>
+      <c r="I143">
+        <v>8</v>
+      </c>
+      <c r="J143" t="s">
+        <v>48</v>
+      </c>
+      <c r="K143" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q143" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1">
+        <v>44990</v>
+      </c>
+      <c r="C144" t="s">
+        <v>81</v>
+      </c>
+      <c r="D144" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E144">
+        <v>112</v>
+      </c>
+      <c r="F144">
+        <v>0.9</v>
+      </c>
+      <c r="G144">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H144" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144">
+        <v>32</v>
+      </c>
+      <c r="J144" t="s">
+        <v>49</v>
+      </c>
+      <c r="K144" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q144" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1">
+        <v>44991</v>
+      </c>
+      <c r="C145" t="s">
+        <v>81</v>
+      </c>
+      <c r="D145" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E145">
+        <v>112</v>
+      </c>
+      <c r="F145">
+        <v>0.9</v>
+      </c>
+      <c r="G145">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H145" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145">
+        <v>64</v>
+      </c>
+      <c r="J145" t="s">
+        <v>50</v>
+      </c>
+      <c r="K145" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q145" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1">
+        <v>44992</v>
+      </c>
+      <c r="C146" t="s">
+        <v>81</v>
+      </c>
+      <c r="D146" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E146">
+        <v>112</v>
+      </c>
+      <c r="F146">
+        <v>0.99</v>
+      </c>
+      <c r="G146">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H146" t="s">
+        <v>15</v>
+      </c>
+      <c r="I146">
+        <v>8</v>
+      </c>
+      <c r="J146" t="s">
+        <v>51</v>
+      </c>
+      <c r="K146" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q146" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1">
+        <v>44993</v>
+      </c>
+      <c r="C147" t="s">
+        <v>81</v>
+      </c>
+      <c r="D147" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E147">
+        <v>112</v>
+      </c>
+      <c r="F147">
+        <v>0.99</v>
+      </c>
+      <c r="G147">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H147" t="s">
+        <v>15</v>
+      </c>
+      <c r="I147">
+        <v>32</v>
+      </c>
+      <c r="J147" t="s">
+        <v>52</v>
+      </c>
+      <c r="K147" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q147" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1">
+        <v>44994</v>
+      </c>
+      <c r="C148" t="s">
+        <v>81</v>
+      </c>
+      <c r="D148" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E148">
+        <v>112</v>
+      </c>
+      <c r="F148">
+        <v>0.99</v>
+      </c>
+      <c r="G148">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H148" t="s">
+        <v>15</v>
+      </c>
+      <c r="I148">
+        <v>64</v>
+      </c>
+      <c r="J148" t="s">
+        <v>53</v>
+      </c>
+      <c r="K148" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q148" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1">
+        <v>44995</v>
+      </c>
+      <c r="C149" t="s">
+        <v>81</v>
+      </c>
+      <c r="D149" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E149">
+        <v>112</v>
+      </c>
+      <c r="F149">
+        <v>0.99</v>
+      </c>
+      <c r="G149">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H149" t="s">
+        <v>14</v>
+      </c>
+      <c r="I149">
+        <v>8</v>
+      </c>
+      <c r="J149" t="s">
+        <v>54</v>
+      </c>
+      <c r="K149" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q149" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C150" t="s">
+        <v>81</v>
+      </c>
+      <c r="D150" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E150">
+        <v>112</v>
+      </c>
+      <c r="F150">
+        <v>0.99</v>
+      </c>
+      <c r="G150">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H150" t="s">
+        <v>14</v>
+      </c>
+      <c r="I150">
+        <v>32</v>
+      </c>
+      <c r="J150" t="s">
+        <v>55</v>
+      </c>
+      <c r="K150" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q150" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1">
+        <v>44997</v>
+      </c>
+      <c r="C151" t="s">
+        <v>81</v>
+      </c>
+      <c r="D151" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E151">
+        <v>112</v>
+      </c>
+      <c r="F151">
+        <v>0.99</v>
+      </c>
+      <c r="G151">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H151" t="s">
+        <v>14</v>
+      </c>
+      <c r="I151">
+        <v>64</v>
+      </c>
+      <c r="J151" t="s">
+        <v>56</v>
+      </c>
+      <c r="K151" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q151" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1">
+        <v>44998</v>
+      </c>
+      <c r="C152" t="s">
+        <v>81</v>
+      </c>
+      <c r="D152" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E152">
+        <v>112</v>
+      </c>
+      <c r="F152">
+        <v>0.99</v>
+      </c>
+      <c r="G152">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H152" t="s">
+        <v>15</v>
+      </c>
+      <c r="I152">
+        <v>8</v>
+      </c>
+      <c r="J152" t="s">
+        <v>57</v>
+      </c>
+      <c r="K152" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q152" s="9" t="e">
+        <f t="shared" ref="Q152:Q163" si="4">O152/P152</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1">
+        <v>44999</v>
+      </c>
+      <c r="C153" t="s">
+        <v>81</v>
+      </c>
+      <c r="D153" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E153">
+        <v>112</v>
+      </c>
+      <c r="F153">
+        <v>0.99</v>
+      </c>
+      <c r="G153">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H153" t="s">
+        <v>15</v>
+      </c>
+      <c r="I153">
+        <v>32</v>
+      </c>
+      <c r="J153" t="s">
+        <v>58</v>
+      </c>
+      <c r="K153" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q153" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1">
+        <v>45000</v>
+      </c>
+      <c r="C154" t="s">
+        <v>81</v>
+      </c>
+      <c r="D154" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E154">
+        <v>112</v>
+      </c>
+      <c r="F154">
+        <v>0.99</v>
+      </c>
+      <c r="G154">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H154" t="s">
+        <v>15</v>
+      </c>
+      <c r="I154">
+        <v>64</v>
+      </c>
+      <c r="J154" t="s">
+        <v>59</v>
+      </c>
+      <c r="K154" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q154" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1">
+        <v>45001</v>
+      </c>
+      <c r="C155" t="s">
+        <v>81</v>
+      </c>
+      <c r="D155" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E155">
+        <v>112</v>
+      </c>
+      <c r="F155">
+        <v>0.99</v>
+      </c>
+      <c r="G155">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H155" t="s">
+        <v>14</v>
+      </c>
+      <c r="I155">
+        <v>8</v>
+      </c>
+      <c r="J155" t="s">
+        <v>60</v>
+      </c>
+      <c r="K155" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q155" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C156" t="s">
+        <v>81</v>
+      </c>
+      <c r="D156" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E156">
+        <v>112</v>
+      </c>
+      <c r="F156">
+        <v>0.99</v>
+      </c>
+      <c r="G156">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H156" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156">
+        <v>32</v>
+      </c>
+      <c r="J156" t="s">
+        <v>61</v>
+      </c>
+      <c r="K156" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q156" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1">
+        <v>45003</v>
+      </c>
+      <c r="C157" t="s">
+        <v>81</v>
+      </c>
+      <c r="D157" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E157">
+        <v>112</v>
+      </c>
+      <c r="F157">
+        <v>0.99</v>
+      </c>
+      <c r="G157">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H157" t="s">
+        <v>14</v>
+      </c>
+      <c r="I157">
+        <v>64</v>
+      </c>
+      <c r="J157" t="s">
+        <v>62</v>
+      </c>
+      <c r="K157" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q157" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1">
+        <v>45004</v>
+      </c>
+      <c r="C158" t="s">
+        <v>81</v>
+      </c>
+      <c r="D158" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E158">
+        <v>112</v>
+      </c>
+      <c r="F158">
+        <v>0.99</v>
+      </c>
+      <c r="G158">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H158" t="s">
+        <v>15</v>
+      </c>
+      <c r="I158">
+        <v>8</v>
+      </c>
+      <c r="J158" t="s">
+        <v>63</v>
+      </c>
+      <c r="K158" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q158" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1">
+        <v>45005</v>
+      </c>
+      <c r="C159" t="s">
+        <v>81</v>
+      </c>
+      <c r="D159" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E159">
+        <v>112</v>
+      </c>
+      <c r="F159">
+        <v>0.99</v>
+      </c>
+      <c r="G159">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H159" t="s">
+        <v>15</v>
+      </c>
+      <c r="I159">
+        <v>32</v>
+      </c>
+      <c r="J159" t="s">
+        <v>64</v>
+      </c>
+      <c r="K159" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q159" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1">
+        <v>45006</v>
+      </c>
+      <c r="C160" t="s">
+        <v>81</v>
+      </c>
+      <c r="D160" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E160">
+        <v>112</v>
+      </c>
+      <c r="F160">
+        <v>0.99</v>
+      </c>
+      <c r="G160">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H160" t="s">
+        <v>15</v>
+      </c>
+      <c r="I160">
+        <v>64</v>
+      </c>
+      <c r="J160" t="s">
+        <v>65</v>
+      </c>
+      <c r="K160" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q160" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1">
+        <v>45007</v>
+      </c>
+      <c r="C161" t="s">
+        <v>81</v>
+      </c>
+      <c r="D161" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E161">
+        <v>112</v>
+      </c>
+      <c r="F161">
+        <v>0.99</v>
+      </c>
+      <c r="G161">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H161" t="s">
+        <v>14</v>
+      </c>
+      <c r="I161">
+        <v>8</v>
+      </c>
+      <c r="J161" t="s">
+        <v>66</v>
+      </c>
+      <c r="K161" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q161" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1">
+        <v>45008</v>
+      </c>
+      <c r="C162" t="s">
+        <v>81</v>
+      </c>
+      <c r="D162" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E162">
+        <v>112</v>
+      </c>
+      <c r="F162">
+        <v>0.99</v>
+      </c>
+      <c r="G162">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H162" t="s">
+        <v>14</v>
+      </c>
+      <c r="I162">
+        <v>32</v>
+      </c>
+      <c r="J162" t="s">
+        <v>67</v>
+      </c>
+      <c r="K162" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q162" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1">
+        <v>45009</v>
+      </c>
+      <c r="C163" t="s">
+        <v>81</v>
+      </c>
+      <c r="D163" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E163">
+        <v>112</v>
+      </c>
+      <c r="F163">
+        <v>0.99</v>
+      </c>
+      <c r="G163">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H163" t="s">
+        <v>14</v>
+      </c>
+      <c r="I163">
+        <v>64</v>
+      </c>
+      <c r="J163" t="s">
+        <v>68</v>
+      </c>
+      <c r="K163" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q163" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1">
         <v>44944</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C164" t="s">
+        <v>77</v>
+      </c>
+      <c r="D164" t="s">
+        <v>76</v>
+      </c>
+      <c r="E164" t="s">
+        <v>76</v>
+      </c>
+      <c r="F164" t="s">
+        <v>76</v>
+      </c>
+      <c r="G164" t="s">
+        <v>76</v>
+      </c>
+      <c r="H164" t="s">
+        <v>76</v>
+      </c>
+      <c r="I164" t="s">
+        <v>76</v>
+      </c>
+      <c r="J164" t="s">
+        <v>78</v>
+      </c>
+      <c r="K164">
+        <v>5.92</v>
+      </c>
+      <c r="L164" s="7">
+        <v>0</v>
+      </c>
+      <c r="M164" s="7">
+        <v>114.34</v>
+      </c>
+      <c r="N164" s="7">
+        <v>0</v>
+      </c>
+      <c r="O164" s="7">
+        <v>317.37</v>
+      </c>
+      <c r="P164">
+        <v>2991.5</v>
+      </c>
+      <c r="Q164" s="9">
+        <f t="shared" si="3"/>
+        <v>0.10609059000501421</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1">
+        <v>44944</v>
+      </c>
+      <c r="C165" t="s">
         <v>75</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D165" t="s">
         <v>76</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E165" t="s">
         <v>76</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F165" t="s">
         <v>76</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G165" t="s">
         <v>76</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H165" t="s">
         <v>76</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I165" t="s">
         <v>76</v>
       </c>
-      <c r="J111" t="s">
+      <c r="J165" t="s">
         <v>79</v>
       </c>
-      <c r="K111">
+      <c r="K165">
         <v>1.65</v>
       </c>
-      <c r="L111">
+      <c r="L165" s="7">
         <v>6.57</v>
       </c>
-      <c r="M111">
+      <c r="M165" s="7">
         <v>156.97</v>
       </c>
-      <c r="N111" s="7">
+      <c r="N165" s="7">
         <v>6.63</v>
       </c>
-      <c r="O111" s="7">
+      <c r="O165" s="7">
         <v>1221.5</v>
       </c>
-      <c r="P111">
+      <c r="P165">
         <v>3010.1</v>
       </c>
-      <c r="Q111" s="9">
-        <f>O111/P111</f>
+      <c r="Q165" s="9">
+        <f t="shared" si="3"/>
         <v>0.40580047174512474</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R111">
-    <sortCondition ref="A1:A111"/>
+  <autoFilter ref="A1:R165" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R165">
+      <sortCondition ref="A1:A165"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R165">
+    <sortCondition ref="A1:A165"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K1:K1048576">

--- a/PxM_PPC_RL/CAIE/Rev1/visuals/Analysis.xlsx
+++ b/PxM_PPC_RL/CAIE/Rev1/visuals/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w_kevi02\sciebo\PhD\01 Prescriptive Maintenance\30 RQ3 - Digital Twin\PxM &amp; PPC (R)\RL-PxM\PxM_PPC_RL\CAIE\Rev1\visuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FFBBC6-18CD-42BF-91FF-E41DB9864A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49336A57-4256-4484-9CBF-5587CAA3920E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="PPO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PPO!$A$1:$R$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PPO!$A$1:$T$165</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -286,14 +286,14 @@
     <t>DQL</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Upper mean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +318,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -361,6 +368,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -642,11 +653,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R165"/>
+  <dimension ref="A1:T166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J166" sqref="J166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,10 +675,12 @@
     <col min="12" max="15" width="10.7109375" style="7" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="73.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -720,10 +733,16 @@
         <v>74</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -773,11 +792,18 @@
         <v>3006.8</v>
       </c>
       <c r="Q2" s="9">
-        <f t="shared" ref="Q2:Q33" si="0">O2/P2</f>
+        <f>O2/P2</f>
         <v>0.55060529466542496</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>2979</v>
+      </c>
+      <c r="S2" s="9">
+        <f>O2/R2</f>
+        <v>0.55574353810003352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -827,11 +853,18 @@
         <v>3025.3</v>
       </c>
       <c r="Q3" s="9">
-        <f t="shared" si="0"/>
+        <f>O3/P3</f>
         <v>0.52718738637490492</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>2979</v>
+      </c>
+      <c r="S3" s="9">
+        <f>O3/R3</f>
+        <v>0.53538100033568314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -881,11 +914,18 @@
         <v>3003.5</v>
       </c>
       <c r="Q4" s="9">
-        <f t="shared" si="0"/>
+        <f>O4/P4</f>
         <v>0.53217912435491932</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>2979</v>
+      </c>
+      <c r="S4" s="9">
+        <f>O4/R4</f>
+        <v>0.53655589123867076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -935,11 +975,18 @@
         <v>3018</v>
       </c>
       <c r="Q5" s="9">
-        <f t="shared" si="0"/>
+        <f>O5/P5</f>
         <v>0.51815440689198144</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>2979</v>
+      </c>
+      <c r="S5" s="9">
+        <f>O5/R5</f>
+        <v>0.52493789862369922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -989,11 +1036,18 @@
         <v>2993.4</v>
       </c>
       <c r="Q6" s="9">
-        <f t="shared" si="0"/>
+        <f>O6/P6</f>
         <v>0.55030400213803699</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>2979</v>
+      </c>
+      <c r="S6" s="9">
+        <f>O6/R6</f>
+        <v>0.55296408190668012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1043,11 +1097,18 @@
         <v>2987.3</v>
       </c>
       <c r="Q7" s="9">
-        <f t="shared" si="0"/>
+        <f>O7/P7</f>
         <v>0.53763599236768989</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>2979</v>
+      </c>
+      <c r="S7" s="9">
+        <f>O7/R7</f>
+        <v>0.53913393756294059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1097,11 +1158,18 @@
         <v>3003.1</v>
       </c>
       <c r="Q8" s="9">
-        <f t="shared" si="0"/>
+        <f>O8/P8</f>
         <v>0.48127601478472243</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>2979</v>
+      </c>
+      <c r="S8" s="9">
+        <f>O8/R8</f>
+        <v>0.48516951997314534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1151,11 +1219,18 @@
         <v>3005.8</v>
       </c>
       <c r="Q9" s="9">
-        <f t="shared" si="0"/>
+        <f>O9/P9</f>
         <v>0.53235411537693789</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>2979</v>
+      </c>
+      <c r="S9" s="9">
+        <f>O9/R9</f>
+        <v>0.53714333669016456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1205,11 +1280,18 @@
         <v>3011.8</v>
       </c>
       <c r="Q10" s="9">
-        <f t="shared" si="0"/>
+        <f>O10/P10</f>
         <v>0.53184142373331555</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>2979</v>
+      </c>
+      <c r="S10" s="9">
+        <f>O10/R10</f>
+        <v>0.53769721383014435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1259,11 +1341,18 @@
         <v>2983.9</v>
       </c>
       <c r="Q11" s="9">
-        <f t="shared" si="0"/>
+        <f>O11/P11</f>
         <v>0.51068065283689124</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>2979</v>
+      </c>
+      <c r="S11" s="9">
+        <f>O11/R11</f>
+        <v>0.51152064451158108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1313,11 +1402,18 @@
         <v>3005.3</v>
       </c>
       <c r="Q12" s="9">
-        <f t="shared" si="0"/>
+        <f>O12/P12</f>
         <v>0.53506804645126937</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>2979</v>
+      </c>
+      <c r="S12" s="9">
+        <f>O12/R12</f>
+        <v>0.5397918764686136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1367,11 +1463,18 @@
         <v>2982.8</v>
       </c>
       <c r="Q13" s="9">
-        <f t="shared" si="0"/>
+        <f>O13/P13</f>
         <v>0.52284430736220999</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>2979</v>
+      </c>
+      <c r="S13" s="9">
+        <f>O13/R13</f>
+        <v>0.52351124538435712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1421,11 +1524,18 @@
         <v>2985.4</v>
       </c>
       <c r="Q14" s="9">
-        <f t="shared" si="0"/>
+        <f>O14/P14</f>
         <v>0.2145776110403966</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>2979</v>
+      </c>
+      <c r="S14" s="9">
+        <f>O14/R14</f>
+        <v>0.21503860355824103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1475,11 +1585,18 @@
         <v>3000</v>
       </c>
       <c r="Q15" s="9">
-        <f t="shared" si="0"/>
+        <f>O15/P15</f>
         <v>0.12248666666666666</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>2979</v>
+      </c>
+      <c r="S15" s="9">
+        <f>O15/R15</f>
+        <v>0.12335011748909029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1529,11 +1646,18 @@
         <v>3027</v>
       </c>
       <c r="Q16" s="9">
-        <f t="shared" si="0"/>
+        <f>O16/P16</f>
         <v>-2.5989428477039975E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>2979</v>
+      </c>
+      <c r="S16" s="9">
+        <f>O16/R16</f>
+        <v>-2.6408190668009399E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1583,11 +1707,18 @@
         <v>3014</v>
       </c>
       <c r="Q17" s="9">
-        <f t="shared" si="0"/>
+        <f>O17/P17</f>
         <v>0.11439946914399469</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>2979</v>
+      </c>
+      <c r="S17" s="9">
+        <f>O17/R17</f>
+        <v>0.11574353810003357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1637,11 +1768,18 @@
         <v>3035.4</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" si="0"/>
+        <f>O18/P18</f>
         <v>0.1058246030177242</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>2979</v>
+      </c>
+      <c r="S18" s="9">
+        <f>O18/R18</f>
+        <v>0.10782813024504868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1691,11 +1829,18 @@
         <v>2987.4</v>
       </c>
       <c r="Q19" s="9">
-        <f t="shared" si="0"/>
+        <f>O19/P19</f>
         <v>0.12134966860815424</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>2979</v>
+      </c>
+      <c r="S19" s="9">
+        <f>O19/R19</f>
+        <v>0.12169184290030211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1745,11 +1890,18 @@
         <v>3045.6</v>
       </c>
       <c r="Q20" s="9">
-        <f t="shared" si="0"/>
+        <f>O20/P20</f>
         <v>0.55480693459416863</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <v>2979</v>
+      </c>
+      <c r="S20" s="9">
+        <f>O20/R20</f>
+        <v>0.56721047331319241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1799,11 +1951,18 @@
         <v>3007.7</v>
       </c>
       <c r="Q21" s="9">
-        <f t="shared" si="0"/>
+        <f>O21/P21</f>
         <v>0.55436379958107529</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>2979</v>
+      </c>
+      <c r="S21" s="9">
+        <f>O21/R21</f>
+        <v>0.5597045988586774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1853,39 +2012,46 @@
         <v>2986.4</v>
       </c>
       <c r="Q22" s="9">
-        <f t="shared" si="0"/>
+        <f>O22/P22</f>
         <v>0.55540450040182165</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="R22">
+        <v>2979</v>
+      </c>
+      <c r="S22" s="9">
+        <f>O22/R22</f>
+        <v>0.55678415575696549</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="11">
         <v>44944</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="5">
-        <v>500000</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="13">
+        <v>500000</v>
+      </c>
+      <c r="E23" s="12">
         <v>112</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="12">
         <v>0.9</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="12">
         <v>8</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="12" t="s">
         <v>36</v>
       </c>
       <c r="K23">
@@ -1907,11 +2073,18 @@
         <v>2979</v>
       </c>
       <c r="Q23" s="9">
-        <f t="shared" si="0"/>
+        <f>O23/P23</f>
         <v>0.56602886874790204</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <v>2979</v>
+      </c>
+      <c r="S23" s="9">
+        <f>O23/R23</f>
+        <v>0.56602886874790204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1961,11 +2134,18 @@
         <v>2986.2</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" si="0"/>
+        <f>O24/P24</f>
         <v>0.54206349206349214</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <v>2979</v>
+      </c>
+      <c r="S24" s="9">
+        <f>O24/R24</f>
+        <v>0.54337361530715012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2015,11 +2195,18 @@
         <v>3003.2</v>
       </c>
       <c r="Q25" s="9">
-        <f t="shared" si="0"/>
+        <f>O25/P25</f>
         <v>0.55255727224294093</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <v>2979</v>
+      </c>
+      <c r="S25" s="9">
+        <f>O25/R25</f>
+        <v>0.55704598858677412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2069,11 +2256,18 @@
         <v>2973.8</v>
       </c>
       <c r="Q26" s="9">
-        <f t="shared" si="0"/>
+        <f>O26/P26</f>
         <v>0.46116080435806039</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <v>2979</v>
+      </c>
+      <c r="S26" s="9">
+        <f>O26/R26</f>
+        <v>0.46035582410204767</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2123,11 +2317,18 @@
         <v>2962.2</v>
       </c>
       <c r="Q27" s="9">
-        <f t="shared" si="0"/>
+        <f>O27/P27</f>
         <v>0.55159678617243946</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>2979</v>
+      </c>
+      <c r="S27" s="9">
+        <f>O27/R27</f>
+        <v>0.54848606915072173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2177,11 +2378,18 @@
         <v>3009.5</v>
       </c>
       <c r="Q28" s="9">
-        <f t="shared" si="0"/>
+        <f>O28/P28</f>
         <v>0.52414686825054002</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <v>2979</v>
+      </c>
+      <c r="S28" s="9">
+        <f>O28/R28</f>
+        <v>0.52951325948304806</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2231,11 +2439,18 @@
         <v>3012</v>
       </c>
       <c r="Q29" s="9">
-        <f t="shared" si="0"/>
+        <f>O29/P29</f>
         <v>0.4639043824701195</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <v>2979</v>
+      </c>
+      <c r="S29" s="9">
+        <f>O29/R29</f>
+        <v>0.46904330312185294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2285,11 +2500,18 @@
         <v>2992.1</v>
       </c>
       <c r="Q30" s="9">
-        <f t="shared" si="0"/>
+        <f>O30/P30</f>
         <v>0.53204104140904385</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <v>2979</v>
+      </c>
+      <c r="S30" s="9">
+        <f>O30/R30</f>
+        <v>0.53438066465256795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2339,11 +2561,18 @@
         <v>2997.1</v>
       </c>
       <c r="Q31" s="9">
-        <f t="shared" si="0"/>
+        <f>O31/P31</f>
         <v>0.54045911047345763</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <v>2979</v>
+      </c>
+      <c r="S31" s="9">
+        <f>O31/R31</f>
+        <v>0.54374286673380323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2393,11 +2622,18 @@
         <v>2986.8</v>
       </c>
       <c r="Q32" s="9">
-        <f t="shared" si="0"/>
+        <f>O32/P32</f>
         <v>4.4318334002946297E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <v>2979</v>
+      </c>
+      <c r="S32" s="9">
+        <f>O32/R32</f>
+        <v>4.4434373950990265E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2447,11 +2683,18 @@
         <v>3008.8</v>
       </c>
       <c r="Q33" s="9">
-        <f t="shared" si="0"/>
+        <f>O33/P33</f>
         <v>0.25770739165115658</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <v>2979</v>
+      </c>
+      <c r="S33" s="9">
+        <f>O33/R33</f>
+        <v>0.26028533064786841</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2501,11 +2744,18 @@
         <v>2991.7</v>
       </c>
       <c r="Q34" s="9">
-        <f t="shared" ref="Q34:Q65" si="1">O34/P34</f>
+        <f>O34/P34</f>
         <v>0.15505231139485912</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <v>2979</v>
+      </c>
+      <c r="S34" s="9">
+        <f>O34/R34</f>
+        <v>0.15571332661967102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2555,11 +2805,18 @@
         <v>2983.9</v>
       </c>
       <c r="Q35" s="9">
-        <f t="shared" si="1"/>
+        <f>O35/P35</f>
         <v>0.11581822447132946</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <v>2979</v>
+      </c>
+      <c r="S35" s="9">
+        <f>O35/R35</f>
+        <v>0.11600872776099361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2609,11 +2866,18 @@
         <v>2997.9</v>
       </c>
       <c r="Q36" s="9">
-        <f t="shared" si="1"/>
+        <f>O36/P36</f>
         <v>0.10725841422328963</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <v>2979</v>
+      </c>
+      <c r="S36" s="9">
+        <f>O36/R36</f>
+        <v>0.10793890567304465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2663,11 +2927,18 @@
         <v>2998.9</v>
       </c>
       <c r="Q37" s="9">
-        <f t="shared" si="1"/>
+        <f>O37/P37</f>
         <v>0.11119410450498515</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <v>2979</v>
+      </c>
+      <c r="S37" s="9">
+        <f>O37/R37</f>
+        <v>0.1119368915743538</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2717,11 +2988,18 @@
         <v>2980.9</v>
       </c>
       <c r="Q38" s="9">
-        <f t="shared" si="1"/>
+        <f>O38/P38</f>
         <v>0.46119963769331407</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <v>2979</v>
+      </c>
+      <c r="S38" s="9">
+        <f>O38/R38</f>
+        <v>0.46149378986236989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2771,11 +3049,18 @@
         <v>2988.6</v>
       </c>
       <c r="Q39" s="9">
-        <f t="shared" si="1"/>
+        <f>O39/P39</f>
         <v>0.50184367262263263</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <v>2979</v>
+      </c>
+      <c r="S39" s="9">
+        <f>O39/R39</f>
+        <v>0.50346089291708629</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2825,11 +3110,18 @@
         <v>3000.8</v>
       </c>
       <c r="Q40" s="9">
-        <f t="shared" si="1"/>
+        <f>O40/P40</f>
         <v>0.53991268994934682</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <v>2979</v>
+      </c>
+      <c r="S40" s="9">
+        <f>O40/R40</f>
+        <v>0.54386371265525346</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2879,11 +3171,18 @@
         <v>3003.6</v>
       </c>
       <c r="Q41" s="9">
-        <f t="shared" si="1"/>
+        <f>O41/P41</f>
         <v>0.54907444400053274</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <v>2979</v>
+      </c>
+      <c r="S41" s="9">
+        <f>O41/R41</f>
+        <v>0.5536085934877476</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2933,11 +3232,18 @@
         <v>2990.9</v>
       </c>
       <c r="Q42" s="9">
-        <f t="shared" si="1"/>
+        <f>O42/P42</f>
         <v>0.54010164164632724</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <v>2979</v>
+      </c>
+      <c r="S42" s="9">
+        <f>O42/R42</f>
+        <v>0.54225914736488756</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2987,11 +3293,18 @@
         <v>3018.8</v>
       </c>
       <c r="Q43" s="9">
-        <f t="shared" si="1"/>
+        <f>O43/P43</f>
         <v>0.53010136478070757</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>2979</v>
+      </c>
+      <c r="S43" s="9">
+        <f>O43/R43</f>
+        <v>0.53718361866398123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3041,11 +3354,18 @@
         <v>3005.9</v>
       </c>
       <c r="Q44" s="9">
-        <f t="shared" si="1"/>
+        <f>O44/P44</f>
         <v>0.48590106124621574</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <v>2979</v>
+      </c>
+      <c r="S44" s="9">
+        <f>O44/R44</f>
+        <v>0.49028868747901977</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -3095,11 +3415,18 @@
         <v>2979.7</v>
       </c>
       <c r="Q45" s="9">
-        <f t="shared" si="1"/>
+        <f>O45/P45</f>
         <v>0.52700271839446922</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>2979</v>
+      </c>
+      <c r="S45" s="9">
+        <f>O45/R45</f>
+        <v>0.52712655253440754</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -3149,11 +3476,18 @@
         <v>2969.1</v>
       </c>
       <c r="Q46" s="9">
-        <f t="shared" si="1"/>
+        <f>O46/P46</f>
         <v>0.42055168232797824</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>2979</v>
+      </c>
+      <c r="S46" s="9">
+        <f>O46/R46</f>
+        <v>0.41915407854984899</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -3203,11 +3537,18 @@
         <v>3020</v>
       </c>
       <c r="Q47" s="9">
-        <f t="shared" si="1"/>
+        <f>O47/P47</f>
         <v>0.40741390728476823</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>2979</v>
+      </c>
+      <c r="S47" s="9">
+        <f>O47/R47</f>
+        <v>0.41302114803625378</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3257,11 +3598,18 @@
         <v>2962.2</v>
       </c>
       <c r="Q48" s="9">
-        <f t="shared" si="1"/>
+        <f>O48/P48</f>
         <v>0.36099183039632704</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>2979</v>
+      </c>
+      <c r="S48" s="9">
+        <f>O48/R48</f>
+        <v>0.35895602551191674</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -3311,11 +3659,18 @@
         <v>3006.6</v>
       </c>
       <c r="Q49" s="9">
-        <f t="shared" si="1"/>
+        <f>O49/P49</f>
         <v>0.2124725603671922</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>2979</v>
+      </c>
+      <c r="S49" s="9">
+        <f>O49/R49</f>
+        <v>0.21444108761329306</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -3365,11 +3720,18 @@
         <v>2986.4</v>
       </c>
       <c r="Q50" s="9">
-        <f t="shared" si="1"/>
+        <f>O50/P50</f>
         <v>0.27938655237074739</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>2979</v>
+      </c>
+      <c r="S50" s="9">
+        <f>O50/R50</f>
+        <v>0.28008056394763342</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -3419,11 +3781,18 @@
         <v>3017.3</v>
       </c>
       <c r="Q51" s="9">
-        <f t="shared" si="1"/>
+        <f>O51/P51</f>
         <v>0.34649189672886355</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>2979</v>
+      </c>
+      <c r="S51" s="9">
+        <f>O51/R51</f>
+        <v>0.35094662638469287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -3473,11 +3842,18 @@
         <v>2982.9</v>
       </c>
       <c r="Q52" s="9">
-        <f t="shared" si="1"/>
+        <f>O52/P52</f>
         <v>0.18478996949277549</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <v>2979</v>
+      </c>
+      <c r="S52" s="9">
+        <f>O52/R52</f>
+        <v>0.18503188989593825</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -3527,11 +3903,18 @@
         <v>3022.5</v>
       </c>
       <c r="Q53" s="9">
-        <f t="shared" si="1"/>
+        <f>O53/P53</f>
         <v>-9.15963606286187E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <v>2979</v>
+      </c>
+      <c r="S53" s="9">
+        <f>O53/R53</f>
+        <v>-9.2933870426317566E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -3581,11 +3964,18 @@
         <v>2992</v>
       </c>
       <c r="Q54" s="9">
-        <f t="shared" si="1"/>
+        <f>O54/P54</f>
         <v>-7.938502673796792E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <v>2979</v>
+      </c>
+      <c r="S54" s="9">
+        <f>O54/R54</f>
+        <v>-7.9731453507888558E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -3635,11 +4025,18 @@
         <v>3001.9</v>
       </c>
       <c r="Q55" s="9">
-        <f t="shared" si="1"/>
+        <f>O55/P55</f>
         <v>0.10705220027316033</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <v>2979</v>
+      </c>
+      <c r="S55" s="9">
+        <f>O55/R55</f>
+        <v>0.10787512588116818</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -3689,11 +4086,18 @@
         <v>3016</v>
       </c>
       <c r="Q56" s="9">
-        <f t="shared" si="1"/>
+        <f>O56/P56</f>
         <v>0.41102122015915121</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56">
+        <v>2979</v>
+      </c>
+      <c r="S56" s="9">
+        <f>O56/R56</f>
+        <v>0.41612621685129242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -3743,11 +4147,18 @@
         <v>2994.3</v>
       </c>
       <c r="Q57" s="9">
-        <f t="shared" si="1"/>
+        <f>O57/P57</f>
         <v>0.42885482416591519</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57">
+        <v>2979</v>
+      </c>
+      <c r="S57" s="9">
+        <f>O57/R57</f>
+        <v>0.43105740181268881</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -3797,11 +4208,18 @@
         <v>2983.5</v>
       </c>
       <c r="Q58" s="9">
-        <f t="shared" si="1"/>
+        <f>O58/P58</f>
         <v>0.52306686777275013</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <v>2979</v>
+      </c>
+      <c r="S58" s="9">
+        <f>O58/R58</f>
+        <v>0.52385699899295068</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -3851,11 +4269,18 @@
         <v>3009.3</v>
       </c>
       <c r="Q59" s="9">
-        <f t="shared" si="1"/>
+        <f>O59/P59</f>
         <v>0.3908649852125079</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59">
+        <v>2979</v>
+      </c>
+      <c r="S59" s="9">
+        <f>O59/R59</f>
+        <v>0.39484055052030881</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -3905,11 +4330,18 @@
         <v>3015.7</v>
       </c>
       <c r="Q60" s="9">
-        <f t="shared" si="1"/>
+        <f>O60/P60</f>
         <v>0.42995987664555502</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60">
+        <v>2979</v>
+      </c>
+      <c r="S60" s="9">
+        <f>O60/R60</f>
+        <v>0.43525679758308161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -3959,11 +4391,18 @@
         <v>3006.1</v>
       </c>
       <c r="Q61" s="9">
-        <f t="shared" si="1"/>
+        <f>O61/P61</f>
         <v>0.41002295332823258</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R61">
+        <v>2979</v>
+      </c>
+      <c r="S61" s="9">
+        <f>O61/R61</f>
+        <v>0.41375293722725742</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -4013,11 +4452,18 @@
         <v>2989</v>
       </c>
       <c r="Q62" s="9">
-        <f t="shared" si="1"/>
+        <f>O62/P62</f>
         <v>0.36661425225828032</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62">
+        <v>2979</v>
+      </c>
+      <c r="S62" s="9">
+        <f>O62/R62</f>
+        <v>0.36784491440080563</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -4067,11 +4513,18 @@
         <v>3006</v>
       </c>
       <c r="Q63" s="9">
-        <f t="shared" si="1"/>
+        <f>O63/P63</f>
         <v>0.36956753160345979</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63">
+        <v>2979</v>
+      </c>
+      <c r="S63" s="9">
+        <f>O63/R63</f>
+        <v>0.37291708627056064</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -4121,11 +4574,18 @@
         <v>3006.7</v>
       </c>
       <c r="Q64" s="9">
-        <f t="shared" si="1"/>
+        <f>O64/P64</f>
         <v>0.41422157182292885</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <v>2979</v>
+      </c>
+      <c r="S64" s="9">
+        <f>O64/R64</f>
+        <v>0.4180731789191004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -4175,11 +4635,18 @@
         <v>3017.8</v>
       </c>
       <c r="Q65" s="9">
-        <f t="shared" si="1"/>
+        <f>O65/P65</f>
         <v>6.0892040559347861E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R65">
+        <v>2979</v>
+      </c>
+      <c r="S65" s="9">
+        <f>O65/R65</f>
+        <v>6.1685129237999327E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -4229,11 +4696,18 @@
         <v>3003</v>
       </c>
       <c r="Q66" s="9">
-        <f t="shared" ref="Q66:Q97" si="2">O66/P66</f>
+        <f>O66/P66</f>
         <v>0.4174458874458874</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R66">
+        <v>2979</v>
+      </c>
+      <c r="S66" s="9">
+        <f>O66/R66</f>
+        <v>0.42080899630748569</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -4283,11 +4757,18 @@
         <v>3018.2</v>
       </c>
       <c r="Q67" s="9">
-        <f t="shared" si="2"/>
+        <f>O67/P67</f>
         <v>0.20760718308925852</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R67">
+        <v>2979</v>
+      </c>
+      <c r="S67" s="9">
+        <f>O67/R67</f>
+        <v>0.21033903994629072</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -4337,11 +4818,18 @@
         <v>2973.8</v>
       </c>
       <c r="Q68" s="9">
-        <f t="shared" si="2"/>
+        <f>O68/P68</f>
         <v>-4.3341852175667488E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R68">
+        <v>2979</v>
+      </c>
+      <c r="S68" s="9">
+        <f>O68/R68</f>
+        <v>-4.3266196710305467E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -4391,11 +4879,18 @@
         <v>2981.9</v>
       </c>
       <c r="Q69" s="9">
-        <f t="shared" si="2"/>
+        <f>O69/P69</f>
         <v>-6.0189811864918334E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R69">
+        <v>2979</v>
+      </c>
+      <c r="S69" s="9">
+        <f>O69/R69</f>
+        <v>-6.0248405505203086E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -4445,11 +4940,18 @@
         <v>3001.8</v>
       </c>
       <c r="Q70" s="9">
-        <f t="shared" si="2"/>
+        <f>O70/P70</f>
         <v>0.11298554200812846</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R70">
+        <v>2979</v>
+      </c>
+      <c r="S70" s="9">
+        <f>O70/R70</f>
+        <v>0.11385028533064788</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -4499,11 +5001,18 @@
         <v>2988</v>
       </c>
       <c r="Q71" s="9">
-        <f t="shared" si="2"/>
+        <f>O71/P71</f>
         <v>9.2429718875502012E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R71">
+        <v>2979</v>
+      </c>
+      <c r="S71" s="9">
+        <f>O71/R71</f>
+        <v>9.2708962739174228E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -4553,11 +5062,18 @@
         <v>2986.9</v>
       </c>
       <c r="Q72" s="9">
-        <f t="shared" si="2"/>
+        <f>O72/P72</f>
         <v>0.10770029127188724</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R72">
+        <v>2979</v>
+      </c>
+      <c r="S72" s="9">
+        <f>O72/R72</f>
+        <v>0.10798590130916415</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -4607,11 +5123,18 @@
         <v>3012.1</v>
       </c>
       <c r="Q73" s="9">
-        <f t="shared" si="2"/>
+        <f>O73/P73</f>
         <v>0.10994986886225558</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R73">
+        <v>2979</v>
+      </c>
+      <c r="S73" s="9">
+        <f>O73/R73</f>
+        <v>0.11117153407183619</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -4661,39 +5184,46 @@
         <v>2971.1</v>
       </c>
       <c r="Q74" s="9">
-        <f t="shared" si="2"/>
+        <f>O74/P74</f>
         <v>0.42356029753290031</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="R74">
+        <v>2979</v>
+      </c>
+      <c r="S74" s="9">
+        <f>O74/R74</f>
+        <v>0.42243705941591142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
         <v>74</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="11">
         <v>44949</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="5">
-        <v>500000</v>
-      </c>
-      <c r="E75">
+      <c r="D75" s="13">
+        <v>500000</v>
+      </c>
+      <c r="E75" s="12">
         <v>117</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="12">
         <v>0.9</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="12">
         <v>32</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75" s="12" t="s">
         <v>34</v>
       </c>
       <c r="K75">
@@ -4715,11 +5245,18 @@
         <v>3011.3</v>
       </c>
       <c r="Q75" s="9">
-        <f t="shared" si="2"/>
+        <f>O75/P75</f>
         <v>0.53690432703483537</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R75">
+        <v>2979</v>
+      </c>
+      <c r="S75" s="9">
+        <f>O75/R75</f>
+        <v>0.54272574689493114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -4769,11 +5306,18 @@
         <v>2977.9</v>
       </c>
       <c r="Q76" s="9">
-        <f t="shared" si="2"/>
+        <f>O76/P76</f>
         <v>0.47055643238523792</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R76">
+        <v>2979</v>
+      </c>
+      <c r="S76" s="9">
+        <f>O76/R76</f>
+        <v>0.47038267875125883</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -4823,11 +5367,18 @@
         <v>3027.6</v>
       </c>
       <c r="Q77" s="9">
-        <f t="shared" si="2"/>
+        <f>O77/P77</f>
         <v>0.48078676179151808</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R77">
+        <v>2979</v>
+      </c>
+      <c r="S77" s="9">
+        <f>O77/R77</f>
+        <v>0.48863041289023168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -4877,11 +5428,18 @@
         <v>3032.3</v>
       </c>
       <c r="Q78" s="9">
-        <f t="shared" si="2"/>
+        <f>O78/P78</f>
         <v>0.36423506908947001</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R78">
+        <v>2979</v>
+      </c>
+      <c r="S78" s="9">
+        <f>O78/R78</f>
+        <v>0.37075193017791208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -4931,11 +5489,18 @@
         <v>2991.1</v>
       </c>
       <c r="Q79" s="9">
-        <f t="shared" si="2"/>
+        <f>O79/P79</f>
         <v>0.3678880679348735</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R79">
+        <v>2979</v>
+      </c>
+      <c r="S79" s="9">
+        <f>O79/R79</f>
+        <v>0.36938234306814371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -4985,11 +5550,18 @@
         <v>3009.4</v>
       </c>
       <c r="Q80" s="9">
-        <f t="shared" si="2"/>
+        <f>O80/P80</f>
         <v>0.2785339270286436</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R80">
+        <v>2979</v>
+      </c>
+      <c r="S80" s="9">
+        <f>O80/R80</f>
+        <v>0.28137630077207115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -5039,11 +5611,18 @@
         <v>2989.6</v>
       </c>
       <c r="Q81" s="9">
-        <f t="shared" si="2"/>
+        <f>O81/P81</f>
         <v>0.34862188921594861</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R81">
+        <v>2979</v>
+      </c>
+      <c r="S81" s="9">
+        <f>O81/R81</f>
+        <v>0.3498623699227929</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -5093,11 +5672,18 @@
         <v>2983</v>
       </c>
       <c r="Q82" s="9">
-        <f t="shared" si="2"/>
+        <f>O82/P82</f>
         <v>0.36710023466309083</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R82">
+        <v>2979</v>
+      </c>
+      <c r="S82" s="9">
+        <f>O82/R82</f>
+        <v>0.36759315206445115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -5147,11 +5733,18 @@
         <v>3017.2</v>
       </c>
       <c r="Q83" s="9">
-        <f t="shared" si="2"/>
+        <f>O83/P83</f>
         <v>9.5615139864775295E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R83">
+        <v>2979</v>
+      </c>
+      <c r="S83" s="9">
+        <f>O83/R83</f>
+        <v>9.6841221886539111E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -5201,11 +5794,18 @@
         <v>2997.4</v>
       </c>
       <c r="Q84" s="9">
-        <f t="shared" si="2"/>
+        <f>O84/P84</f>
         <v>0.26659104557282981</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R84">
+        <v>2979</v>
+      </c>
+      <c r="S84" s="9">
+        <f>O84/R84</f>
+        <v>0.26823766364551865</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -5255,11 +5855,18 @@
         <v>2989.9</v>
       </c>
       <c r="Q85" s="9">
-        <f t="shared" si="2"/>
+        <f>O85/P85</f>
         <v>0.16969129402321148</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R85">
+        <v>2979</v>
+      </c>
+      <c r="S85" s="9">
+        <f>O85/R85</f>
+        <v>0.17031218529707956</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -5309,11 +5916,18 @@
         <v>2999.1</v>
       </c>
       <c r="Q86" s="9">
-        <f t="shared" si="2"/>
+        <f>O86/P86</f>
         <v>9.5281917908705951E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R86">
+        <v>2979</v>
+      </c>
+      <c r="S86" s="9">
+        <f>O86/R86</f>
+        <v>9.5924806982208788E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -5363,11 +5977,18 @@
         <v>2965.1</v>
       </c>
       <c r="Q87" s="9">
-        <f t="shared" si="2"/>
+        <f>O87/P87</f>
         <v>-9.6573471383764473E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R87">
+        <v>2979</v>
+      </c>
+      <c r="S87" s="9">
+        <f>O87/R87</f>
+        <v>-9.6122860020140991E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -5417,11 +6038,18 @@
         <v>2992.9</v>
       </c>
       <c r="Q88" s="9">
-        <f t="shared" si="2"/>
+        <f>O88/P88</f>
         <v>0.10835978482408366</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R88">
+        <v>2979</v>
+      </c>
+      <c r="S88" s="9">
+        <f>O88/R88</f>
+        <v>0.10886539107082914</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -5471,11 +6099,18 @@
         <v>2979.6</v>
       </c>
       <c r="Q89" s="9">
-        <f t="shared" si="2"/>
+        <f>O89/P89</f>
         <v>0.10342327829238825</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R89">
+        <v>2979</v>
+      </c>
+      <c r="S89" s="9">
+        <f>O89/R89</f>
+        <v>0.10344410876132931</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -5525,11 +6160,18 @@
         <v>3011.6</v>
       </c>
       <c r="Q90" s="9">
-        <f t="shared" si="2"/>
+        <f>O90/P90</f>
         <v>0.10407092575375217</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R90">
+        <v>2979</v>
+      </c>
+      <c r="S90" s="9">
+        <f>O90/R90</f>
+        <v>0.10520980194696207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -5579,11 +6221,18 @@
         <v>2988.9</v>
       </c>
       <c r="Q91" s="9">
-        <f t="shared" si="2"/>
+        <f>O91/P91</f>
         <v>0.10665127638930709</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R91">
+        <v>2979</v>
+      </c>
+      <c r="S91" s="9">
+        <f>O91/R91</f>
+        <v>0.10700570661295736</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -5633,11 +6282,18 @@
         <v>3016.1</v>
       </c>
       <c r="Q92" s="9">
-        <f t="shared" si="2"/>
+        <f>O92/P92</f>
         <v>1.3971685288949307E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R92">
+        <v>2979</v>
+      </c>
+      <c r="S92" s="9">
+        <f>O92/R92</f>
+        <v>1.414568647197046E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -5687,11 +6343,18 @@
         <v>3033</v>
       </c>
       <c r="Q93" s="9">
-        <f t="shared" si="2"/>
+        <f>O93/P93</f>
         <v>0.18597757995384109</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R93">
+        <v>2979</v>
+      </c>
+      <c r="S93" s="9">
+        <f>O93/R93</f>
+        <v>0.18934877475662976</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -5741,11 +6404,18 @@
         <v>3003</v>
       </c>
       <c r="Q94" s="9">
-        <f t="shared" si="2"/>
+        <f>O94/P94</f>
         <v>-3.5777555777555779E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R94">
+        <v>2979</v>
+      </c>
+      <c r="S94" s="9">
+        <f>O94/R94</f>
+        <v>-3.6065793890567306E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -5795,11 +6465,18 @@
         <v>3008.1</v>
       </c>
       <c r="Q95" s="9">
-        <f t="shared" si="2"/>
+        <f>O95/P95</f>
         <v>9.3500880954755491E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R95">
+        <v>2979</v>
+      </c>
+      <c r="S95" s="9">
+        <f>O95/R95</f>
+        <v>9.4414232964081898E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -5849,11 +6526,18 @@
         <v>2986.9</v>
       </c>
       <c r="Q96" s="9">
-        <f t="shared" si="2"/>
+        <f>O96/P96</f>
         <v>0.12022498242324819</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R96">
+        <v>2979</v>
+      </c>
+      <c r="S96" s="9">
+        <f>O96/R96</f>
+        <v>0.12054380664652568</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -5903,11 +6587,18 @@
         <v>2978.6</v>
       </c>
       <c r="Q97" s="9">
-        <f t="shared" si="2"/>
+        <f>O97/P97</f>
         <v>-6.1901564493386158E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R97">
+        <v>2979</v>
+      </c>
+      <c r="S97" s="9">
+        <f>O97/R97</f>
+        <v>-6.1893252769385697E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -5957,11 +6648,18 @@
         <v>3008.9</v>
       </c>
       <c r="Q98" s="9">
-        <f t="shared" ref="Q98:Q183" si="3">O98/P98</f>
+        <f>O98/P98</f>
         <v>-7.8443949616138792E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R98">
+        <v>2979</v>
+      </c>
+      <c r="S98" s="9">
+        <f>O98/R98</f>
+        <v>-7.9231285666330989E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -6011,11 +6709,18 @@
         <v>3039.8</v>
       </c>
       <c r="Q99" s="9">
-        <f t="shared" si="3"/>
+        <f>O99/P99</f>
         <v>0.30237515626028028</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R99">
+        <v>2979</v>
+      </c>
+      <c r="S99" s="9">
+        <f>O99/R99</f>
+        <v>0.3085464921114468</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -6065,11 +6770,18 @@
         <v>3024.5</v>
       </c>
       <c r="Q100" s="9">
-        <f t="shared" si="3"/>
+        <f>O100/P100</f>
         <v>9.7490494296577954E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R100">
+        <v>2979</v>
+      </c>
+      <c r="S100" s="9">
+        <f>O100/R100</f>
+        <v>9.8979523329976504E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -6119,11 +6831,18 @@
         <v>2992.1</v>
       </c>
       <c r="Q101" s="9">
-        <f t="shared" si="3"/>
+        <f>O101/P101</f>
         <v>-6.6698973964773908E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R101">
+        <v>2979</v>
+      </c>
+      <c r="S101" s="9">
+        <f>O101/R101</f>
+        <v>-6.6992279288351789E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -6173,11 +6892,18 @@
         <v>3021.7</v>
       </c>
       <c r="Q102" s="9">
-        <f t="shared" si="3"/>
+        <f>O102/P102</f>
         <v>0.10047655293377901</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R102">
+        <v>2979</v>
+      </c>
+      <c r="S102" s="9">
+        <f>O102/R102</f>
+        <v>0.10191675058744545</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -6227,11 +6953,18 @@
         <v>3020.2</v>
       </c>
       <c r="Q103" s="9">
-        <f t="shared" si="3"/>
+        <f>O103/P103</f>
         <v>8.9583471293291847E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R103">
+        <v>2979</v>
+      </c>
+      <c r="S103" s="9">
+        <f>O103/R103</f>
+        <v>9.0822423632091309E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -6281,11 +7014,18 @@
         <v>3007.2</v>
       </c>
       <c r="Q104" s="9">
-        <f t="shared" si="3"/>
+        <f>O104/P104</f>
         <v>-2.9562383612662946E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R104">
+        <v>2979</v>
+      </c>
+      <c r="S104" s="9">
+        <f>O104/R104</f>
+        <v>-2.9842228935884528E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -6335,11 +7075,18 @@
         <v>2997.1</v>
       </c>
       <c r="Q105" s="9">
-        <f t="shared" si="3"/>
+        <f>O105/P105</f>
         <v>-5.7405491975576393E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R105">
+        <v>2979</v>
+      </c>
+      <c r="S105" s="9">
+        <f>O105/R105</f>
+        <v>-5.7754279959718033E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -6389,11 +7136,18 @@
         <v>3013.6</v>
       </c>
       <c r="Q106" s="9">
-        <f t="shared" si="3"/>
+        <f>O106/P106</f>
         <v>0.10768847889567294</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R106">
+        <v>2979</v>
+      </c>
+      <c r="S106" s="9">
+        <f>O106/R106</f>
+        <v>0.10893924135615977</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -6443,11 +7197,18 @@
         <v>2997.5</v>
       </c>
       <c r="Q107" s="9">
-        <f t="shared" si="3"/>
+        <f>O107/P107</f>
         <v>7.7324437030859047E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R107">
+        <v>2979</v>
+      </c>
+      <c r="S107" s="9">
+        <f>O107/R107</f>
+        <v>7.7804632426988929E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -6497,11 +7258,18 @@
         <v>3019.4</v>
       </c>
       <c r="Q108" s="9">
-        <f t="shared" si="3"/>
+        <f>O108/P108</f>
         <v>9.7314035901172408E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R108">
+        <v>2979</v>
+      </c>
+      <c r="S108" s="9">
+        <f>O108/R108</f>
+        <v>9.8633769721383005E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -6551,11 +7319,18 @@
         <v>3016.1</v>
       </c>
       <c r="Q109" s="9">
-        <f t="shared" si="3"/>
+        <f>O109/P109</f>
         <v>-7.546168893604324E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R109">
+        <v>2979</v>
+      </c>
+      <c r="S109" s="9">
+        <f>O109/R109</f>
+        <v>-7.6401477005706622E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -6586,15 +7361,37 @@
       <c r="J110" t="s">
         <v>10</v>
       </c>
-      <c r="K110" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q110" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <v>2.82</v>
+      </c>
+      <c r="L110" s="7">
+        <v>3.55</v>
+      </c>
+      <c r="M110" s="7">
+        <v>172.69</v>
+      </c>
+      <c r="N110" s="7">
+        <v>3.04</v>
+      </c>
+      <c r="O110" s="7">
+        <v>1174.1199999999999</v>
+      </c>
+      <c r="P110">
+        <v>3017.1</v>
+      </c>
+      <c r="Q110" s="9">
+        <f>O110/P110</f>
+        <v>0.38915514898412379</v>
+      </c>
+      <c r="R110">
+        <v>2979</v>
+      </c>
+      <c r="S110" s="9">
+        <f>O110/R110</f>
+        <v>0.39413225914736483</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -6625,15 +7422,37 @@
       <c r="J111" t="s">
         <v>16</v>
       </c>
-      <c r="K111" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q111" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <v>3.08</v>
+      </c>
+      <c r="L111" s="7">
+        <v>3.05</v>
+      </c>
+      <c r="M111" s="7">
+        <v>150.62</v>
+      </c>
+      <c r="N111" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="O111" s="7">
+        <v>1149.6300000000001</v>
+      </c>
+      <c r="P111">
+        <v>2976.3</v>
+      </c>
+      <c r="Q111" s="9">
+        <f>O111/P111</f>
+        <v>0.38626146557806673</v>
+      </c>
+      <c r="R111">
+        <v>2979</v>
+      </c>
+      <c r="S111" s="9">
+        <f>O111/R111</f>
+        <v>0.38591137965760325</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -6664,15 +7483,37 @@
       <c r="J112" t="s">
         <v>17</v>
       </c>
-      <c r="K112" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q112" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K112">
+        <v>3.26</v>
+      </c>
+      <c r="L112" s="7">
+        <v>3</v>
+      </c>
+      <c r="M112" s="7">
+        <v>149.12</v>
+      </c>
+      <c r="N112" s="7">
+        <v>5.15</v>
+      </c>
+      <c r="O112" s="7">
+        <v>1109.8699999999999</v>
+      </c>
+      <c r="P112">
+        <v>2992.6</v>
+      </c>
+      <c r="Q112" s="9">
+        <f>O112/P112</f>
+        <v>0.37087148299137873</v>
+      </c>
+      <c r="R112">
+        <v>2979</v>
+      </c>
+      <c r="S112" s="9">
+        <f>O112/R112</f>
+        <v>0.37256461899966425</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -6703,15 +7544,37 @@
       <c r="J113" t="s">
         <v>18</v>
       </c>
-      <c r="K113" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q113" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <v>6.44</v>
+      </c>
+      <c r="L113" s="7">
+        <v>0</v>
+      </c>
+      <c r="M113" s="7">
+        <v>155.72999999999999</v>
+      </c>
+      <c r="N113" s="7">
+        <v>0</v>
+      </c>
+      <c r="O113" s="7">
+        <v>384.77</v>
+      </c>
+      <c r="P113">
+        <v>2977.6</v>
+      </c>
+      <c r="Q113" s="9">
+        <f>O113/P113</f>
+        <v>0.12922152068780227</v>
+      </c>
+      <c r="R113">
+        <v>2979</v>
+      </c>
+      <c r="S113" s="9">
+        <f>O113/R113</f>
+        <v>0.12916079221215171</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -6742,15 +7605,37 @@
       <c r="J114" t="s">
         <v>19</v>
       </c>
-      <c r="K114" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q114" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <v>2.76</v>
+      </c>
+      <c r="L114" s="7">
+        <v>3.77</v>
+      </c>
+      <c r="M114" s="7">
+        <v>181.84</v>
+      </c>
+      <c r="N114" s="7">
+        <v>6.55</v>
+      </c>
+      <c r="O114" s="7">
+        <v>1252.47</v>
+      </c>
+      <c r="P114">
+        <v>3003.7</v>
+      </c>
+      <c r="Q114" s="9">
+        <f>O114/P114</f>
+        <v>0.41697572993308257</v>
+      </c>
+      <c r="R114">
+        <v>2979</v>
+      </c>
+      <c r="S114" s="9">
+        <f>O114/R114</f>
+        <v>0.42043303121852971</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -6781,15 +7666,37 @@
       <c r="J115" t="s">
         <v>20</v>
       </c>
-      <c r="K115" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q115" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="L115" s="7">
+        <v>3.96</v>
+      </c>
+      <c r="M115" s="7">
+        <v>183.59</v>
+      </c>
+      <c r="N115" s="7">
+        <v>4.62</v>
+      </c>
+      <c r="O115" s="7">
+        <v>1348.66</v>
+      </c>
+      <c r="P115">
+        <v>2972.6</v>
+      </c>
+      <c r="Q115" s="9">
+        <f>O115/P115</f>
+        <v>0.45369710018165921</v>
+      </c>
+      <c r="R115">
+        <v>2979</v>
+      </c>
+      <c r="S115" s="9">
+        <f>O115/R115</f>
+        <v>0.45272239006377984</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -6820,15 +7727,37 @@
       <c r="J116" t="s">
         <v>21</v>
       </c>
-      <c r="K116" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q116" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <v>3.3</v>
+      </c>
+      <c r="L116" s="7">
+        <v>3.17</v>
+      </c>
+      <c r="M116" s="7">
+        <v>282.63</v>
+      </c>
+      <c r="N116" s="7">
+        <v>0</v>
+      </c>
+      <c r="O116" s="7">
+        <v>761.7</v>
+      </c>
+      <c r="P116">
+        <v>3029.9</v>
+      </c>
+      <c r="Q116" s="9">
+        <f>O116/P116</f>
+        <v>0.25139443545991619</v>
+      </c>
+      <c r="R116">
+        <v>2979</v>
+      </c>
+      <c r="S116" s="9">
+        <f>O116/R116</f>
+        <v>0.25568982880161129</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -6859,15 +7788,37 @@
       <c r="J117" t="s">
         <v>22</v>
       </c>
-      <c r="K117" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q117" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <v>3.46</v>
+      </c>
+      <c r="L117" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="M117" s="7">
+        <v>214.73</v>
+      </c>
+      <c r="N117" s="7">
+        <v>4.63</v>
+      </c>
+      <c r="O117" s="7">
+        <v>905.97</v>
+      </c>
+      <c r="P117">
+        <v>2997.8</v>
+      </c>
+      <c r="Q117" s="9">
+        <f>O117/P117</f>
+        <v>0.30221162185602773</v>
+      </c>
+      <c r="R117">
+        <v>2979</v>
+      </c>
+      <c r="S117" s="9">
+        <f>O117/R117</f>
+        <v>0.30411883182275934</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -6898,15 +7849,37 @@
       <c r="J118" t="s">
         <v>23</v>
       </c>
-      <c r="K118" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q118" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K118">
+        <v>3.36</v>
+      </c>
+      <c r="L118" s="7">
+        <v>2.94</v>
+      </c>
+      <c r="M118" s="7">
+        <v>174.57</v>
+      </c>
+      <c r="N118" s="7">
+        <v>4.18</v>
+      </c>
+      <c r="O118" s="7">
+        <v>1008.15</v>
+      </c>
+      <c r="P118">
+        <v>2990.9</v>
+      </c>
+      <c r="Q118" s="9">
+        <f>O118/P118</f>
+        <v>0.33707245310776018</v>
+      </c>
+      <c r="R118">
+        <v>2979</v>
+      </c>
+      <c r="S118" s="9">
+        <f>O118/R118</f>
+        <v>0.33841893252769384</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -6937,15 +7910,37 @@
       <c r="J119" t="s">
         <v>24</v>
       </c>
-      <c r="K119" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q119" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K119">
+        <v>6.65</v>
+      </c>
+      <c r="L119" s="7">
+        <v>0</v>
+      </c>
+      <c r="M119" s="7">
+        <v>262.62</v>
+      </c>
+      <c r="N119" s="7">
+        <v>0</v>
+      </c>
+      <c r="O119" s="7">
+        <v>286.47000000000003</v>
+      </c>
+      <c r="P119">
+        <v>2976.8</v>
+      </c>
+      <c r="Q119" s="9">
+        <f>O119/P119</f>
+        <v>9.6234211233539368E-2</v>
+      </c>
+      <c r="R119">
+        <v>2979</v>
+      </c>
+      <c r="S119" s="9">
+        <f>O119/R119</f>
+        <v>9.6163141993957715E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -6976,15 +7971,37 @@
       <c r="J120" t="s">
         <v>25</v>
       </c>
-      <c r="K120" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q120" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K120">
+        <v>6.29</v>
+      </c>
+      <c r="L120" s="7">
+        <v>0</v>
+      </c>
+      <c r="M120" s="7">
+        <v>149.31</v>
+      </c>
+      <c r="N120" s="7">
+        <v>0</v>
+      </c>
+      <c r="O120" s="7">
+        <v>406.06</v>
+      </c>
+      <c r="P120">
+        <v>2988.5</v>
+      </c>
+      <c r="Q120" s="9">
+        <f>O120/P120</f>
+        <v>0.13587418437343149</v>
+      </c>
+      <c r="R120">
+        <v>2979</v>
+      </c>
+      <c r="S120" s="9">
+        <f>O120/R120</f>
+        <v>0.1363074857334676</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -7015,15 +8032,37 @@
       <c r="J121" t="s">
         <v>26</v>
       </c>
-      <c r="K121" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q121" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K121">
+        <v>4.99</v>
+      </c>
+      <c r="L121" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M121" s="7">
+        <v>133.19</v>
+      </c>
+      <c r="N121" s="7">
+        <v>0</v>
+      </c>
+      <c r="O121" s="7">
+        <v>565.41999999999996</v>
+      </c>
+      <c r="P121">
+        <v>3005.3</v>
+      </c>
+      <c r="Q121" s="9">
+        <f>O121/P121</f>
+        <v>0.18814095098659034</v>
+      </c>
+      <c r="R121">
+        <v>2979</v>
+      </c>
+      <c r="S121" s="9">
+        <f>O121/R121</f>
+        <v>0.18980194696206779</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -7054,15 +8093,37 @@
       <c r="J122" t="s">
         <v>27</v>
       </c>
-      <c r="K122" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q122" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K122">
+        <v>5.61</v>
+      </c>
+      <c r="L122" s="7">
+        <v>1.73</v>
+      </c>
+      <c r="M122" s="7">
+        <v>385.54</v>
+      </c>
+      <c r="N122" s="7">
+        <v>2.67</v>
+      </c>
+      <c r="O122" s="7">
+        <v>80.61</v>
+      </c>
+      <c r="P122">
+        <v>2954</v>
+      </c>
+      <c r="Q122" s="9">
+        <f>O122/P122</f>
+        <v>2.7288422477995938E-2</v>
+      </c>
+      <c r="R122">
+        <v>2979</v>
+      </c>
+      <c r="S122" s="9">
+        <f>O122/R122</f>
+        <v>2.7059415911379659E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -7093,16 +8154,37 @@
       <c r="J123" t="s">
         <v>28</v>
       </c>
-      <c r="K123" t="s">
-        <v>82</v>
-      </c>
-      <c r="P123" s="7"/>
-      <c r="Q123" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K123">
+        <v>5.87</v>
+      </c>
+      <c r="L123" s="7">
+        <v>0</v>
+      </c>
+      <c r="M123" s="7">
+        <v>124.98</v>
+      </c>
+      <c r="N123" s="7">
+        <v>0</v>
+      </c>
+      <c r="O123" s="7">
+        <v>362.65</v>
+      </c>
+      <c r="P123" s="7">
+        <v>2975</v>
+      </c>
+      <c r="Q123" s="9">
+        <f>O123/P123</f>
+        <v>0.12189915966386554</v>
+      </c>
+      <c r="R123">
+        <v>2979</v>
+      </c>
+      <c r="S123" s="9">
+        <f>O123/R123</f>
+        <v>0.12173548170527022</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -7133,15 +8215,37 @@
       <c r="J124" t="s">
         <v>29</v>
       </c>
-      <c r="K124" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q124" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K124">
+        <v>4.05</v>
+      </c>
+      <c r="L124" s="7">
+        <v>3.16</v>
+      </c>
+      <c r="M124" s="7">
+        <v>214.13</v>
+      </c>
+      <c r="N124" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="O124" s="7">
+        <v>445.75</v>
+      </c>
+      <c r="P124">
+        <v>3013.8</v>
+      </c>
+      <c r="Q124" s="9">
+        <f>O124/P124</f>
+        <v>0.1479029796270489</v>
+      </c>
+      <c r="R124">
+        <v>2979</v>
+      </c>
+      <c r="S124" s="9">
+        <f>O124/R124</f>
+        <v>0.14963074857334677</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -7172,15 +8276,37 @@
       <c r="J125" t="s">
         <v>30</v>
       </c>
-      <c r="K125" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q125" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K125">
+        <v>6.78</v>
+      </c>
+      <c r="L125" s="7">
+        <v>0</v>
+      </c>
+      <c r="M125" s="7">
+        <v>338.03</v>
+      </c>
+      <c r="N125" s="7">
+        <v>0</v>
+      </c>
+      <c r="O125" s="7">
+        <v>76.040000000000006</v>
+      </c>
+      <c r="P125">
+        <v>3002.4</v>
+      </c>
+      <c r="Q125" s="9">
+        <f>O125/P125</f>
+        <v>2.5326405542232883E-2</v>
+      </c>
+      <c r="R125">
+        <v>2979</v>
+      </c>
+      <c r="S125" s="9">
+        <f>O125/R125</f>
+        <v>2.552534407519302E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -7211,15 +8337,37 @@
       <c r="J126" t="s">
         <v>31</v>
       </c>
-      <c r="K126" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q126" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K126">
+        <v>6.66</v>
+      </c>
+      <c r="L126" s="7">
+        <v>0</v>
+      </c>
+      <c r="M126" s="7">
+        <v>291.38</v>
+      </c>
+      <c r="N126" s="7">
+        <v>0</v>
+      </c>
+      <c r="O126" s="7">
+        <v>250.76</v>
+      </c>
+      <c r="P126">
+        <v>3007</v>
+      </c>
+      <c r="Q126" s="9">
+        <f>O126/P126</f>
+        <v>8.3392085134685726E-2</v>
+      </c>
+      <c r="R126">
+        <v>2979</v>
+      </c>
+      <c r="S126" s="9">
+        <f>O126/R126</f>
+        <v>8.417589795233299E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -7250,15 +8398,37 @@
       <c r="J127" t="s">
         <v>32</v>
       </c>
-      <c r="K127" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q127" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K127">
+        <v>6.71</v>
+      </c>
+      <c r="L127" s="7">
+        <v>0</v>
+      </c>
+      <c r="M127" s="7">
+        <v>264.58999999999997</v>
+      </c>
+      <c r="N127" s="7">
+        <v>0</v>
+      </c>
+      <c r="O127" s="7">
+        <v>274.14999999999998</v>
+      </c>
+      <c r="P127">
+        <v>2993.1</v>
+      </c>
+      <c r="Q127" s="9">
+        <f>O127/P127</f>
+        <v>9.1593999532257525E-2</v>
+      </c>
+      <c r="R127">
+        <v>2979</v>
+      </c>
+      <c r="S127" s="9">
+        <f>O127/R127</f>
+        <v>9.202752601544141E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -7289,15 +8459,37 @@
       <c r="J128" t="s">
         <v>33</v>
       </c>
-      <c r="K128" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q128" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K128">
+        <v>2.1</v>
+      </c>
+      <c r="L128" s="7">
+        <v>4.59</v>
+      </c>
+      <c r="M128" s="7">
+        <v>158.46</v>
+      </c>
+      <c r="N128" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="O128" s="7">
+        <v>1310.46</v>
+      </c>
+      <c r="P128">
+        <v>3004.2</v>
+      </c>
+      <c r="Q128" s="9">
+        <f>O128/P128</f>
+        <v>0.43620930697024168</v>
+      </c>
+      <c r="R128">
+        <v>2979</v>
+      </c>
+      <c r="S128" s="9">
+        <f>O128/R128</f>
+        <v>0.43989929506545822</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -7328,15 +8520,37 @@
       <c r="J129" t="s">
         <v>34</v>
       </c>
-      <c r="K129" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q129" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K129">
+        <v>3.41</v>
+      </c>
+      <c r="L129" s="7">
+        <v>3.83</v>
+      </c>
+      <c r="M129" s="7">
+        <v>158.83000000000001</v>
+      </c>
+      <c r="N129" s="7">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="O129" s="7">
+        <v>999.56</v>
+      </c>
+      <c r="P129">
+        <v>3029.5</v>
+      </c>
+      <c r="Q129" s="9">
+        <f>O129/P129</f>
+        <v>0.32994223469219341</v>
+      </c>
+      <c r="R129">
+        <v>2979</v>
+      </c>
+      <c r="S129" s="9">
+        <f>O129/R129</f>
+        <v>0.33553541456864716</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -7367,15 +8581,37 @@
       <c r="J130" t="s">
         <v>35</v>
       </c>
-      <c r="K130" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q130" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K130">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L130" s="7">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="M130" s="7">
+        <v>153.88999999999999</v>
+      </c>
+      <c r="N130" s="7">
+        <v>10.84</v>
+      </c>
+      <c r="O130" s="7">
+        <v>1339.33</v>
+      </c>
+      <c r="P130">
+        <v>3005.4</v>
+      </c>
+      <c r="Q130" s="9">
+        <f>O130/P130</f>
+        <v>0.44564117921075391</v>
+      </c>
+      <c r="R130">
+        <v>2979</v>
+      </c>
+      <c r="S130" s="9">
+        <f>O130/R130</f>
+        <v>0.44959046659953</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -7406,15 +8642,37 @@
       <c r="J131" t="s">
         <v>36</v>
       </c>
-      <c r="K131" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q131" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K131">
+        <v>6.36</v>
+      </c>
+      <c r="L131" s="7">
+        <v>0</v>
+      </c>
+      <c r="M131" s="7">
+        <v>160.80000000000001</v>
+      </c>
+      <c r="N131" s="7">
+        <v>0</v>
+      </c>
+      <c r="O131" s="7">
+        <v>401.37</v>
+      </c>
+      <c r="P131">
+        <v>3006.9</v>
+      </c>
+      <c r="Q131" s="9">
+        <f>O131/P131</f>
+        <v>0.13348298912501247</v>
+      </c>
+      <c r="R131">
+        <v>2979</v>
+      </c>
+      <c r="S131" s="9">
+        <f>O131/R131</f>
+        <v>0.13473313192346426</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -7445,15 +8703,37 @@
       <c r="J132" t="s">
         <v>37</v>
       </c>
-      <c r="K132" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q132" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K132">
+        <v>1.51</v>
+      </c>
+      <c r="L132" s="7">
+        <v>5.63</v>
+      </c>
+      <c r="M132" s="7">
+        <v>188.44</v>
+      </c>
+      <c r="N132" s="7">
+        <v>10.15</v>
+      </c>
+      <c r="O132" s="7">
+        <v>1568.9</v>
+      </c>
+      <c r="P132">
+        <v>2990</v>
+      </c>
+      <c r="Q132" s="9">
+        <f>O132/P132</f>
+        <v>0.52471571906354519</v>
+      </c>
+      <c r="R132">
+        <v>2979</v>
+      </c>
+      <c r="S132" s="9">
+        <f>O132/R132</f>
+        <v>0.5266532393420611</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -7484,15 +8764,37 @@
       <c r="J133" t="s">
         <v>38</v>
       </c>
-      <c r="K133" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q133" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K133">
+        <v>1.73</v>
+      </c>
+      <c r="L133" s="7">
+        <v>5.32</v>
+      </c>
+      <c r="M133" s="7">
+        <v>254.94</v>
+      </c>
+      <c r="N133" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="O133" s="7">
+        <v>1529.85</v>
+      </c>
+      <c r="P133">
+        <v>3010.3</v>
+      </c>
+      <c r="Q133" s="9">
+        <f>O133/P133</f>
+        <v>0.50820516227618506</v>
+      </c>
+      <c r="R133">
+        <v>2979</v>
+      </c>
+      <c r="S133" s="9">
+        <f>O133/R133</f>
+        <v>0.51354481369587102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -7523,15 +8825,37 @@
       <c r="J134" t="s">
         <v>39</v>
       </c>
-      <c r="K134" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q134" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K134">
+        <v>3.79</v>
+      </c>
+      <c r="L134" s="7">
+        <v>2.99</v>
+      </c>
+      <c r="M134" s="7">
+        <v>459.66</v>
+      </c>
+      <c r="N134" s="7">
+        <v>0</v>
+      </c>
+      <c r="O134" s="7">
+        <v>528.47</v>
+      </c>
+      <c r="P134">
+        <v>2972.2</v>
+      </c>
+      <c r="Q134" s="9">
+        <f>O134/P134</f>
+        <v>0.17780432003229932</v>
+      </c>
+      <c r="R134">
+        <v>2979</v>
+      </c>
+      <c r="S134" s="9">
+        <f>O134/R134</f>
+        <v>0.17739845585767036</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -7562,15 +8886,37 @@
       <c r="J135" t="s">
         <v>40</v>
       </c>
-      <c r="K135" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q135" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K135">
+        <v>3.51</v>
+      </c>
+      <c r="L135" s="7">
+        <v>3.28</v>
+      </c>
+      <c r="M135" s="7">
+        <v>317.10000000000002</v>
+      </c>
+      <c r="N135" s="7">
+        <v>0</v>
+      </c>
+      <c r="O135" s="7">
+        <v>747.46</v>
+      </c>
+      <c r="P135">
+        <v>2985.2</v>
+      </c>
+      <c r="Q135" s="9">
+        <f>O135/P135</f>
+        <v>0.25038858367948547</v>
+      </c>
+      <c r="R135">
+        <v>2979</v>
+      </c>
+      <c r="S135" s="9">
+        <f>O135/R135</f>
+        <v>0.25090970124202755</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -7601,15 +8947,37 @@
       <c r="J136" t="s">
         <v>41</v>
       </c>
-      <c r="K136" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q136" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K136">
+        <v>2.9</v>
+      </c>
+      <c r="L136" s="7">
+        <v>3.69</v>
+      </c>
+      <c r="M136" s="7">
+        <v>161.03</v>
+      </c>
+      <c r="N136" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="O136" s="7">
+        <v>994.05</v>
+      </c>
+      <c r="P136">
+        <v>2997.8</v>
+      </c>
+      <c r="Q136" s="9">
+        <f>O136/P136</f>
+        <v>0.33159316832343716</v>
+      </c>
+      <c r="R136">
+        <v>2979</v>
+      </c>
+      <c r="S136" s="9">
+        <f>O136/R136</f>
+        <v>0.33368580060422959</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -7640,15 +9008,37 @@
       <c r="J137" t="s">
         <v>42</v>
       </c>
-      <c r="K137" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q137" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K137">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L137" s="7">
+        <v>3.37</v>
+      </c>
+      <c r="M137" s="7">
+        <v>476.98</v>
+      </c>
+      <c r="N137" s="7">
+        <v>0</v>
+      </c>
+      <c r="O137" s="7">
+        <v>335.39</v>
+      </c>
+      <c r="P137">
+        <v>2998.6</v>
+      </c>
+      <c r="Q137" s="9">
+        <f>O137/P137</f>
+        <v>0.11184886280264122</v>
+      </c>
+      <c r="R137">
+        <v>2979</v>
+      </c>
+      <c r="S137" s="9">
+        <f>O137/R137</f>
+        <v>0.11258475998657268</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -7679,15 +9069,37 @@
       <c r="J138" t="s">
         <v>43</v>
       </c>
-      <c r="K138" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q138" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K138">
+        <v>6.11</v>
+      </c>
+      <c r="L138" s="7">
+        <v>0</v>
+      </c>
+      <c r="M138" s="7">
+        <v>121.5</v>
+      </c>
+      <c r="N138" s="7">
+        <v>0</v>
+      </c>
+      <c r="O138" s="7">
+        <v>354.85</v>
+      </c>
+      <c r="P138">
+        <v>3010.6</v>
+      </c>
+      <c r="Q138" s="9">
+        <f>O138/P138</f>
+        <v>0.11786687039128414</v>
+      </c>
+      <c r="R138">
+        <v>2979</v>
+      </c>
+      <c r="S138" s="9">
+        <f>O138/R138</f>
+        <v>0.11911715340718362</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -7718,15 +9130,37 @@
       <c r="J139" t="s">
         <v>44</v>
       </c>
-      <c r="K139" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q139" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K139">
+        <v>3.37</v>
+      </c>
+      <c r="L139" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="M139" s="7">
+        <v>146.63999999999999</v>
+      </c>
+      <c r="N139" s="7">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="O139" s="7">
+        <v>815.01</v>
+      </c>
+      <c r="P139">
+        <v>2982.2</v>
+      </c>
+      <c r="Q139" s="9">
+        <f>O139/P139</f>
+        <v>0.27329152974314264</v>
+      </c>
+      <c r="R139">
+        <v>2979</v>
+      </c>
+      <c r="S139" s="9">
+        <f>O139/R139</f>
+        <v>0.27358509566968781</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -7757,15 +9191,37 @@
       <c r="J140" t="s">
         <v>45</v>
       </c>
-      <c r="K140" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q140" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K140">
+        <v>6.19</v>
+      </c>
+      <c r="L140" s="7">
+        <v>0</v>
+      </c>
+      <c r="M140" s="7">
+        <v>141.54</v>
+      </c>
+      <c r="N140" s="7">
+        <v>0</v>
+      </c>
+      <c r="O140" s="7">
+        <v>367.81</v>
+      </c>
+      <c r="P140">
+        <v>3034.9</v>
+      </c>
+      <c r="Q140" s="9">
+        <f>O140/P140</f>
+        <v>0.12119344953705229</v>
+      </c>
+      <c r="R140">
+        <v>2979</v>
+      </c>
+      <c r="S140" s="9">
+        <f>O140/R140</f>
+        <v>0.12346760657938906</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -7796,15 +9252,37 @@
       <c r="J141" t="s">
         <v>46</v>
       </c>
-      <c r="K141" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q141" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K141">
+        <v>6.38</v>
+      </c>
+      <c r="L141" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="M141" s="7">
+        <v>334.7</v>
+      </c>
+      <c r="N141" s="7">
+        <v>0</v>
+      </c>
+      <c r="O141" s="7">
+        <v>135.86000000000001</v>
+      </c>
+      <c r="P141">
+        <v>2998.7</v>
+      </c>
+      <c r="Q141" s="9">
+        <f>O141/P141</f>
+        <v>4.5306299396405118E-2</v>
+      </c>
+      <c r="R141">
+        <v>2979</v>
+      </c>
+      <c r="S141" s="9">
+        <f>O141/R141</f>
+        <v>4.5605908022826457E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -7835,15 +9313,37 @@
       <c r="J142" t="s">
         <v>47</v>
       </c>
-      <c r="K142" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q142" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K142">
+        <v>2.91</v>
+      </c>
+      <c r="L142" s="7">
+        <v>3.58</v>
+      </c>
+      <c r="M142" s="7">
+        <v>300.02</v>
+      </c>
+      <c r="N142" s="7">
+        <v>0</v>
+      </c>
+      <c r="O142" s="7">
+        <v>731.1</v>
+      </c>
+      <c r="P142">
+        <v>2996.2</v>
+      </c>
+      <c r="Q142" s="9">
+        <f>O142/P142</f>
+        <v>0.24400907816567655</v>
+      </c>
+      <c r="R142">
+        <v>2979</v>
+      </c>
+      <c r="S142" s="9">
+        <f>O142/R142</f>
+        <v>0.24541792547834845</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -7874,15 +9374,37 @@
       <c r="J143" t="s">
         <v>48</v>
       </c>
-      <c r="K143" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q143" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K143">
+        <v>6.17</v>
+      </c>
+      <c r="L143" s="7">
+        <v>0</v>
+      </c>
+      <c r="M143" s="7">
+        <v>144.6</v>
+      </c>
+      <c r="N143" s="7">
+        <v>0</v>
+      </c>
+      <c r="O143" s="7">
+        <v>364.13</v>
+      </c>
+      <c r="P143">
+        <v>3011.9</v>
+      </c>
+      <c r="Q143" s="9">
+        <f>O143/P143</f>
+        <v>0.12089710813772037</v>
+      </c>
+      <c r="R143">
+        <v>2979</v>
+      </c>
+      <c r="S143" s="9">
+        <f>O143/R143</f>
+        <v>0.1222322927156764</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -7913,15 +9435,37 @@
       <c r="J144" t="s">
         <v>49</v>
       </c>
-      <c r="K144" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q144" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K144">
+        <v>5.58</v>
+      </c>
+      <c r="L144" s="7">
+        <v>0</v>
+      </c>
+      <c r="M144" s="7">
+        <v>95.87</v>
+      </c>
+      <c r="N144" s="7">
+        <v>0</v>
+      </c>
+      <c r="O144" s="7">
+        <v>320.2</v>
+      </c>
+      <c r="P144">
+        <v>3014.6</v>
+      </c>
+      <c r="Q144" s="9">
+        <f>O144/P144</f>
+        <v>0.10621641345452133</v>
+      </c>
+      <c r="R144">
+        <v>2979</v>
+      </c>
+      <c r="S144" s="9">
+        <f>O144/R144</f>
+        <v>0.10748573346760658</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -7952,15 +9496,37 @@
       <c r="J145" t="s">
         <v>50</v>
       </c>
-      <c r="K145" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q145" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K145">
+        <v>6.23</v>
+      </c>
+      <c r="L145" s="7">
+        <v>0</v>
+      </c>
+      <c r="M145" s="7">
+        <v>203.78</v>
+      </c>
+      <c r="N145" s="7">
+        <v>0</v>
+      </c>
+      <c r="O145" s="7">
+        <v>282.3</v>
+      </c>
+      <c r="P145">
+        <v>2987</v>
+      </c>
+      <c r="Q145" s="9">
+        <f>O145/P145</f>
+        <v>9.4509541345831949E-2</v>
+      </c>
+      <c r="R145">
+        <v>2979</v>
+      </c>
+      <c r="S145" s="9">
+        <f>O145/R145</f>
+        <v>9.4763343403826791E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -7991,15 +9557,37 @@
       <c r="J146" t="s">
         <v>51</v>
       </c>
-      <c r="K146" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q146" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K146">
+        <v>2.56</v>
+      </c>
+      <c r="L146" s="7">
+        <v>5.44</v>
+      </c>
+      <c r="M146" s="7">
+        <v>423.32</v>
+      </c>
+      <c r="N146" s="7">
+        <v>0</v>
+      </c>
+      <c r="O146" s="7">
+        <v>620.09</v>
+      </c>
+      <c r="P146">
+        <v>3010</v>
+      </c>
+      <c r="Q146" s="9">
+        <f>O146/P146</f>
+        <v>0.20600996677740865</v>
+      </c>
+      <c r="R146">
+        <v>2979</v>
+      </c>
+      <c r="S146" s="9">
+        <f>O146/R146</f>
+        <v>0.20815374286673383</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -8030,15 +9618,37 @@
       <c r="J147" t="s">
         <v>52</v>
       </c>
-      <c r="K147" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q147" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K147">
+        <v>1.58</v>
+      </c>
+      <c r="L147" s="7">
+        <v>5.32</v>
+      </c>
+      <c r="M147" s="7">
+        <v>181.39</v>
+      </c>
+      <c r="N147" s="7">
+        <v>5.03</v>
+      </c>
+      <c r="O147" s="7">
+        <v>1422.77</v>
+      </c>
+      <c r="P147">
+        <v>2991.8</v>
+      </c>
+      <c r="Q147" s="9">
+        <f>O147/P147</f>
+        <v>0.47555652115783137</v>
+      </c>
+      <c r="R147">
+        <v>2979</v>
+      </c>
+      <c r="S147" s="9">
+        <f>O147/R147</f>
+        <v>0.47759986572675395</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -8069,15 +9679,37 @@
       <c r="J148" t="s">
         <v>53</v>
       </c>
-      <c r="K148" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q148" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K148">
+        <v>2.58</v>
+      </c>
+      <c r="L148" s="7">
+        <v>3.76</v>
+      </c>
+      <c r="M148" s="7">
+        <v>149.19</v>
+      </c>
+      <c r="N148" s="7">
+        <v>2.76</v>
+      </c>
+      <c r="O148" s="7">
+        <v>1225.55</v>
+      </c>
+      <c r="P148">
+        <v>2985.4</v>
+      </c>
+      <c r="Q148" s="9">
+        <f>O148/P148</f>
+        <v>0.41051450391907279</v>
+      </c>
+      <c r="R148">
+        <v>2979</v>
+      </c>
+      <c r="S148" s="9">
+        <f>O148/R148</f>
+        <v>0.41139644175897949</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -8108,54 +9740,98 @@
       <c r="J149" t="s">
         <v>54</v>
       </c>
-      <c r="K149" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q149" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A150" s="4">
+      <c r="K149">
+        <v>1.38</v>
+      </c>
+      <c r="L149" s="7">
+        <v>6.28</v>
+      </c>
+      <c r="M149" s="7">
+        <v>167.44</v>
+      </c>
+      <c r="N149" s="7">
+        <v>12.1</v>
+      </c>
+      <c r="O149" s="7">
+        <v>1527.45</v>
+      </c>
+      <c r="P149">
+        <v>2997.8</v>
+      </c>
+      <c r="Q149" s="9">
+        <f>O149/P149</f>
+        <v>0.50952365067716321</v>
+      </c>
+      <c r="R149">
+        <v>2979</v>
+      </c>
+      <c r="S149" s="9">
+        <f>O149/R149</f>
+        <v>0.51273917421953674</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150" s="10">
         <v>149</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="11">
         <v>44996</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D150" s="5">
-        <v>500000</v>
-      </c>
-      <c r="E150">
+      <c r="D150" s="13">
+        <v>500000</v>
+      </c>
+      <c r="E150" s="12">
         <v>112</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="12">
         <v>0.99</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H150" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I150">
+      <c r="I150" s="12">
         <v>32</v>
       </c>
-      <c r="J150" t="s">
+      <c r="J150" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K150" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q150" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K150">
+        <v>1.29</v>
+      </c>
+      <c r="L150" s="7">
+        <v>6</v>
+      </c>
+      <c r="M150" s="7">
+        <v>193.59</v>
+      </c>
+      <c r="N150" s="7">
+        <v>11.92</v>
+      </c>
+      <c r="O150" s="7">
+        <v>1582.83</v>
+      </c>
+      <c r="P150">
+        <v>3003.2</v>
+      </c>
+      <c r="Q150" s="9">
+        <f>O150/P150</f>
+        <v>0.52704781566329251</v>
+      </c>
+      <c r="R150">
+        <v>2979</v>
+      </c>
+      <c r="S150" s="9">
+        <f>O150/R150</f>
+        <v>0.53132930513595167</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -8186,15 +9862,37 @@
       <c r="J151" t="s">
         <v>56</v>
       </c>
-      <c r="K151" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q151" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K151">
+        <v>1.6</v>
+      </c>
+      <c r="L151" s="7">
+        <v>5.67</v>
+      </c>
+      <c r="M151" s="7">
+        <v>239.7</v>
+      </c>
+      <c r="N151" s="7">
+        <v>6.85</v>
+      </c>
+      <c r="O151" s="7">
+        <v>1540.7</v>
+      </c>
+      <c r="P151">
+        <v>2982.8</v>
+      </c>
+      <c r="Q151" s="9">
+        <f>O151/P151</f>
+        <v>0.51652809440793879</v>
+      </c>
+      <c r="R151">
+        <v>2979</v>
+      </c>
+      <c r="S151" s="9">
+        <f>O151/R151</f>
+        <v>0.51718697549513259</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -8225,15 +9923,37 @@
       <c r="J152" t="s">
         <v>57</v>
       </c>
-      <c r="K152" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q152" s="9" t="e">
-        <f t="shared" ref="Q152:Q163" si="4">O152/P152</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K152">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="L152" s="7">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="M152" s="7">
+        <v>305.5</v>
+      </c>
+      <c r="N152" s="7">
+        <v>0</v>
+      </c>
+      <c r="O152" s="7">
+        <v>843.72</v>
+      </c>
+      <c r="P152">
+        <v>2972.4</v>
+      </c>
+      <c r="Q152" s="9">
+        <f>O152/P152</f>
+        <v>0.28385143318530481</v>
+      </c>
+      <c r="R152">
+        <v>2979</v>
+      </c>
+      <c r="S152" s="9">
+        <f>O152/R152</f>
+        <v>0.28322255790533735</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -8264,15 +9984,37 @@
       <c r="J153" t="s">
         <v>58</v>
       </c>
-      <c r="K153" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q153" s="9" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K153">
+        <v>1.77</v>
+      </c>
+      <c r="L153" s="7">
+        <v>5.74</v>
+      </c>
+      <c r="M153" s="7">
+        <v>257.41000000000003</v>
+      </c>
+      <c r="N153" s="7">
+        <v>0</v>
+      </c>
+      <c r="O153" s="7">
+        <v>838.01</v>
+      </c>
+      <c r="P153">
+        <v>3019.8</v>
+      </c>
+      <c r="Q153" s="9">
+        <f>O153/P153</f>
+        <v>0.27750513279025096</v>
+      </c>
+      <c r="R153">
+        <v>2979</v>
+      </c>
+      <c r="S153" s="9">
+        <f>O153/R153</f>
+        <v>0.2813058073178919</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -8303,15 +10045,37 @@
       <c r="J154" t="s">
         <v>59</v>
       </c>
-      <c r="K154" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q154" s="9" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K154">
+        <v>1.19</v>
+      </c>
+      <c r="L154" s="7">
+        <v>6.54</v>
+      </c>
+      <c r="M154" s="7">
+        <v>228.51</v>
+      </c>
+      <c r="N154" s="7">
+        <v>0</v>
+      </c>
+      <c r="O154" s="7">
+        <v>932.41</v>
+      </c>
+      <c r="P154">
+        <v>2979.7</v>
+      </c>
+      <c r="Q154" s="9">
+        <f>O154/P154</f>
+        <v>0.31292076383528544</v>
+      </c>
+      <c r="R154">
+        <v>2979</v>
+      </c>
+      <c r="S154" s="9">
+        <f>O154/R154</f>
+        <v>0.3129942933870426</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -8342,15 +10106,37 @@
       <c r="J155" t="s">
         <v>60</v>
       </c>
-      <c r="K155" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q155" s="9" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K155">
+        <v>3.04</v>
+      </c>
+      <c r="L155" s="7">
+        <v>3.75</v>
+      </c>
+      <c r="M155" s="7">
+        <v>223.67</v>
+      </c>
+      <c r="N155" s="7">
+        <v>0</v>
+      </c>
+      <c r="O155" s="7">
+        <v>748.03</v>
+      </c>
+      <c r="P155">
+        <v>3040.6</v>
+      </c>
+      <c r="Q155" s="9">
+        <f>O155/P155</f>
+        <v>0.24601394461619416</v>
+      </c>
+      <c r="R155">
+        <v>2979</v>
+      </c>
+      <c r="S155" s="9">
+        <f>O155/R155</f>
+        <v>0.25110104061765692</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -8381,15 +10167,37 @@
       <c r="J156" t="s">
         <v>61</v>
       </c>
-      <c r="K156" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q156" s="9" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K156">
+        <v>6.16</v>
+      </c>
+      <c r="L156" s="7">
+        <v>0</v>
+      </c>
+      <c r="M156" s="7">
+        <v>142.27000000000001</v>
+      </c>
+      <c r="N156" s="7">
+        <v>0</v>
+      </c>
+      <c r="O156" s="7">
+        <v>414.98</v>
+      </c>
+      <c r="P156">
+        <v>3016</v>
+      </c>
+      <c r="Q156" s="9">
+        <f>O156/P156</f>
+        <v>0.13759283819628648</v>
+      </c>
+      <c r="R156">
+        <v>2979</v>
+      </c>
+      <c r="S156" s="9">
+        <f>O156/R156</f>
+        <v>0.13930177912051026</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -8420,15 +10228,37 @@
       <c r="J157" t="s">
         <v>62</v>
       </c>
-      <c r="K157" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q157" s="9" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K157">
+        <v>1.89</v>
+      </c>
+      <c r="L157" s="7">
+        <v>4.32</v>
+      </c>
+      <c r="M157" s="7">
+        <v>118.57</v>
+      </c>
+      <c r="N157" s="7">
+        <v>7.49</v>
+      </c>
+      <c r="O157" s="7">
+        <v>1276.3900000000001</v>
+      </c>
+      <c r="P157">
+        <v>2982.2</v>
+      </c>
+      <c r="Q157" s="9">
+        <f>O157/P157</f>
+        <v>0.42800281671249418</v>
+      </c>
+      <c r="R157">
+        <v>2979</v>
+      </c>
+      <c r="S157" s="9">
+        <f>O157/R157</f>
+        <v>0.42846257133266202</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -8459,15 +10289,37 @@
       <c r="J158" t="s">
         <v>63</v>
       </c>
-      <c r="K158" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q158" s="9" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K158">
+        <v>5.94</v>
+      </c>
+      <c r="L158" s="7">
+        <v>1.17</v>
+      </c>
+      <c r="M158" s="7">
+        <v>368.53</v>
+      </c>
+      <c r="N158" s="7">
+        <v>1.76</v>
+      </c>
+      <c r="O158" s="7">
+        <v>118.31</v>
+      </c>
+      <c r="P158">
+        <v>3029.3</v>
+      </c>
+      <c r="Q158" s="9">
+        <f>O158/P158</f>
+        <v>3.9055227280229754E-2</v>
+      </c>
+      <c r="R158">
+        <v>2979</v>
+      </c>
+      <c r="S158" s="9">
+        <f>O158/R158</f>
+        <v>3.9714669352131589E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -8498,15 +10350,37 @@
       <c r="J159" t="s">
         <v>64</v>
       </c>
-      <c r="K159" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q159" s="9" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K159">
+        <v>7.13</v>
+      </c>
+      <c r="L159" s="7">
+        <v>0</v>
+      </c>
+      <c r="M159" s="7">
+        <v>566.64</v>
+      </c>
+      <c r="N159" s="7">
+        <v>0</v>
+      </c>
+      <c r="O159" s="7">
+        <v>-248.33</v>
+      </c>
+      <c r="P159">
+        <v>2982</v>
+      </c>
+      <c r="Q159" s="9">
+        <f>O159/P159</f>
+        <v>-8.327632461435279E-2</v>
+      </c>
+      <c r="R159">
+        <v>2979</v>
+      </c>
+      <c r="S159" s="9">
+        <f>O159/R159</f>
+        <v>-8.3360187982544479E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -8537,15 +10411,37 @@
       <c r="J160" t="s">
         <v>65</v>
       </c>
-      <c r="K160" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q160" s="9" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K160">
+        <v>6.07</v>
+      </c>
+      <c r="L160" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="M160" s="7">
+        <v>622.39</v>
+      </c>
+      <c r="N160" s="7">
+        <v>0</v>
+      </c>
+      <c r="O160" s="7">
+        <v>-155.29</v>
+      </c>
+      <c r="P160">
+        <v>2984.1</v>
+      </c>
+      <c r="Q160" s="9">
+        <f>O160/P160</f>
+        <v>-5.2039140779464498E-2</v>
+      </c>
+      <c r="R160">
+        <v>2979</v>
+      </c>
+      <c r="S160" s="9">
+        <f>O160/R160</f>
+        <v>-5.2128230949983215E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -8576,15 +10472,37 @@
       <c r="J161" t="s">
         <v>66</v>
       </c>
-      <c r="K161" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q161" s="9" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K161">
+        <v>7.04</v>
+      </c>
+      <c r="L161" s="7">
+        <v>0</v>
+      </c>
+      <c r="M161" s="7">
+        <v>280.20999999999998</v>
+      </c>
+      <c r="N161" s="7">
+        <v>0</v>
+      </c>
+      <c r="O161" s="7">
+        <v>272.51</v>
+      </c>
+      <c r="P161">
+        <v>3020.9</v>
+      </c>
+      <c r="Q161" s="9">
+        <f>O161/P161</f>
+        <v>9.0208216094541355E-2</v>
+      </c>
+      <c r="R161">
+        <v>2979</v>
+      </c>
+      <c r="S161" s="9">
+        <f>O161/R161</f>
+        <v>9.1477005706612949E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -8615,15 +10533,37 @@
       <c r="J162" t="s">
         <v>67</v>
       </c>
-      <c r="K162" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q162" s="9" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K162">
+        <v>6.35</v>
+      </c>
+      <c r="L162" s="7">
+        <v>0</v>
+      </c>
+      <c r="M162" s="7">
+        <v>232.55</v>
+      </c>
+      <c r="N162" s="7">
+        <v>0</v>
+      </c>
+      <c r="O162" s="7">
+        <v>264.86</v>
+      </c>
+      <c r="P162">
+        <v>3000.7</v>
+      </c>
+      <c r="Q162" s="9">
+        <f>O162/P162</f>
+        <v>8.8266071250041669E-2</v>
+      </c>
+      <c r="R162">
+        <v>2979</v>
+      </c>
+      <c r="S162" s="9">
+        <f>O162/R162</f>
+        <v>8.8909029875797255E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -8654,15 +10594,37 @@
       <c r="J163" t="s">
         <v>68</v>
       </c>
-      <c r="K163" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q163" s="9" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K163">
+        <v>6.51</v>
+      </c>
+      <c r="L163" s="7">
+        <v>0</v>
+      </c>
+      <c r="M163" s="7">
+        <v>255.69</v>
+      </c>
+      <c r="N163" s="7">
+        <v>0</v>
+      </c>
+      <c r="O163" s="7">
+        <v>194.24</v>
+      </c>
+      <c r="P163">
+        <v>2964.8</v>
+      </c>
+      <c r="Q163" s="9">
+        <f>O163/P163</f>
+        <v>6.5515380464112247E-2</v>
+      </c>
+      <c r="R163">
+        <v>2979</v>
+      </c>
+      <c r="S163" s="9">
+        <f>O163/R163</f>
+        <v>6.5203088284659289E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -8712,11 +10674,18 @@
         <v>2991.5</v>
       </c>
       <c r="Q164" s="9">
-        <f t="shared" si="3"/>
+        <f>O164/P164</f>
         <v>0.10609059000501421</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R164">
+        <v>2979</v>
+      </c>
+      <c r="S164" s="9">
+        <f>O164/R164</f>
+        <v>0.10653575025176233</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -8766,17 +10735,29 @@
         <v>3010.1</v>
       </c>
       <c r="Q165" s="9">
-        <f t="shared" si="3"/>
+        <f>O165/P165</f>
         <v>0.40580047174512474</v>
       </c>
+      <c r="R165">
+        <v>2979</v>
+      </c>
+      <c r="S165" s="9">
+        <f>O165/R165</f>
+        <v>0.41003692514266532</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R165" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R165">
+  <autoFilter ref="A1:T165" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T165">
       <sortCondition ref="A1:A165"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R165">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T165">
     <sortCondition ref="A1:A165"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8828,7 +10809,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1048576">
+  <conditionalFormatting sqref="Q1:Q1048576 S1:S1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
